--- a/코딩/API 명세.xlsx
+++ b/코딩/API 명세.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\코딩\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-server\코딩\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930FF018-8F2A-489B-B5B2-1356D1AE656C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7E49B3-EBDC-4EB9-B3E3-A623B111C253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="목록" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="141">
   <si>
     <t>[API 기본 정보]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +80,513 @@
   </si>
   <si>
     <t>1. 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필드명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필드 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 응답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hive_id로 게임 아이디 확인, 존재하지 않을 경우 게임 아이디 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hive_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nation_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pearl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatigue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진주 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로도 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind_direction_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 시간 (시간마다 날씨가 변화하고, 시간에 따른 날씨 값이 존재하지 않으면 새로 생성한다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍향 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 속 유저 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_item_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 가지고 있는 아이템 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read-item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add-item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read-weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 획득한 아이템 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 획득 후 인벤토리 item이 추가되면서 생성된 user_item id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 날씨 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 유저 인벤토리 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 아이템 획득 시 인벤토리 item 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인(유저 계정 정보 보여주기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 인벤토리 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user, user_account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventory, inventory_type, user_item, rod, line, reel, hook, sinker, bait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 아이템 획득 시 등록하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 보트 정보 보여주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_boat, boat_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보트 레벨이 올라가면, boat_level에 맞춰서 user_boat 정보 갱신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물함(우편함) 조회</t>
+  </si>
+  <si>
+    <t>선물함(우편함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물함(우편함) 물품 수령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_gift_box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도감에 등록된 물고기 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물함(우편함) 물품 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store, user, asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에서 물건 구입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 진주(pearl) 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 피로도(fatigue) 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 골드(gold) 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 경험치(experience) 변경 후 user_level 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_level 조회 후 경험치 초과의 경우 유저 레벨업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출항하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어류도감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map, user_boat, user_current_place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈 수 있을 경우 user_current_place의 map_id, boat의 fuel 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_current_item, inventory, user_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 장착하고 있는 채비 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 가지고 있는 아이템으로 채비 장착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 후 user가 장착한 item의 내구도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 출항한 위치의 물고기 목록 + 부품조각 조회(유저가 내린 낚시줄의 길이도 고려할 것)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish, user_fish, user_current_item, piece, item_map, inventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 성공 시, user_fish, inventory(inventory_type = 잡은 것에 알맞게)에 등록하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입항하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_fish 중 정산하지 않은 fish 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정해진 도감 등록수를 채우면 보상 지급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_book, book_prize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 포획 후 입항 시, 어류 도감에 등록하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_fish, user_boat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚싯배 내구도 수리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매 후 fish_auction gold 값에 더해준다, 만약 sell_date의 week가 현재 week와 다를 경우 gold값으로 갱신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매 후 user_fish에 있는 fish 삭제하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루에 한번씩 신선함 깎기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 경매 gold 금액 가져올때, order by desc로 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 boat 업그레이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_upgrade_item, rod, line, reel, user_boat, boat_level, piece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_upgrade_item 중 rod, line, reel의 경우 업그레이드 가능. 부품 조각의 개수를 만족할 경우 업그레이드 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(날씨와 조수간만차 정보를 바탕으로 적절한 채비를 선택해야 한다는데, 기준을 잘 모르겠음..)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 시간마다 user_boat의 durability(내구도) 감소시키기, map의 reduced_durability를 기반으로, 만약 내구도가 0이 되면 입항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희망하는 장소에 가기 위한 조건을 만족하는지 체크(연료, 레벨 제한), 연료가 0이 되면 입항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_fish_auction, user_fish, user_fish_cost, inventory, user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어종별 시세가 다르고 이를 기록하기(경매 시 얼마에 어떤 크기의 물고기가 팔려나갔는지), user의 level이 높을수록 잘 팔려나간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조수간만차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 시간에 맞는 조수간만차 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -86,7 +594,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,8 +626,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,7 +682,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,11 +724,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -431,48 +1031,410 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC42127-3818-46F0-AC5A-E9D3185077E0}">
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="64.4140625" customWidth="1"/>
+    <col min="2" max="2" width="112.9140625" customWidth="1"/>
+    <col min="3" max="3" width="23.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="15"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="15"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="15"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="15"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="15"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="B50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="15"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="B53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="B54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="B57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="15"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="15"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="B64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:F76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="34.4140625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.58203125" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="78.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" ht="21">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
@@ -482,30 +1444,681 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:6" ht="21">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:6" ht="21">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" ht="17.5">
+      <c r="A11" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="11"/>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="11"/>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="11"/>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="11"/>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="11"/>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="11"/>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="11"/>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="11"/>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="11"/>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17.5">
+      <c r="A33" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="10"/>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="10"/>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="10"/>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="10"/>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="10"/>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17.5">
+      <c r="A50" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="10"/>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="10"/>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="10"/>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="B76" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="A44:A48"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{29DC0482-B4F3-4839-8C63-D462C13C5225}"/>

--- a/코딩/API 명세.xlsx
+++ b/코딩/API 명세.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-server\코딩\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E78D31-B3EF-403B-99F2-CEF6CE996DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12705C72-C1CE-4206-AF66-CF8807050D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-3285" windowWidth="38670" windowHeight="21270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37545" yWindow="-2895" windowWidth="24360" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="명세" sheetId="2" r:id="rId1"/>
+    <sheet name="에러코드" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="374">
   <si>
     <t>[API 기본 정보]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1339,12 +1340,236 @@
     <t>26. 선물함(우편함) 선물 수령</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>HTTP 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알 수 없는 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파라미터가 유효하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획 데이터 존재하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 계정 존재하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 DB 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가 DB 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가가 존재하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어 DB 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어가 존재하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저, 세션 키 일치하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVENTORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 DB 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 내 데이터가 존재하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 DB 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 낚싯대를 장착하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 낚싯줄을 장착하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 릴을 장착하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 낚시바늘을 장착하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 미끼를 장착하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 추를 장착하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 레벨이 최대 레벨에 도달함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEATHER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 DB 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍향(wind_direction)이 존재하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조수간만차(tide)이 존재하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPARTURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출항 관련 DB 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로도 부족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보트 연료 부족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보트 내구도 부족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FISHING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 관련 DB 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 레벨 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미끼 부족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚싯대 내구도 감소로 부숴짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>릴 내구도 감소로 부숴짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보트 내구도 감소로 입항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보트 내구도 수리 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUCTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매 관련 DB 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 경매된 물고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARRIVAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입항 관련 DB 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정산할 물고기가 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도감에 모두 등록된 물고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도감 등록 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1415,6 +1640,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1461,7 +1695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -1482,12 +1716,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1497,6 +1725,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1780,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA3FFED-0ACE-4B02-8CBF-8F624EFBFFBA}">
   <dimension ref="A2:F436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="C424" sqref="C424"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1866,16 +2104,16 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -1924,12 +2162,12 @@
         <v>13</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -1948,7 +2186,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
+      <c r="A22" s="17">
         <v>1000</v>
       </c>
       <c r="B22" t="s">
@@ -1962,7 +2200,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
+      <c r="A23" s="17"/>
       <c r="B23" t="s">
         <v>28</v>
       </c>
@@ -1974,7 +2212,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
+      <c r="A24" s="17"/>
       <c r="B24" t="s">
         <v>33</v>
       </c>
@@ -1986,7 +2224,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
+      <c r="A25" s="17"/>
       <c r="B25" t="s">
         <v>35</v>
       </c>
@@ -1998,7 +2236,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
+      <c r="A26" s="17"/>
       <c r="B26" t="s">
         <v>37</v>
       </c>
@@ -2010,7 +2248,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
+      <c r="A27" s="17"/>
       <c r="B27" t="s">
         <v>39</v>
       </c>
@@ -2022,7 +2260,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
+      <c r="A28" s="17"/>
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -2034,7 +2272,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
+      <c r="A29" s="17"/>
       <c r="B29" t="s">
         <v>42</v>
       </c>
@@ -2046,7 +2284,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
+      <c r="A30" s="17"/>
       <c r="B30" t="s">
         <v>43</v>
       </c>
@@ -2058,7 +2296,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
+      <c r="A31" s="17"/>
     </row>
     <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
@@ -2076,16 +2314,16 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
@@ -2108,7 +2346,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="13" t="s">
         <v>77</v>
       </c>
       <c r="B39" t="s">
@@ -2134,12 +2372,12 @@
         <v>13</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
@@ -2163,7 +2401,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="231" x14ac:dyDescent="0.3">
-      <c r="A45" s="15">
+      <c r="A45" s="13">
         <v>1000</v>
       </c>
       <c r="B45" t="s">
@@ -2187,16 +2425,16 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12" t="s">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
@@ -2219,7 +2457,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B51" t="s">
@@ -2236,7 +2474,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
+      <c r="A52" s="15"/>
       <c r="B52" t="s">
         <v>79</v>
       </c>
@@ -2257,12 +2495,12 @@
         <v>13</v>
       </c>
       <c r="B55" s="5"/>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
@@ -2281,7 +2519,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="16">
+      <c r="A57" s="15">
         <v>1000</v>
       </c>
       <c r="B57" t="s">
@@ -2295,7 +2533,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="16"/>
+      <c r="A58" s="15"/>
       <c r="B58" t="s">
         <v>80</v>
       </c>
@@ -2307,7 +2545,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="16"/>
+      <c r="A59" s="15"/>
       <c r="B59" t="s">
         <v>81</v>
       </c>
@@ -2319,7 +2557,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="16"/>
+      <c r="A60" s="15"/>
       <c r="B60" t="s">
         <v>82</v>
       </c>
@@ -2331,7 +2569,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="16"/>
+      <c r="A61" s="15"/>
       <c r="B61" t="s">
         <v>83</v>
       </c>
@@ -2343,7 +2581,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="16"/>
+      <c r="A62" s="15"/>
       <c r="B62" t="s">
         <v>84</v>
       </c>
@@ -2355,7 +2593,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="16"/>
+      <c r="A63" s="15"/>
       <c r="B63" t="s">
         <v>85</v>
       </c>
@@ -2377,16 +2615,16 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12" t="s">
+      <c r="B67" s="16"/>
+      <c r="C67" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
@@ -2446,12 +2684,12 @@
         <v>13</v>
       </c>
       <c r="B73" s="5"/>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
@@ -2470,7 +2708,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="16">
+      <c r="A75" s="15">
         <v>1000</v>
       </c>
       <c r="B75" t="s">
@@ -2484,7 +2722,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="16"/>
+      <c r="A76" s="15"/>
       <c r="B76" t="s">
         <v>98</v>
       </c>
@@ -2496,7 +2734,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="16"/>
+      <c r="A77" s="15"/>
       <c r="B77" t="s">
         <v>104</v>
       </c>
@@ -2508,7 +2746,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="16"/>
+      <c r="A78" s="15"/>
       <c r="B78" t="s">
         <v>105</v>
       </c>
@@ -2520,7 +2758,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="16"/>
+      <c r="A79" s="15"/>
       <c r="B79" t="s">
         <v>99</v>
       </c>
@@ -2532,7 +2770,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="16"/>
+      <c r="A80" s="15"/>
       <c r="B80" t="s">
         <v>101</v>
       </c>
@@ -2544,7 +2782,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="16"/>
+      <c r="A81" s="15"/>
       <c r="B81" t="s">
         <v>100</v>
       </c>
@@ -2556,7 +2794,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="16"/>
+      <c r="A82" s="15"/>
       <c r="B82" t="s">
         <v>37</v>
       </c>
@@ -2568,7 +2806,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="16"/>
+      <c r="A83" s="15"/>
       <c r="B83" t="s">
         <v>102</v>
       </c>
@@ -2580,7 +2818,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="16"/>
+      <c r="A84" s="15"/>
       <c r="B84" t="s">
         <v>103</v>
       </c>
@@ -2607,16 +2845,16 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12" t="s">
+      <c r="B90" s="16"/>
+      <c r="C90" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
@@ -2639,7 +2877,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="15" t="s">
         <v>134</v>
       </c>
       <c r="B92" t="s">
@@ -2656,7 +2894,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="16"/>
+      <c r="A93" s="15"/>
       <c r="B93" t="s">
         <v>118</v>
       </c>
@@ -2671,7 +2909,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="16"/>
+      <c r="A94" s="15"/>
       <c r="B94" t="s">
         <v>119</v>
       </c>
@@ -2719,7 +2957,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="16">
+      <c r="A99" s="15">
         <v>1000</v>
       </c>
       <c r="B99" t="s">
@@ -2733,7 +2971,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="16"/>
+      <c r="A100" s="15"/>
       <c r="B100" t="s">
         <v>122</v>
       </c>
@@ -2745,7 +2983,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="16"/>
+      <c r="A101" s="15"/>
       <c r="B101" t="s">
         <v>123</v>
       </c>
@@ -2757,7 +2995,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="16"/>
+      <c r="A102" s="15"/>
       <c r="B102" t="s">
         <v>124</v>
       </c>
@@ -2769,7 +3007,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="16"/>
+      <c r="A103" s="15"/>
       <c r="B103" t="s">
         <v>125</v>
       </c>
@@ -2781,7 +3019,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="16"/>
+      <c r="A104" s="15"/>
       <c r="B104" t="s">
         <v>103</v>
       </c>
@@ -2812,12 +3050,12 @@
         <v>13</v>
       </c>
       <c r="B110" s="5"/>
-      <c r="C110" s="12" t="s">
+      <c r="C110" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
@@ -2866,12 +3104,12 @@
         <v>13</v>
       </c>
       <c r="B115" s="5"/>
-      <c r="C115" s="12" t="s">
+      <c r="C115" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
@@ -2890,7 +3128,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="16">
+      <c r="A117" s="15">
         <v>1000</v>
       </c>
       <c r="B117" t="s">
@@ -2904,7 +3142,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="16"/>
+      <c r="A118" s="15"/>
       <c r="B118" t="s">
         <v>48</v>
       </c>
@@ -2916,7 +3154,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="16"/>
+      <c r="A119" s="15"/>
       <c r="B119" t="s">
         <v>50</v>
       </c>
@@ -2928,7 +3166,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="16"/>
+      <c r="A120" s="15"/>
       <c r="B120" t="s">
         <v>49</v>
       </c>
@@ -2940,7 +3178,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="16"/>
+      <c r="A121" s="15"/>
       <c r="B121" t="s">
         <v>135</v>
       </c>
@@ -2952,7 +3190,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="16"/>
+      <c r="A122" s="15"/>
       <c r="B122" t="s">
         <v>136</v>
       </c>
@@ -2983,12 +3221,12 @@
         <v>13</v>
       </c>
       <c r="B128" s="5"/>
-      <c r="C128" s="12" t="s">
+      <c r="C128" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
@@ -3011,7 +3249,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="16" t="s">
+      <c r="A130" s="15" t="s">
         <v>141</v>
       </c>
       <c r="B130" t="s">
@@ -3028,7 +3266,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="16"/>
+      <c r="A131" s="15"/>
       <c r="B131" t="s">
         <v>80</v>
       </c>
@@ -3052,12 +3290,12 @@
         <v>13</v>
       </c>
       <c r="B134" s="5"/>
-      <c r="C134" s="12" t="s">
+      <c r="C134" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
@@ -3076,7 +3314,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="16">
+      <c r="A136" s="15">
         <v>1000</v>
       </c>
       <c r="B136" t="s">
@@ -3090,7 +3328,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="16"/>
+      <c r="A137" s="15"/>
       <c r="B137" t="s">
         <v>145</v>
       </c>
@@ -3102,7 +3340,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="16"/>
+      <c r="A138" s="15"/>
       <c r="B138" t="s">
         <v>143</v>
       </c>
@@ -3114,7 +3352,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="16"/>
+      <c r="A139" s="15"/>
       <c r="B139" t="s">
         <v>144</v>
       </c>
@@ -3126,7 +3364,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="16"/>
+      <c r="A140" s="15"/>
       <c r="B140" t="s">
         <v>146</v>
       </c>
@@ -3138,7 +3376,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="16"/>
+      <c r="A141" s="15"/>
       <c r="B141" t="s">
         <v>147</v>
       </c>
@@ -3150,7 +3388,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="16"/>
+      <c r="A142" s="15"/>
       <c r="B142" t="s">
         <v>148</v>
       </c>
@@ -3162,7 +3400,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="16"/>
+      <c r="A143" s="15"/>
       <c r="B143" t="s">
         <v>149</v>
       </c>
@@ -3174,7 +3412,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="16"/>
+      <c r="A144" s="15"/>
       <c r="B144" t="s">
         <v>150</v>
       </c>
@@ -3186,7 +3424,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="16"/>
+      <c r="A145" s="15"/>
       <c r="B145" t="s">
         <v>151</v>
       </c>
@@ -3217,12 +3455,12 @@
         <v>13</v>
       </c>
       <c r="B151" s="5"/>
-      <c r="C151" s="12" t="s">
+      <c r="C151" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
@@ -3271,12 +3509,12 @@
         <v>13</v>
       </c>
       <c r="B156" s="5"/>
-      <c r="C156" s="12" t="s">
+      <c r="C156" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="12"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
@@ -3295,7 +3533,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="16">
+      <c r="A158" s="15">
         <v>1000</v>
       </c>
       <c r="B158" t="s">
@@ -3309,7 +3547,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="16"/>
+      <c r="A159" s="15"/>
       <c r="B159" t="s">
         <v>165</v>
       </c>
@@ -3321,7 +3559,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="16"/>
+      <c r="A160" s="15"/>
       <c r="B160" t="s">
         <v>179</v>
       </c>
@@ -3333,7 +3571,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="16"/>
+      <c r="A161" s="15"/>
       <c r="B161" t="s">
         <v>180</v>
       </c>
@@ -3345,7 +3583,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="16"/>
+      <c r="A162" s="15"/>
       <c r="B162" t="s">
         <v>168</v>
       </c>
@@ -3357,7 +3595,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="16"/>
+      <c r="A163" s="15"/>
       <c r="B163" t="s">
         <v>166</v>
       </c>
@@ -3369,7 +3607,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="16"/>
+      <c r="A164" s="15"/>
       <c r="B164" t="s">
         <v>167</v>
       </c>
@@ -3381,7 +3619,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="16"/>
+      <c r="A165" s="15"/>
       <c r="B165" t="s">
         <v>169</v>
       </c>
@@ -3393,7 +3631,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="16"/>
+      <c r="A166" s="15"/>
       <c r="B166" t="s">
         <v>170</v>
       </c>
@@ -3405,7 +3643,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="16"/>
+      <c r="A167" s="15"/>
       <c r="B167" t="s">
         <v>171</v>
       </c>
@@ -3417,7 +3655,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="16"/>
+      <c r="A168" s="15"/>
       <c r="B168" t="s">
         <v>181</v>
       </c>
@@ -3429,7 +3667,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="16"/>
+      <c r="A169" s="15"/>
       <c r="B169" t="s">
         <v>172</v>
       </c>
@@ -3441,7 +3679,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="16"/>
+      <c r="A170" s="15"/>
       <c r="B170" t="s">
         <v>173</v>
       </c>
@@ -3453,7 +3691,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="16"/>
+      <c r="A171" s="15"/>
       <c r="B171" t="s">
         <v>174</v>
       </c>
@@ -3465,7 +3703,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="16"/>
+      <c r="A172" s="15"/>
       <c r="B172" t="s">
         <v>175</v>
       </c>
@@ -3477,7 +3715,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="16"/>
+      <c r="A173" s="15"/>
       <c r="B173" t="s">
         <v>176</v>
       </c>
@@ -3489,7 +3727,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="16"/>
+      <c r="A174" s="15"/>
       <c r="B174" t="s">
         <v>182</v>
       </c>
@@ -3501,7 +3739,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="16"/>
+      <c r="A175" s="15"/>
       <c r="B175" t="s">
         <v>177</v>
       </c>
@@ -3513,7 +3751,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="16"/>
+      <c r="A176" s="15"/>
       <c r="B176" t="s">
         <v>178</v>
       </c>
@@ -3539,12 +3777,12 @@
         <v>13</v>
       </c>
       <c r="B180" s="5"/>
-      <c r="C180" s="12" t="s">
+      <c r="C180" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D180" s="12"/>
-      <c r="E180" s="12"/>
-      <c r="F180" s="12"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="16"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
@@ -3567,7 +3805,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="16" t="s">
+      <c r="A182" s="15" t="s">
         <v>183</v>
       </c>
       <c r="B182" t="s">
@@ -3584,7 +3822,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="16"/>
+      <c r="A183" s="15"/>
       <c r="B183" t="s">
         <v>118</v>
       </c>
@@ -3608,12 +3846,12 @@
       <c r="B186" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C186" s="12" t="s">
+      <c r="C186" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D186" s="12"/>
-      <c r="E186" s="12"/>
-      <c r="F186" s="12"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="16"/>
+      <c r="F186" s="16"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
@@ -3632,7 +3870,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="16">
+      <c r="A188" s="15">
         <v>1000</v>
       </c>
       <c r="B188" t="s">
@@ -3646,7 +3884,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="16"/>
+      <c r="A189" s="15"/>
       <c r="B189" t="s">
         <v>165</v>
       </c>
@@ -3658,7 +3896,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="16"/>
+      <c r="A190" s="15"/>
       <c r="B190" t="s">
         <v>179</v>
       </c>
@@ -3670,7 +3908,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="16"/>
+      <c r="A191" s="15"/>
       <c r="B191" t="s">
         <v>180</v>
       </c>
@@ -3682,7 +3920,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="16"/>
+      <c r="A192" s="15"/>
       <c r="B192" t="s">
         <v>168</v>
       </c>
@@ -3708,12 +3946,12 @@
         <v>13</v>
       </c>
       <c r="B196" s="5"/>
-      <c r="C196" s="12" t="s">
+      <c r="C196" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D196" s="12"/>
-      <c r="E196" s="12"/>
-      <c r="F196" s="12"/>
+      <c r="D196" s="16"/>
+      <c r="E196" s="16"/>
+      <c r="F196" s="16"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
@@ -3736,7 +3974,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="16" t="s">
+      <c r="A198" s="15" t="s">
         <v>215</v>
       </c>
       <c r="B198" t="s">
@@ -3753,7 +3991,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="16"/>
+      <c r="A199" s="15"/>
       <c r="B199" t="s">
         <v>118</v>
       </c>
@@ -3777,12 +4015,12 @@
       <c r="B202" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C202" s="12" t="s">
+      <c r="C202" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D202" s="12"/>
-      <c r="E202" s="12"/>
-      <c r="F202" s="12"/>
+      <c r="D202" s="16"/>
+      <c r="E202" s="16"/>
+      <c r="F202" s="16"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
@@ -3801,7 +4039,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="16">
+      <c r="A204" s="15">
         <v>1000</v>
       </c>
       <c r="B204" t="s">
@@ -3815,7 +4053,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="16"/>
+      <c r="A205" s="15"/>
       <c r="B205" t="s">
         <v>167</v>
       </c>
@@ -3827,7 +4065,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="16"/>
+      <c r="A206" s="15"/>
       <c r="B206" t="s">
         <v>169</v>
       </c>
@@ -3853,12 +4091,12 @@
         <v>13</v>
       </c>
       <c r="B210" s="5"/>
-      <c r="C210" s="12" t="s">
+      <c r="C210" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D210" s="12"/>
-      <c r="E210" s="12"/>
-      <c r="F210" s="12"/>
+      <c r="D210" s="16"/>
+      <c r="E210" s="16"/>
+      <c r="F210" s="16"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
@@ -3921,12 +4159,12 @@
       <c r="B216" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C216" s="12" t="s">
+      <c r="C216" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D216" s="12"/>
-      <c r="E216" s="12"/>
-      <c r="F216" s="12"/>
+      <c r="D216" s="16"/>
+      <c r="E216" s="16"/>
+      <c r="F216" s="16"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
@@ -3945,7 +4183,7 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="16">
+      <c r="A218" s="15">
         <v>1000</v>
       </c>
       <c r="B218" t="s">
@@ -3959,7 +4197,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="16"/>
+      <c r="A219" s="15"/>
       <c r="B219" t="s">
         <v>171</v>
       </c>
@@ -3971,7 +4209,7 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="16"/>
+      <c r="A220" s="15"/>
       <c r="B220" t="s">
         <v>181</v>
       </c>
@@ -3983,7 +4221,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="16"/>
+      <c r="A221" s="15"/>
       <c r="B221" t="s">
         <v>172</v>
       </c>
@@ -4009,12 +4247,12 @@
         <v>13</v>
       </c>
       <c r="B225" s="5"/>
-      <c r="C225" s="12" t="s">
+      <c r="C225" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D225" s="12"/>
-      <c r="E225" s="12"/>
-      <c r="F225" s="12"/>
+      <c r="D225" s="16"/>
+      <c r="E225" s="16"/>
+      <c r="F225" s="16"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
@@ -4037,7 +4275,7 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A227" s="16" t="s">
+      <c r="A227" s="15" t="s">
         <v>223</v>
       </c>
       <c r="B227" t="s">
@@ -4054,7 +4292,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A228" s="16"/>
+      <c r="A228" s="15"/>
       <c r="B228" t="s">
         <v>118</v>
       </c>
@@ -4078,12 +4316,12 @@
         <v>13</v>
       </c>
       <c r="B231" s="5"/>
-      <c r="C231" s="12" t="s">
+      <c r="C231" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D231" s="12"/>
-      <c r="E231" s="12"/>
-      <c r="F231" s="12"/>
+      <c r="D231" s="16"/>
+      <c r="E231" s="16"/>
+      <c r="F231" s="16"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
@@ -4102,7 +4340,7 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A233" s="16">
+      <c r="A233" s="15">
         <v>1000</v>
       </c>
       <c r="B233" t="s">
@@ -4116,7 +4354,7 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A234" s="16"/>
+      <c r="A234" s="15"/>
       <c r="B234" t="s">
         <v>174</v>
       </c>
@@ -4142,12 +4380,12 @@
         <v>13</v>
       </c>
       <c r="B238" s="5"/>
-      <c r="C238" s="12" t="s">
+      <c r="C238" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D238" s="12"/>
-      <c r="E238" s="12"/>
-      <c r="F238" s="12"/>
+      <c r="D238" s="16"/>
+      <c r="E238" s="16"/>
+      <c r="F238" s="16"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
@@ -4170,7 +4408,7 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" s="16" t="s">
+      <c r="A240" s="15" t="s">
         <v>229</v>
       </c>
       <c r="B240" t="s">
@@ -4187,7 +4425,7 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A241" s="16"/>
+      <c r="A241" s="15"/>
       <c r="B241" t="s">
         <v>118</v>
       </c>
@@ -4211,12 +4449,12 @@
         <v>13</v>
       </c>
       <c r="B244" s="5"/>
-      <c r="C244" s="12" t="s">
+      <c r="C244" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D244" s="12"/>
-      <c r="E244" s="12"/>
-      <c r="F244" s="12"/>
+      <c r="D244" s="16"/>
+      <c r="E244" s="16"/>
+      <c r="F244" s="16"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
@@ -4235,7 +4473,7 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A246" s="16">
+      <c r="A246" s="15">
         <v>1000</v>
       </c>
       <c r="B246" t="s">
@@ -4249,7 +4487,7 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A247" s="16"/>
+      <c r="A247" s="15"/>
       <c r="B247" t="s">
         <v>176</v>
       </c>
@@ -4261,7 +4499,7 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A248" s="16"/>
+      <c r="A248" s="15"/>
       <c r="B248" t="s">
         <v>182</v>
       </c>
@@ -4287,12 +4525,12 @@
         <v>13</v>
       </c>
       <c r="B252" s="5"/>
-      <c r="C252" s="12" t="s">
+      <c r="C252" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D252" s="12"/>
-      <c r="E252" s="12"/>
-      <c r="F252" s="12"/>
+      <c r="D252" s="16"/>
+      <c r="E252" s="16"/>
+      <c r="F252" s="16"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
@@ -4315,7 +4553,7 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A254" s="16" t="s">
+      <c r="A254" s="15" t="s">
         <v>235</v>
       </c>
       <c r="B254" t="s">
@@ -4332,7 +4570,7 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A255" s="16"/>
+      <c r="A255" s="15"/>
       <c r="B255" t="s">
         <v>118</v>
       </c>
@@ -4356,12 +4594,12 @@
         <v>13</v>
       </c>
       <c r="B258" s="5"/>
-      <c r="C258" s="12" t="s">
+      <c r="C258" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D258" s="12"/>
-      <c r="E258" s="12"/>
-      <c r="F258" s="12"/>
+      <c r="D258" s="16"/>
+      <c r="E258" s="16"/>
+      <c r="F258" s="16"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
@@ -4380,7 +4618,7 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A260" s="16">
+      <c r="A260" s="15">
         <v>1000</v>
       </c>
       <c r="B260" t="s">
@@ -4394,7 +4632,7 @@
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A261" s="16"/>
+      <c r="A261" s="15"/>
       <c r="B261" t="s">
         <v>178</v>
       </c>
@@ -4425,12 +4663,12 @@
         <v>13</v>
       </c>
       <c r="B267" s="5"/>
-      <c r="C267" s="12" t="s">
+      <c r="C267" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D267" s="12"/>
-      <c r="E267" s="12"/>
-      <c r="F267" s="12"/>
+      <c r="D267" s="16"/>
+      <c r="E267" s="16"/>
+      <c r="F267" s="16"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
@@ -4453,7 +4691,7 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A269" s="16" t="s">
+      <c r="A269" s="15" t="s">
         <v>239</v>
       </c>
       <c r="B269" t="s">
@@ -4470,7 +4708,7 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A270" s="16"/>
+      <c r="A270" s="15"/>
       <c r="B270" t="s">
         <v>69</v>
       </c>
@@ -4494,12 +4732,12 @@
         <v>13</v>
       </c>
       <c r="B273" s="5"/>
-      <c r="C273" s="12" t="s">
+      <c r="C273" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D273" s="12"/>
-      <c r="E273" s="12"/>
-      <c r="F273" s="12"/>
+      <c r="D273" s="16"/>
+      <c r="E273" s="16"/>
+      <c r="F273" s="16"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
@@ -4518,7 +4756,7 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A275" s="16">
+      <c r="A275" s="15">
         <v>1000</v>
       </c>
       <c r="B275" t="s">
@@ -4532,7 +4770,7 @@
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A276" s="16"/>
+      <c r="A276" s="15"/>
       <c r="B276" t="s">
         <v>82</v>
       </c>
@@ -4544,7 +4782,7 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A277" s="16"/>
+      <c r="A277" s="15"/>
       <c r="B277" t="s">
         <v>83</v>
       </c>
@@ -4556,7 +4794,7 @@
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A278" s="16"/>
+      <c r="A278" s="15"/>
       <c r="B278" t="s">
         <v>84</v>
       </c>
@@ -4568,7 +4806,7 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A279" s="16"/>
+      <c r="A279" s="15"/>
       <c r="B279" t="s">
         <v>85</v>
       </c>
@@ -4599,12 +4837,12 @@
         <v>13</v>
       </c>
       <c r="B285" s="5"/>
-      <c r="C285" s="12" t="s">
+      <c r="C285" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D285" s="12"/>
-      <c r="E285" s="12"/>
-      <c r="F285" s="12"/>
+      <c r="D285" s="16"/>
+      <c r="E285" s="16"/>
+      <c r="F285" s="16"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
@@ -4627,7 +4865,7 @@
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A287" s="16" t="s">
+      <c r="A287" s="15" t="s">
         <v>243</v>
       </c>
       <c r="B287" t="s">
@@ -4644,7 +4882,7 @@
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A288" s="16"/>
+      <c r="A288" s="15"/>
       <c r="B288" t="s">
         <v>80</v>
       </c>
@@ -4668,12 +4906,12 @@
         <v>13</v>
       </c>
       <c r="B291" s="5"/>
-      <c r="C291" s="12" t="s">
+      <c r="C291" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D291" s="12"/>
-      <c r="E291" s="12"/>
-      <c r="F291" s="12"/>
+      <c r="D291" s="16"/>
+      <c r="E291" s="16"/>
+      <c r="F291" s="16"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
@@ -4692,7 +4930,7 @@
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A293" s="15">
+      <c r="A293" s="13">
         <v>1000</v>
       </c>
       <c r="B293" t="s">
@@ -4725,12 +4963,12 @@
         <v>13</v>
       </c>
       <c r="B299" s="5"/>
-      <c r="C299" s="12" t="s">
+      <c r="C299" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D299" s="12"/>
-      <c r="E299" s="12"/>
-      <c r="F299" s="12"/>
+      <c r="D299" s="16"/>
+      <c r="E299" s="16"/>
+      <c r="F299" s="16"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
@@ -4753,7 +4991,7 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A301" s="15" t="s">
+      <c r="A301" s="13" t="s">
         <v>254</v>
       </c>
       <c r="B301" t="s">
@@ -4779,12 +5017,12 @@
         <v>13</v>
       </c>
       <c r="B304" s="5"/>
-      <c r="C304" s="12" t="s">
+      <c r="C304" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D304" s="12"/>
-      <c r="E304" s="12"/>
-      <c r="F304" s="12"/>
+      <c r="D304" s="16"/>
+      <c r="E304" s="16"/>
+      <c r="F304" s="16"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
@@ -4803,13 +5041,13 @@
       </c>
     </row>
     <row r="306" spans="1:6" ht="165" x14ac:dyDescent="0.3">
-      <c r="A306" s="15">
+      <c r="A306" s="13">
         <v>1000</v>
       </c>
-      <c r="B306" s="14" t="s">
+      <c r="B306" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C306" s="14" t="s">
+      <c r="C306" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F306" s="8" t="s">
@@ -4831,12 +5069,12 @@
         <v>13</v>
       </c>
       <c r="B310" s="5"/>
-      <c r="C310" s="12" t="s">
+      <c r="C310" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D310" s="12"/>
-      <c r="E310" s="12"/>
-      <c r="F310" s="12"/>
+      <c r="D310" s="16"/>
+      <c r="E310" s="16"/>
+      <c r="F310" s="16"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
@@ -4859,7 +5097,7 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A312" s="15" t="s">
+      <c r="A312" s="13" t="s">
         <v>257</v>
       </c>
       <c r="B312" t="s">
@@ -4885,12 +5123,12 @@
         <v>13</v>
       </c>
       <c r="B315" s="5"/>
-      <c r="C315" s="12" t="s">
+      <c r="C315" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D315" s="12"/>
-      <c r="E315" s="12"/>
-      <c r="F315" s="12"/>
+      <c r="D315" s="16"/>
+      <c r="E315" s="16"/>
+      <c r="F315" s="16"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
@@ -4909,13 +5147,13 @@
       </c>
     </row>
     <row r="317" spans="1:6" ht="165" x14ac:dyDescent="0.3">
-      <c r="A317" s="16">
+      <c r="A317" s="15">
         <v>1000</v>
       </c>
-      <c r="B317" s="14" t="s">
+      <c r="B317" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C317" s="14" t="s">
+      <c r="C317" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F317" s="8" t="s">
@@ -4923,7 +5161,7 @@
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A318" s="16"/>
+      <c r="A318" s="15"/>
       <c r="B318" t="s">
         <v>259</v>
       </c>
@@ -4935,7 +5173,7 @@
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A319" s="16"/>
+      <c r="A319" s="15"/>
       <c r="B319" t="s">
         <v>261</v>
       </c>
@@ -4947,7 +5185,7 @@
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A320" s="16"/>
+      <c r="A320" s="15"/>
       <c r="B320" t="s">
         <v>263</v>
       </c>
@@ -4959,7 +5197,7 @@
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A321" s="16"/>
+      <c r="A321" s="15"/>
       <c r="B321" t="s">
         <v>264</v>
       </c>
@@ -4990,12 +5228,12 @@
         <v>13</v>
       </c>
       <c r="B327" s="5"/>
-      <c r="C327" s="12" t="s">
+      <c r="C327" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D327" s="12"/>
-      <c r="E327" s="12"/>
-      <c r="F327" s="12"/>
+      <c r="D327" s="16"/>
+      <c r="E327" s="16"/>
+      <c r="F327" s="16"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
@@ -5058,12 +5296,12 @@
         <v>13</v>
       </c>
       <c r="B333" s="5"/>
-      <c r="C333" s="12" t="s">
+      <c r="C333" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D333" s="12"/>
-      <c r="E333" s="12"/>
-      <c r="F333" s="12"/>
+      <c r="D333" s="16"/>
+      <c r="E333" s="16"/>
+      <c r="F333" s="16"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
@@ -5184,12 +5422,12 @@
         <v>13</v>
       </c>
       <c r="B346" s="5"/>
-      <c r="C346" s="12" t="s">
+      <c r="C346" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D346" s="12"/>
-      <c r="E346" s="12"/>
-      <c r="F346" s="12"/>
+      <c r="D346" s="16"/>
+      <c r="E346" s="16"/>
+      <c r="F346" s="16"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
@@ -5212,7 +5450,7 @@
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A348" s="15" t="s">
+      <c r="A348" s="13" t="s">
         <v>281</v>
       </c>
       <c r="B348" t="s">
@@ -5238,12 +5476,12 @@
         <v>13</v>
       </c>
       <c r="B351" s="5"/>
-      <c r="C351" s="12" t="s">
+      <c r="C351" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D351" s="12"/>
-      <c r="E351" s="12"/>
-      <c r="F351" s="12"/>
+      <c r="D351" s="16"/>
+      <c r="E351" s="16"/>
+      <c r="F351" s="16"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
@@ -5262,7 +5500,7 @@
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A353" s="16">
+      <c r="A353" s="15">
         <v>1000</v>
       </c>
       <c r="B353" t="s">
@@ -5276,7 +5514,7 @@
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A354" s="16"/>
+      <c r="A354" s="15"/>
       <c r="B354" t="s">
         <v>282</v>
       </c>
@@ -5307,12 +5545,12 @@
         <v>13</v>
       </c>
       <c r="B360" s="5"/>
-      <c r="C360" s="12" t="s">
+      <c r="C360" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D360" s="12"/>
-      <c r="E360" s="12"/>
-      <c r="F360" s="12"/>
+      <c r="D360" s="16"/>
+      <c r="E360" s="16"/>
+      <c r="F360" s="16"/>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
@@ -5335,7 +5573,7 @@
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A362" s="15" t="s">
+      <c r="A362" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B362" t="s">
@@ -5361,12 +5599,12 @@
         <v>13</v>
       </c>
       <c r="B365" s="5"/>
-      <c r="C365" s="12" t="s">
+      <c r="C365" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D365" s="12"/>
-      <c r="E365" s="12"/>
-      <c r="F365" s="12"/>
+      <c r="D365" s="16"/>
+      <c r="E365" s="16"/>
+      <c r="F365" s="16"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
@@ -5385,13 +5623,13 @@
       </c>
     </row>
     <row r="367" spans="1:6" ht="165" x14ac:dyDescent="0.3">
-      <c r="A367" s="15">
+      <c r="A367" s="13">
         <v>1000</v>
       </c>
-      <c r="B367" s="14" t="s">
+      <c r="B367" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C367" s="14" t="s">
+      <c r="C367" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F367" s="8" t="s">
@@ -5418,12 +5656,12 @@
         <v>13</v>
       </c>
       <c r="B373" s="5"/>
-      <c r="C373" s="12" t="s">
+      <c r="C373" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D373" s="12"/>
-      <c r="E373" s="12"/>
-      <c r="F373" s="12"/>
+      <c r="D373" s="16"/>
+      <c r="E373" s="16"/>
+      <c r="F373" s="16"/>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
@@ -5446,7 +5684,7 @@
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A375" s="16" t="s">
+      <c r="A375" s="15" t="s">
         <v>289</v>
       </c>
       <c r="B375" t="s">
@@ -5463,7 +5701,7 @@
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A376" s="16"/>
+      <c r="A376" s="15"/>
       <c r="B376" t="s">
         <v>291</v>
       </c>
@@ -5487,12 +5725,12 @@
         <v>13</v>
       </c>
       <c r="B379" s="5"/>
-      <c r="C379" s="12" t="s">
+      <c r="C379" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D379" s="12"/>
-      <c r="E379" s="12"/>
-      <c r="F379" s="12"/>
+      <c r="D379" s="16"/>
+      <c r="E379" s="16"/>
+      <c r="F379" s="16"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
@@ -5511,7 +5749,7 @@
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A381" s="16">
+      <c r="A381" s="15">
         <v>1000</v>
       </c>
       <c r="B381" t="s">
@@ -5528,7 +5766,7 @@
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A382" s="16"/>
+      <c r="A382" s="15"/>
       <c r="B382" t="s">
         <v>296</v>
       </c>
@@ -5557,12 +5795,12 @@
         <v>13</v>
       </c>
       <c r="B386" s="5"/>
-      <c r="C386" s="12" t="s">
+      <c r="C386" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D386" s="12"/>
-      <c r="E386" s="12"/>
-      <c r="F386" s="12"/>
+      <c r="D386" s="16"/>
+      <c r="E386" s="16"/>
+      <c r="F386" s="16"/>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
@@ -5585,7 +5823,7 @@
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A388" s="16" t="s">
+      <c r="A388" s="15" t="s">
         <v>301</v>
       </c>
       <c r="B388" t="s">
@@ -5602,7 +5840,7 @@
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A389" s="16"/>
+      <c r="A389" s="15"/>
       <c r="B389" t="s">
         <v>293</v>
       </c>
@@ -5617,7 +5855,7 @@
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A390" s="15"/>
+      <c r="A390" s="13"/>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
@@ -5629,12 +5867,12 @@
         <v>13</v>
       </c>
       <c r="B392" s="5"/>
-      <c r="C392" s="12" t="s">
+      <c r="C392" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D392" s="12"/>
-      <c r="E392" s="12"/>
-      <c r="F392" s="12"/>
+      <c r="D392" s="16"/>
+      <c r="E392" s="16"/>
+      <c r="F392" s="16"/>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
@@ -5653,7 +5891,7 @@
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A394" s="16">
+      <c r="A394" s="15">
         <v>1000</v>
       </c>
       <c r="B394" t="s">
@@ -5670,7 +5908,7 @@
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A395" s="16"/>
+      <c r="A395" s="15"/>
       <c r="B395" t="s">
         <v>300</v>
       </c>
@@ -5699,12 +5937,12 @@
         <v>13</v>
       </c>
       <c r="B399" s="5"/>
-      <c r="C399" s="12" t="s">
+      <c r="C399" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D399" s="12"/>
-      <c r="E399" s="12"/>
-      <c r="F399" s="12"/>
+      <c r="D399" s="16"/>
+      <c r="E399" s="16"/>
+      <c r="F399" s="16"/>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
@@ -5727,7 +5965,7 @@
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A401" s="16" t="s">
+      <c r="A401" s="15" t="s">
         <v>304</v>
       </c>
       <c r="B401" t="s">
@@ -5744,7 +5982,7 @@
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A402" s="16"/>
+      <c r="A402" s="15"/>
       <c r="B402" t="s">
         <v>302</v>
       </c>
@@ -5768,12 +6006,12 @@
         <v>13</v>
       </c>
       <c r="B405" s="5"/>
-      <c r="C405" s="12" t="s">
+      <c r="C405" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D405" s="12"/>
-      <c r="E405" s="12"/>
-      <c r="F405" s="12"/>
+      <c r="D405" s="16"/>
+      <c r="E405" s="16"/>
+      <c r="F405" s="16"/>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
@@ -5792,7 +6030,7 @@
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A407" s="16">
+      <c r="A407" s="15">
         <v>1000</v>
       </c>
       <c r="B407" t="s">
@@ -5806,7 +6044,7 @@
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A408" s="16"/>
+      <c r="A408" s="15"/>
       <c r="B408" t="s">
         <v>307</v>
       </c>
@@ -5818,7 +6056,7 @@
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A409" s="16"/>
+      <c r="A409" s="15"/>
       <c r="B409" t="s">
         <v>247</v>
       </c>
@@ -5830,7 +6068,7 @@
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A410" s="16"/>
+      <c r="A410" s="15"/>
       <c r="B410" t="s">
         <v>150</v>
       </c>
@@ -5842,7 +6080,7 @@
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A411" s="16"/>
+      <c r="A411" s="15"/>
       <c r="B411" t="s">
         <v>151</v>
       </c>
@@ -5876,12 +6114,12 @@
         <v>13</v>
       </c>
       <c r="B417" s="5"/>
-      <c r="C417" s="12" t="s">
+      <c r="C417" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D417" s="12"/>
-      <c r="E417" s="12"/>
-      <c r="F417" s="12"/>
+      <c r="D417" s="16"/>
+      <c r="E417" s="16"/>
+      <c r="F417" s="16"/>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
@@ -5904,7 +6142,7 @@
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A419" s="15" t="s">
+      <c r="A419" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B419" t="s">
@@ -5930,12 +6168,12 @@
         <v>13</v>
       </c>
       <c r="B422" s="5"/>
-      <c r="C422" s="12" t="s">
+      <c r="C422" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D422" s="12"/>
-      <c r="E422" s="12"/>
-      <c r="F422" s="12"/>
+      <c r="D422" s="16"/>
+      <c r="E422" s="16"/>
+      <c r="F422" s="16"/>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
@@ -5954,13 +6192,13 @@
       </c>
     </row>
     <row r="424" spans="1:6" ht="132" x14ac:dyDescent="0.3">
-      <c r="A424" s="15">
+      <c r="A424" s="13">
         <v>1000</v>
       </c>
-      <c r="B424" s="14" t="s">
+      <c r="B424" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C424" s="14" t="s">
+      <c r="C424" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F424" s="8" t="s">
@@ -5982,12 +6220,12 @@
         <v>13</v>
       </c>
       <c r="B428" s="5"/>
-      <c r="C428" s="12" t="s">
+      <c r="C428" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D428" s="12"/>
-      <c r="E428" s="12"/>
-      <c r="F428" s="12"/>
+      <c r="D428" s="16"/>
+      <c r="E428" s="16"/>
+      <c r="F428" s="16"/>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
@@ -6010,7 +6248,7 @@
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A430" s="16" t="s">
+      <c r="A430" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B430" t="s">
@@ -6027,7 +6265,7 @@
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A431" s="16"/>
+      <c r="A431" s="15"/>
       <c r="B431" t="s">
         <v>66</v>
       </c>
@@ -6051,12 +6289,12 @@
         <v>13</v>
       </c>
       <c r="B434" s="5"/>
-      <c r="C434" s="12" t="s">
+      <c r="C434" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D434" s="12"/>
-      <c r="E434" s="12"/>
-      <c r="F434" s="12"/>
+      <c r="D434" s="16"/>
+      <c r="E434" s="16"/>
+      <c r="F434" s="16"/>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
@@ -6090,41 +6328,48 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="A401:A402"/>
-    <mergeCell ref="A407:A411"/>
-    <mergeCell ref="A430:A431"/>
-    <mergeCell ref="A353:A354"/>
-    <mergeCell ref="A381:A382"/>
-    <mergeCell ref="A375:A376"/>
-    <mergeCell ref="A394:A395"/>
-    <mergeCell ref="A388:A389"/>
-    <mergeCell ref="A260:A261"/>
-    <mergeCell ref="A269:A270"/>
-    <mergeCell ref="A275:A279"/>
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="A317:A321"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="A233:A234"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="A246:A248"/>
-    <mergeCell ref="A254:A255"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="A188:A192"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="A204:A206"/>
-    <mergeCell ref="A218:A221"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A75:A84"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="C434:F434"/>
-    <mergeCell ref="C392:F392"/>
-    <mergeCell ref="C399:F399"/>
-    <mergeCell ref="C405:F405"/>
-    <mergeCell ref="C417:F417"/>
-    <mergeCell ref="C422:F422"/>
-    <mergeCell ref="C428:F428"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="A117:A122"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A136:A145"/>
+    <mergeCell ref="A158:A176"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C210:F210"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="C115:F115"/>
+    <mergeCell ref="C128:F128"/>
+    <mergeCell ref="C134:F134"/>
+    <mergeCell ref="C151:F151"/>
+    <mergeCell ref="C156:F156"/>
+    <mergeCell ref="C180:F180"/>
+    <mergeCell ref="C186:F186"/>
+    <mergeCell ref="C196:F196"/>
+    <mergeCell ref="C202:F202"/>
+    <mergeCell ref="C299:F299"/>
+    <mergeCell ref="C216:F216"/>
+    <mergeCell ref="C225:F225"/>
+    <mergeCell ref="C231:F231"/>
+    <mergeCell ref="C238:F238"/>
+    <mergeCell ref="C244:F244"/>
+    <mergeCell ref="C252:F252"/>
+    <mergeCell ref="C258:F258"/>
+    <mergeCell ref="C267:F267"/>
+    <mergeCell ref="C273:F273"/>
+    <mergeCell ref="C285:F285"/>
+    <mergeCell ref="C291:F291"/>
     <mergeCell ref="C386:F386"/>
     <mergeCell ref="C304:F304"/>
     <mergeCell ref="C310:F310"/>
@@ -6137,48 +6382,41 @@
     <mergeCell ref="C365:F365"/>
     <mergeCell ref="C373:F373"/>
     <mergeCell ref="C379:F379"/>
-    <mergeCell ref="C299:F299"/>
-    <mergeCell ref="C216:F216"/>
-    <mergeCell ref="C225:F225"/>
-    <mergeCell ref="C231:F231"/>
-    <mergeCell ref="C238:F238"/>
-    <mergeCell ref="C244:F244"/>
-    <mergeCell ref="C252:F252"/>
-    <mergeCell ref="C258:F258"/>
-    <mergeCell ref="C267:F267"/>
-    <mergeCell ref="C273:F273"/>
-    <mergeCell ref="C285:F285"/>
-    <mergeCell ref="C291:F291"/>
-    <mergeCell ref="C210:F210"/>
-    <mergeCell ref="C110:F110"/>
-    <mergeCell ref="C115:F115"/>
-    <mergeCell ref="C128:F128"/>
-    <mergeCell ref="C134:F134"/>
-    <mergeCell ref="C151:F151"/>
-    <mergeCell ref="C156:F156"/>
-    <mergeCell ref="C180:F180"/>
-    <mergeCell ref="C186:F186"/>
-    <mergeCell ref="C196:F196"/>
-    <mergeCell ref="C202:F202"/>
-    <mergeCell ref="A117:A122"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A136:A145"/>
-    <mergeCell ref="A158:A176"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="C73:F73"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C434:F434"/>
+    <mergeCell ref="C392:F392"/>
+    <mergeCell ref="C399:F399"/>
+    <mergeCell ref="C405:F405"/>
+    <mergeCell ref="C417:F417"/>
+    <mergeCell ref="C422:F422"/>
+    <mergeCell ref="C428:F428"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A75:A84"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A188:A192"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="A204:A206"/>
+    <mergeCell ref="A218:A221"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="A260:A261"/>
+    <mergeCell ref="A269:A270"/>
+    <mergeCell ref="A275:A279"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="A317:A321"/>
+    <mergeCell ref="A401:A402"/>
+    <mergeCell ref="A407:A411"/>
+    <mergeCell ref="A430:A431"/>
+    <mergeCell ref="A353:A354"/>
+    <mergeCell ref="A381:A382"/>
+    <mergeCell ref="A375:A376"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="A388:A389"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6187,4 +6425,515 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682B6742-749C-4A87-94ED-AD0A64DADE2D}">
+  <dimension ref="A2:D46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>200</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5">
+        <v>2001</v>
+      </c>
+      <c r="D5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6">
+        <v>2002</v>
+      </c>
+      <c r="D6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7">
+        <v>2003</v>
+      </c>
+      <c r="D7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8">
+        <v>2004</v>
+      </c>
+      <c r="D8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9">
+        <v>3000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10">
+        <v>3001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11">
+        <v>3002</v>
+      </c>
+      <c r="D11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12">
+        <v>3003</v>
+      </c>
+      <c r="D12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13">
+        <v>3004</v>
+      </c>
+      <c r="D13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14">
+        <v>3005</v>
+      </c>
+      <c r="D14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15">
+        <v>3006</v>
+      </c>
+      <c r="D15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C16">
+        <v>4000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17">
+        <v>4001</v>
+      </c>
+      <c r="D17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18">
+        <v>5000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19">
+        <v>5001</v>
+      </c>
+      <c r="D19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20">
+        <v>5002</v>
+      </c>
+      <c r="D20" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21">
+        <v>5003</v>
+      </c>
+      <c r="D21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22">
+        <v>5004</v>
+      </c>
+      <c r="D22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23">
+        <v>5005</v>
+      </c>
+      <c r="D23" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24">
+        <v>5006</v>
+      </c>
+      <c r="D24" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25">
+        <v>5007</v>
+      </c>
+      <c r="D25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26">
+        <v>5008</v>
+      </c>
+      <c r="D26" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="C27">
+        <v>6000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28">
+        <v>6001</v>
+      </c>
+      <c r="D28" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29">
+        <v>6002</v>
+      </c>
+      <c r="D29" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C30">
+        <v>7000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31">
+        <v>7001</v>
+      </c>
+      <c r="D31" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32">
+        <v>7002</v>
+      </c>
+      <c r="D32" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33">
+        <v>7003</v>
+      </c>
+      <c r="D33" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34">
+        <v>7004</v>
+      </c>
+      <c r="D34" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C35">
+        <v>8000</v>
+      </c>
+      <c r="D35" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36">
+        <v>8001</v>
+      </c>
+      <c r="D36" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37">
+        <v>8002</v>
+      </c>
+      <c r="D37" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38">
+        <v>8003</v>
+      </c>
+      <c r="D38" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39">
+        <v>8004</v>
+      </c>
+      <c r="D39" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40">
+        <v>8005</v>
+      </c>
+      <c r="D40" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C41">
+        <v>9000</v>
+      </c>
+      <c r="D41" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42">
+        <v>9001</v>
+      </c>
+      <c r="D42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C43">
+        <v>10000</v>
+      </c>
+      <c r="D43" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44">
+        <v>10001</v>
+      </c>
+      <c r="D44" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45">
+        <v>10002</v>
+      </c>
+      <c r="D45" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46">
+        <v>10003</v>
+      </c>
+      <c r="D46" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A3:A46"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/코딩/API 명세.xlsx
+++ b/코딩/API 명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-server\코딩\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AC1137-1937-46C6-9DB9-9FEDC55A9FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743CE1BB-7CE5-4919-B4E6-9C98FD8D4E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4520" yWindow="2210" windowWidth="33880" windowHeight="18790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="명세" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="396">
   <si>
     <t>[API 기본 정보]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,10 +295,6 @@
   </si>
   <si>
     <t>어류도감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 날씨 정보 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -320,10 +316,6 @@
 content-type: application/x-www-form-urlencoded
 content-length: 
 {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 유저 인벤토리 목록 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -420,14 +412,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. 인벤토리 목록에서 물고기(fish) 정보 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 인벤토리 목록에서 채비(equip) 정보 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>equip_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -508,10 +492,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5. 강화 가능한 아이템 강화하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user_equip_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,10 +581,6 @@
   </si>
   <si>
     <t>7. 목적지 결정 후 출항하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update-user-current-place</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1634,6 +1610,46 @@
   </si>
   <si>
     <t>로그인 도중 유저 DB 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입하지 않은 이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 이메일이 존재하지 않습니다. 회원가입하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호가 일치하지 않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 불일치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 유저 인벤토리 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 인벤토리 목록에서 물고기(fish) 정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 인벤토리 목록에서 채비(equip) 정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 강화 가능한 아이템 강화하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 날씨 정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update-user-fishing-place</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2099,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA3FFED-0ACE-4B02-8CBF-8F624EFBFFBA}">
   <dimension ref="A2:F451"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A21"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145:A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2134,7 +2150,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -2161,7 +2177,7 @@
     </row>
     <row r="8" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
@@ -2176,7 +2192,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2218,10 +2234,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B17" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -2230,13 +2246,13 @@
         <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -2245,13 +2261,13 @@
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -2260,7 +2276,7 @@
         <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2275,7 +2291,7 @@
         <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2290,7 +2306,7 @@
         <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2337,12 +2353,12 @@
         <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2402,7 +2418,7 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
       <c r="B33" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
@@ -2561,7 +2577,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>73</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2603,7 +2619,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
         <v>28</v>
@@ -2615,7 +2631,7 @@
         <v>26</v>
       </c>
       <c r="F54" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2661,18 +2677,18 @@
         <v>1000</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
         <v>60</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>94</v>
+        <v>391</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2714,7 +2730,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
         <v>28</v>
@@ -2726,13 +2742,13 @@
         <v>26</v>
       </c>
       <c r="F66" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="21"/>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C67" t="s">
         <v>30</v>
@@ -2779,90 +2795,90 @@
         <v>1000</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C72" t="s">
         <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="21"/>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
         <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="21"/>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
         <v>61</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="21"/>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
         <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="21"/>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F76" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="21"/>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
         <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="21"/>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
         <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>95</v>
+        <v>392</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2904,7 +2920,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B84" t="s">
         <v>28</v>
@@ -2921,7 +2937,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C85" t="s">
         <v>30</v>
@@ -2968,85 +2984,85 @@
         <v>1000</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
         <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="21"/>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
         <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="21"/>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C92" t="s">
         <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="21"/>
       <c r="B93" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
         <v>61</v>
       </c>
       <c r="F93" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="21"/>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C94" t="s">
         <v>61</v>
       </c>
       <c r="F94" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="21"/>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C95" t="s">
         <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="21"/>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
         <v>61</v>
       </c>
       <c r="F96" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -3058,41 +3074,41 @@
         <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="21"/>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C98" t="s">
         <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="21"/>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C99" t="s">
         <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>116</v>
+        <v>393</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -3134,7 +3150,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B107" t="s">
         <v>28</v>
@@ -3152,7 +3168,7 @@
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="21"/>
       <c r="B108" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s">
         <v>30</v>
@@ -3161,13 +3177,13 @@
         <v>26</v>
       </c>
       <c r="F108" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="21"/>
       <c r="B109" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C109" t="s">
         <v>30</v>
@@ -3176,7 +3192,7 @@
         <v>26</v>
       </c>
       <c r="F109" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -3217,83 +3233,83 @@
         <v>1000</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C114" t="s">
         <v>30</v>
       </c>
       <c r="F114" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="21"/>
       <c r="B115" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115" t="s">
         <v>121</v>
-      </c>
-      <c r="C115" t="s">
-        <v>30</v>
-      </c>
-      <c r="F115" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="21"/>
       <c r="B116" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" t="s">
         <v>122</v>
-      </c>
-      <c r="C116" t="s">
-        <v>30</v>
-      </c>
-      <c r="F116" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="21"/>
       <c r="B117" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" t="s">
+        <v>30</v>
+      </c>
+      <c r="F117" t="s">
         <v>123</v>
-      </c>
-      <c r="C117" t="s">
-        <v>30</v>
-      </c>
-      <c r="F117" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="21"/>
       <c r="B118" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" t="s">
+        <v>30</v>
+      </c>
+      <c r="F118" t="s">
         <v>124</v>
-      </c>
-      <c r="C118" t="s">
-        <v>30</v>
-      </c>
-      <c r="F118" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="21"/>
       <c r="B119" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C119" t="s">
         <v>30</v>
       </c>
       <c r="F119" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>68</v>
+        <v>394</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -3347,7 +3363,7 @@
         <v>26</v>
       </c>
       <c r="F127" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -3436,35 +3452,35 @@
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="21"/>
       <c r="B136" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C136" t="s">
         <v>30</v>
       </c>
       <c r="F136" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="21"/>
       <c r="B137" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C137" t="s">
         <v>30</v>
       </c>
       <c r="F137" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -3506,7 +3522,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="21" t="s">
-        <v>140</v>
+        <v>395</v>
       </c>
       <c r="B145" t="s">
         <v>28</v>
@@ -3518,13 +3534,13 @@
         <v>26</v>
       </c>
       <c r="F145" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="21"/>
       <c r="B146" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C146" t="s">
         <v>30</v>
@@ -3533,7 +3549,7 @@
         <v>26</v>
       </c>
       <c r="F146" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -3574,131 +3590,131 @@
         <v>1000</v>
       </c>
       <c r="B151" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C151" t="s">
         <v>30</v>
       </c>
       <c r="F151" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="21"/>
       <c r="B152" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C152" t="s">
         <v>61</v>
       </c>
       <c r="F152" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="21"/>
       <c r="B153" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C153" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F153" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="21"/>
       <c r="B154" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C154" t="s">
         <v>30</v>
       </c>
       <c r="F154" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="21"/>
       <c r="B155" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C155" t="s">
         <v>30</v>
       </c>
       <c r="F155" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="21"/>
       <c r="B156" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C156" t="s">
         <v>30</v>
       </c>
       <c r="F156" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="21"/>
       <c r="B157" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C157" t="s">
         <v>30</v>
       </c>
       <c r="F157" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="21"/>
       <c r="B158" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C158" t="s">
         <v>30</v>
       </c>
       <c r="F158" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="21"/>
       <c r="B159" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C159" t="s">
         <v>30</v>
       </c>
       <c r="F159" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="21"/>
       <c r="B160" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C160" t="s">
         <v>30</v>
       </c>
       <c r="F160" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -3740,7 +3756,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B168" t="s">
         <v>28</v>
@@ -3752,7 +3768,7 @@
         <v>26</v>
       </c>
       <c r="F168" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -3793,234 +3809,234 @@
         <v>1000</v>
       </c>
       <c r="B173" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C173" t="s">
         <v>30</v>
       </c>
       <c r="F173" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="21"/>
       <c r="B174" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C174" t="s">
         <v>61</v>
       </c>
       <c r="F174" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="21"/>
       <c r="B175" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C175" t="s">
         <v>61</v>
       </c>
       <c r="F175" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="21"/>
       <c r="B176" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C176" t="s">
         <v>61</v>
       </c>
       <c r="F176" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="21"/>
       <c r="B177" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C177" t="s">
         <v>30</v>
       </c>
       <c r="F177" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="21"/>
       <c r="B178" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C178" t="s">
         <v>30</v>
       </c>
       <c r="F178" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="21"/>
       <c r="B179" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C179" t="s">
         <v>61</v>
       </c>
       <c r="F179" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="21"/>
       <c r="B180" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C180" t="s">
         <v>30</v>
       </c>
       <c r="F180" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="21"/>
       <c r="B181" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C181" t="s">
         <v>30</v>
       </c>
       <c r="F181" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="21"/>
       <c r="B182" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C182" t="s">
         <v>61</v>
       </c>
       <c r="F182" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="21"/>
       <c r="B183" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C183" t="s">
         <v>61</v>
       </c>
       <c r="F183" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="21"/>
       <c r="B184" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C184" t="s">
         <v>30</v>
       </c>
       <c r="F184" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="21"/>
       <c r="B185" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C185" t="s">
         <v>30</v>
       </c>
       <c r="F185" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="21"/>
       <c r="B186" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C186" t="s">
         <v>61</v>
       </c>
       <c r="F186" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="21"/>
       <c r="B187" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C187" t="s">
         <v>30</v>
       </c>
       <c r="F187" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="21"/>
       <c r="B188" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C188" t="s">
         <v>61</v>
       </c>
       <c r="F188" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="21"/>
       <c r="B189" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C189" t="s">
         <v>61</v>
       </c>
       <c r="F189" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="21"/>
       <c r="B190" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C190" t="s">
         <v>30</v>
       </c>
       <c r="F190" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="21"/>
       <c r="B191" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C191" t="s">
         <v>61</v>
       </c>
       <c r="F191" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -4062,7 +4078,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="21" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B197" t="s">
         <v>28</v>
@@ -4074,13 +4090,13 @@
         <v>26</v>
       </c>
       <c r="F197" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="21"/>
       <c r="B198" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C198" t="s">
         <v>30</v>
@@ -4089,7 +4105,7 @@
         <v>26</v>
       </c>
       <c r="F198" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -4130,66 +4146,66 @@
         <v>1000</v>
       </c>
       <c r="B203" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C203" t="s">
         <v>30</v>
       </c>
       <c r="F203" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="21"/>
       <c r="B204" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C204" t="s">
         <v>61</v>
       </c>
       <c r="F204" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="21"/>
       <c r="B205" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C205" t="s">
         <v>61</v>
       </c>
       <c r="F205" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="21"/>
       <c r="B206" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C206" t="s">
         <v>61</v>
       </c>
       <c r="F206" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="21"/>
       <c r="B207" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C207" t="s">
         <v>30</v>
       </c>
       <c r="F207" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -4231,7 +4247,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="21" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B213" t="s">
         <v>28</v>
@@ -4243,13 +4259,13 @@
         <v>26</v>
       </c>
       <c r="F213" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="21"/>
       <c r="B214" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C214" t="s">
         <v>30</v>
@@ -4258,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="F214" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -4299,42 +4315,42 @@
         <v>1000</v>
       </c>
       <c r="B219" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C219" t="s">
         <v>30</v>
       </c>
       <c r="F219" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="21"/>
       <c r="B220" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C220" t="s">
         <v>61</v>
       </c>
       <c r="F220" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="21"/>
       <c r="B221" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C221" t="s">
         <v>30</v>
       </c>
       <c r="F221" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -4376,7 +4392,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B227" t="s">
         <v>28</v>
@@ -4388,12 +4404,12 @@
         <v>26</v>
       </c>
       <c r="F227" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C228" t="s">
         <v>30</v>
@@ -4402,7 +4418,7 @@
         <v>26</v>
       </c>
       <c r="F228" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -4443,54 +4459,54 @@
         <v>1000</v>
       </c>
       <c r="B233" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C233" t="s">
         <v>30</v>
       </c>
       <c r="F233" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="21"/>
       <c r="B234" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C234" t="s">
         <v>61</v>
       </c>
       <c r="F234" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="21"/>
       <c r="B235" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C235" t="s">
         <v>61</v>
       </c>
       <c r="F235" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="21"/>
       <c r="B236" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C236" t="s">
         <v>30</v>
       </c>
       <c r="F236" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -4532,7 +4548,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="21" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B242" t="s">
         <v>28</v>
@@ -4544,13 +4560,13 @@
         <v>26</v>
       </c>
       <c r="F242" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="21"/>
       <c r="B243" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C243" t="s">
         <v>30</v>
@@ -4559,7 +4575,7 @@
         <v>26</v>
       </c>
       <c r="F243" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -4600,30 +4616,30 @@
         <v>1000</v>
       </c>
       <c r="B248" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C248" t="s">
         <v>30</v>
       </c>
       <c r="F248" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="21"/>
       <c r="B249" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C249" t="s">
         <v>61</v>
       </c>
       <c r="F249" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -4665,7 +4681,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="21" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B255" t="s">
         <v>28</v>
@@ -4677,13 +4693,13 @@
         <v>26</v>
       </c>
       <c r="F255" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="21"/>
       <c r="B256" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C256" t="s">
         <v>30</v>
@@ -4692,7 +4708,7 @@
         <v>26</v>
       </c>
       <c r="F256" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -4733,42 +4749,42 @@
         <v>1000</v>
       </c>
       <c r="B261" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C261" t="s">
         <v>30</v>
       </c>
       <c r="F261" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="21"/>
       <c r="B262" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C262" t="s">
         <v>61</v>
       </c>
       <c r="F262" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="21"/>
       <c r="B263" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C263" t="s">
         <v>61</v>
       </c>
       <c r="F263" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -4810,7 +4826,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="21" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B269" t="s">
         <v>28</v>
@@ -4822,13 +4838,13 @@
         <v>26</v>
       </c>
       <c r="F269" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="21"/>
       <c r="B270" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C270" t="s">
         <v>30</v>
@@ -4837,7 +4853,7 @@
         <v>26</v>
       </c>
       <c r="F270" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -4878,35 +4894,35 @@
         <v>1000</v>
       </c>
       <c r="B275" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C275" t="s">
         <v>30</v>
       </c>
       <c r="F275" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="21"/>
       <c r="B276" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C276" t="s">
         <v>61</v>
       </c>
       <c r="F276" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -4948,7 +4964,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="21" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B284" t="s">
         <v>28</v>
@@ -4960,13 +4976,13 @@
         <v>26</v>
       </c>
       <c r="F284" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="21"/>
       <c r="B285" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C285" t="s">
         <v>30</v>
@@ -4975,7 +4991,7 @@
         <v>26</v>
       </c>
       <c r="F285" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -5016,71 +5032,71 @@
         <v>1000</v>
       </c>
       <c r="B290" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C290" t="s">
         <v>30</v>
       </c>
       <c r="F290" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="21"/>
       <c r="B291" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C291" t="s">
         <v>30</v>
       </c>
       <c r="F291" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="21"/>
       <c r="B292" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C292" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F292" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="21"/>
       <c r="B293" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C293" t="s">
         <v>30</v>
       </c>
       <c r="F293" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="21"/>
       <c r="B294" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C294" t="s">
         <v>30</v>
       </c>
       <c r="F294" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -5122,7 +5138,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="21" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B302" t="s">
         <v>28</v>
@@ -5134,13 +5150,13 @@
         <v>26</v>
       </c>
       <c r="F302" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="21"/>
       <c r="B303" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C303" t="s">
         <v>30</v>
@@ -5149,7 +5165,7 @@
         <v>26</v>
       </c>
       <c r="F303" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -5190,23 +5206,23 @@
         <v>1000</v>
       </c>
       <c r="B308" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C308" t="s">
         <v>30</v>
       </c>
       <c r="F308" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
@@ -5248,7 +5264,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="13" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B316" t="s">
         <v>28</v>
@@ -5260,7 +5276,7 @@
         <v>26</v>
       </c>
       <c r="F316" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -5301,18 +5317,18 @@
         <v>1000</v>
       </c>
       <c r="B321" s="12" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C321" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F321" s="8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -5354,7 +5370,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="13" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B327" t="s">
         <v>28</v>
@@ -5366,7 +5382,7 @@
         <v>26</v>
       </c>
       <c r="F327" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -5407,71 +5423,71 @@
         <v>1000</v>
       </c>
       <c r="B332" s="12" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C332" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F332" s="8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="21"/>
       <c r="B333" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C333" t="s">
         <v>30</v>
       </c>
       <c r="F333" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="21"/>
       <c r="B334" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C334" t="s">
         <v>30</v>
       </c>
       <c r="F334" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="21"/>
       <c r="B335" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C335" t="s">
         <v>30</v>
       </c>
       <c r="F335" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="21"/>
       <c r="B336" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C336" t="s">
         <v>30</v>
       </c>
       <c r="F336" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A338" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -5513,7 +5529,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B344" t="s">
         <v>28</v>
@@ -5525,12 +5541,12 @@
         <v>26</v>
       </c>
       <c r="F344" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B345" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C345" t="s">
         <v>30</v>
@@ -5539,7 +5555,7 @@
         <v>26</v>
       </c>
       <c r="F345" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -5577,35 +5593,35 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C350" t="s">
         <v>61</v>
       </c>
       <c r="F350" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C351" t="s">
         <v>30</v>
       </c>
       <c r="F351" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C352" t="s">
         <v>30</v>
       </c>
       <c r="F352" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -5613,59 +5629,59 @@
         <v>47</v>
       </c>
       <c r="C353" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F353" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C354" t="s">
         <v>30</v>
       </c>
       <c r="F354" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C355" t="s">
         <v>30</v>
       </c>
       <c r="F355" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C356" t="s">
         <v>61</v>
       </c>
       <c r="F356" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B357" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C357" t="s">
         <v>30</v>
       </c>
       <c r="F357" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -5707,7 +5723,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="13" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B363" t="s">
         <v>28</v>
@@ -5719,7 +5735,7 @@
         <v>26</v>
       </c>
       <c r="F363" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -5766,19 +5782,19 @@
         <v>30</v>
       </c>
       <c r="F368" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="21"/>
       <c r="B369" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C369" t="s">
         <v>30</v>
       </c>
       <c r="F369" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="371" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5788,7 +5804,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -5830,7 +5846,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B377" t="s">
         <v>28</v>
@@ -5842,7 +5858,7 @@
         <v>26</v>
       </c>
       <c r="F377" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -5883,13 +5899,13 @@
         <v>1000</v>
       </c>
       <c r="B382" s="12" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C382" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F382" s="8" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="384" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -5899,7 +5915,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -5941,7 +5957,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="21" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B390" t="s">
         <v>28</v>
@@ -5953,13 +5969,13 @@
         <v>26</v>
       </c>
       <c r="F390" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="21"/>
       <c r="B391" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C391" t="s">
         <v>30</v>
@@ -5968,7 +5984,7 @@
         <v>26</v>
       </c>
       <c r="F391" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -6009,7 +6025,7 @@
         <v>1000</v>
       </c>
       <c r="B396" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C396" t="s">
         <v>30</v>
@@ -6018,13 +6034,13 @@
         <v>26</v>
       </c>
       <c r="F396" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="21"/>
       <c r="B397" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C397" t="s">
         <v>30</v>
@@ -6033,12 +6049,12 @@
         <v>26</v>
       </c>
       <c r="F397" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -6080,7 +6096,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="21" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B403" t="s">
         <v>28</v>
@@ -6092,13 +6108,13 @@
         <v>26</v>
       </c>
       <c r="F403" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" s="21"/>
       <c r="B404" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C404" t="s">
         <v>30</v>
@@ -6107,7 +6123,7 @@
         <v>26</v>
       </c>
       <c r="F404" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
@@ -6151,7 +6167,7 @@
         <v>1000</v>
       </c>
       <c r="B409" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C409" t="s">
         <v>30</v>
@@ -6160,13 +6176,13 @@
         <v>26</v>
       </c>
       <c r="F409" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="21"/>
       <c r="B410" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C410" t="s">
         <v>30</v>
@@ -6175,12 +6191,12 @@
         <v>26</v>
       </c>
       <c r="F410" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -6222,7 +6238,7 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" s="21" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B416" t="s">
         <v>28</v>
@@ -6234,13 +6250,13 @@
         <v>26</v>
       </c>
       <c r="F416" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" s="21"/>
       <c r="B417" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C417" t="s">
         <v>30</v>
@@ -6249,7 +6265,7 @@
         <v>26</v>
       </c>
       <c r="F417" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
@@ -6296,60 +6312,60 @@
         <v>30</v>
       </c>
       <c r="F422" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="21"/>
       <c r="B423" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C423" t="s">
         <v>30</v>
       </c>
       <c r="F423" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="21"/>
       <c r="B424" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C424" t="s">
         <v>30</v>
       </c>
       <c r="F424" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="21"/>
       <c r="B425" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C425" t="s">
         <v>30</v>
       </c>
       <c r="F425" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="21"/>
       <c r="B426" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C426" t="s">
         <v>30</v>
       </c>
       <c r="F426" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="428" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A428" s="6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="429" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -6357,7 +6373,7 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
@@ -6411,7 +6427,7 @@
         <v>26</v>
       </c>
       <c r="F434" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
@@ -6458,12 +6474,12 @@
         <v>60</v>
       </c>
       <c r="F439" s="8" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
@@ -6517,7 +6533,7 @@
         <v>26</v>
       </c>
       <c r="F445" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
@@ -6532,7 +6548,7 @@
         <v>26</v>
       </c>
       <c r="F446" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
@@ -6579,7 +6595,7 @@
         <v>25</v>
       </c>
       <c r="F451" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -6687,8 +6703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682B6742-749C-4A87-94ED-AD0A64DADE2D}">
   <dimension ref="A2:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6702,17 +6718,17 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>20</v>
@@ -6723,30 +6739,30 @@
         <v>200</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3">
         <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
       <c r="B4" s="21" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4">
         <v>2000</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6757,7 +6773,7 @@
         <v>2001</v>
       </c>
       <c r="F5" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6768,7 +6784,7 @@
         <v>2002</v>
       </c>
       <c r="F6" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6779,7 +6795,7 @@
         <v>2003</v>
       </c>
       <c r="F7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6790,22 +6806,22 @@
         <v>2004</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="21" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D9">
         <v>3100</v>
       </c>
       <c r="F9" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6816,10 +6832,10 @@
         <v>3101</v>
       </c>
       <c r="E10" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F10" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6830,7 +6846,7 @@
         <v>3102</v>
       </c>
       <c r="F11" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6841,10 +6857,10 @@
         <v>3103</v>
       </c>
       <c r="E12" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F12" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6855,7 +6871,7 @@
         <v>3104</v>
       </c>
       <c r="F13" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6866,34 +6882,52 @@
         <v>3105</v>
       </c>
       <c r="E14" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F14" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="15" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D15">
         <v>3200</v>
       </c>
       <c r="F15" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="15"/>
+      <c r="D16">
+        <v>3201</v>
+      </c>
+      <c r="E16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F16" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="15"/>
+      <c r="D17">
+        <v>3202</v>
+      </c>
+      <c r="E17" t="s">
+        <v>388</v>
+      </c>
+      <c r="F17" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
@@ -6928,14 +6962,14 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="21" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24">
         <v>4000</v>
       </c>
       <c r="F24" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -6946,20 +6980,20 @@
         <v>4001</v>
       </c>
       <c r="F25" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
       <c r="B26" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26">
         <v>5000</v>
       </c>
       <c r="F26" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -6970,7 +7004,7 @@
         <v>5001</v>
       </c>
       <c r="F27" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -6981,7 +7015,7 @@
         <v>5002</v>
       </c>
       <c r="F28" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -6992,7 +7026,7 @@
         <v>5003</v>
       </c>
       <c r="F29" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -7003,7 +7037,7 @@
         <v>5004</v>
       </c>
       <c r="F30" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -7014,7 +7048,7 @@
         <v>5005</v>
       </c>
       <c r="F31" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -7025,7 +7059,7 @@
         <v>5006</v>
       </c>
       <c r="F32" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -7036,7 +7070,7 @@
         <v>5007</v>
       </c>
       <c r="F33" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -7047,20 +7081,20 @@
         <v>5008</v>
       </c>
       <c r="F34" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
       <c r="B35" s="21" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35">
         <v>6000</v>
       </c>
       <c r="F35" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -7071,7 +7105,7 @@
         <v>6001</v>
       </c>
       <c r="F36" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -7082,20 +7116,20 @@
         <v>6002</v>
       </c>
       <c r="F37" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
       <c r="B38" s="21" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38">
         <v>7000</v>
       </c>
       <c r="F38" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -7106,7 +7140,7 @@
         <v>7001</v>
       </c>
       <c r="F39" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -7117,7 +7151,7 @@
         <v>7002</v>
       </c>
       <c r="F40" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -7128,7 +7162,7 @@
         <v>7003</v>
       </c>
       <c r="F41" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -7139,20 +7173,20 @@
         <v>7004</v>
       </c>
       <c r="F42" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="21"/>
       <c r="B43" s="21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43">
         <v>8000</v>
       </c>
       <c r="F43" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -7163,7 +7197,7 @@
         <v>8001</v>
       </c>
       <c r="F44" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -7174,7 +7208,7 @@
         <v>8002</v>
       </c>
       <c r="F45" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -7185,7 +7219,7 @@
         <v>8003</v>
       </c>
       <c r="F46" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -7196,7 +7230,7 @@
         <v>8004</v>
       </c>
       <c r="F47" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -7207,20 +7241,20 @@
         <v>8005</v>
       </c>
       <c r="F48" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
       <c r="B49" s="21" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49">
         <v>9000</v>
       </c>
       <c r="F49" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -7231,20 +7265,20 @@
         <v>9001</v>
       </c>
       <c r="F50" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
       <c r="B51" s="21" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51">
         <v>10000</v>
       </c>
       <c r="F51" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -7255,7 +7289,7 @@
         <v>10001</v>
       </c>
       <c r="F52" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -7266,7 +7300,7 @@
         <v>10002</v>
       </c>
       <c r="F53" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -7277,7 +7311,7 @@
         <v>10003</v>
       </c>
       <c r="F54" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">

--- a/코딩/API 명세.xlsx
+++ b/코딩/API 명세.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-server\코딩\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743CE1BB-7CE5-4919-B4E6-9C98FD8D4E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4A5EF54-1761-4E20-8633-537C2B8B2FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="2210" windowWidth="33880" windowHeight="18790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39285" yWindow="3030" windowWidth="28770" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="명세" sheetId="2" r:id="rId1"/>
     <sheet name="에러코드" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="395">
   <si>
     <t>[API 기본 정보]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1000,10 +1001,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보로롱24호가 위치하고 있는 지역 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user_boat_level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1029,10 +1026,6 @@
   </si>
   <si>
     <t>17. 정산(잡은 물고기 목록 보여주기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>read-user-fish-before-cal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1650,6 +1643,10 @@
   </si>
   <si>
     <t>update-user-fishing-place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update-user-fish-before-cal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1770,7 +1767,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1778,12 +1775,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -1823,13 +1835,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2113,25 +2132,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA3FFED-0ACE-4B02-8CBF-8F624EFBFFBA}">
-  <dimension ref="A2:F451"/>
+  <dimension ref="A2:F449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145:A146"/>
+    <sheetView tabSelected="1" topLeftCell="E333" workbookViewId="0">
+      <selection activeCell="A336" sqref="A336:F367"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="50.75" customWidth="1"/>
     <col min="2" max="2" width="54.5" customWidth="1"/>
-    <col min="6" max="6" width="89.875" customWidth="1"/>
+    <col min="6" max="6" width="89.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2148,7 +2167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -2162,12 +2181,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -2175,44 +2194,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="119" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -2232,12 +2251,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B17" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -2246,13 +2265,13 @@
         <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="21"/>
       <c r="B18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -2261,13 +2280,13 @@
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="21"/>
       <c r="B19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -2276,10 +2295,10 @@
         <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="21"/>
       <c r="B20" t="s">
         <v>33</v>
@@ -2291,10 +2310,10 @@
         <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="21"/>
       <c r="B21" t="s">
         <v>35</v>
@@ -2306,30 +2325,30 @@
         <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="12"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="16"/>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
@@ -2345,7 +2364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="17">
         <v>1000</v>
       </c>
@@ -2353,32 +2372,32 @@
         <v>32</v>
       </c>
       <c r="F26" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="7" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -2398,7 +2417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="21" t="s">
         <v>24</v>
       </c>
@@ -2415,10 +2434,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="21"/>
       <c r="B33" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
@@ -2427,24 +2446,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
@@ -2460,8 +2479,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="24">
         <v>1000</v>
       </c>
       <c r="B38" t="s">
@@ -2474,8 +2493,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="24"/>
       <c r="B39" t="s">
         <v>28</v>
       </c>
@@ -2486,8 +2505,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="24"/>
       <c r="B40" t="s">
         <v>33</v>
       </c>
@@ -2498,8 +2517,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="24"/>
       <c r="B41" t="s">
         <v>35</v>
       </c>
@@ -2510,8 +2529,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="24"/>
       <c r="B42" t="s">
         <v>37</v>
       </c>
@@ -2522,8 +2541,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="24"/>
       <c r="B43" t="s">
         <v>39</v>
       </c>
@@ -2534,8 +2553,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="24"/>
       <c r="B44" t="s">
         <v>41</v>
       </c>
@@ -2546,8 +2565,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="24"/>
       <c r="B45" t="s">
         <v>42</v>
       </c>
@@ -2558,8 +2577,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="24"/>
       <c r="B46" t="s">
         <v>43</v>
       </c>
@@ -2570,34 +2589,34 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A48" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B52" s="16"/>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
@@ -2617,7 +2636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="13" t="s">
         <v>74</v>
       </c>
@@ -2634,24 +2653,24 @@
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B57" s="5"/>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>22</v>
       </c>
@@ -2667,12 +2686,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="231" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="238" x14ac:dyDescent="0.45">
       <c r="A60" s="13">
         <v>1000</v>
       </c>
@@ -2686,29 +2705,29 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B64" s="16"/>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>15</v>
       </c>
@@ -2728,7 +2747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="21" t="s">
         <v>75</v>
       </c>
@@ -2745,7 +2764,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="21"/>
       <c r="B67" t="s">
         <v>76</v>
@@ -2757,24 +2776,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B70" s="5"/>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>22</v>
       </c>
@@ -2790,7 +2809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="21">
         <v>1000</v>
       </c>
@@ -2804,7 +2823,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="21"/>
       <c r="B73" t="s">
         <v>77</v>
@@ -2816,7 +2835,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="21"/>
       <c r="B74" t="s">
         <v>78</v>
@@ -2828,7 +2847,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="21"/>
       <c r="B75" t="s">
         <v>79</v>
@@ -2840,7 +2859,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="21"/>
       <c r="B76" t="s">
         <v>80</v>
@@ -2852,7 +2871,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="21"/>
       <c r="B77" t="s">
         <v>81</v>
@@ -2864,7 +2883,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="21"/>
       <c r="B78" t="s">
         <v>82</v>
@@ -2876,29 +2895,29 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B82" s="16"/>
-      <c r="C82" s="19" t="s">
+      <c r="C82" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>15</v>
       </c>
@@ -2918,7 +2937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>127</v>
       </c>
@@ -2935,7 +2954,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B85" t="s">
         <v>112</v>
       </c>
@@ -2946,24 +2965,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B88" s="5"/>
-      <c r="C88" s="19" t="s">
+      <c r="C88" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>22</v>
       </c>
@@ -2979,7 +2998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="21">
         <v>1000</v>
       </c>
@@ -2993,7 +3012,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="21"/>
       <c r="B91" t="s">
         <v>93</v>
@@ -3005,7 +3024,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="21"/>
       <c r="B92" t="s">
         <v>99</v>
@@ -3017,7 +3036,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="21"/>
       <c r="B93" t="s">
         <v>100</v>
@@ -3029,7 +3048,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="21"/>
       <c r="B94" t="s">
         <v>94</v>
@@ -3041,7 +3060,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="21"/>
       <c r="B95" t="s">
         <v>96</v>
@@ -3053,7 +3072,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="21"/>
       <c r="B96" t="s">
         <v>95</v>
@@ -3065,7 +3084,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="21"/>
       <c r="B97" t="s">
         <v>37</v>
@@ -3077,7 +3096,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="21"/>
       <c r="B98" t="s">
         <v>97</v>
@@ -3089,7 +3108,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="21"/>
       <c r="B99" t="s">
         <v>98</v>
@@ -3101,34 +3120,34 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A101" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B105" s="16"/>
-      <c r="C105" s="19" t="s">
+      <c r="C105" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>15</v>
       </c>
@@ -3148,7 +3167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="21" t="s">
         <v>128</v>
       </c>
@@ -3165,7 +3184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="21"/>
       <c r="B108" t="s">
         <v>112</v>
@@ -3180,7 +3199,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="21"/>
       <c r="B109" t="s">
         <v>113</v>
@@ -3195,12 +3214,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="5" t="s">
         <v>13</v>
       </c>
@@ -3212,7 +3231,7 @@
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>22</v>
       </c>
@@ -3228,7 +3247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="21">
         <v>1000</v>
       </c>
@@ -3242,7 +3261,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="21"/>
       <c r="B115" t="s">
         <v>116</v>
@@ -3254,7 +3273,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="21"/>
       <c r="B116" t="s">
         <v>117</v>
@@ -3266,7 +3285,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="21"/>
       <c r="B117" t="s">
         <v>118</v>
@@ -3278,7 +3297,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="21"/>
       <c r="B118" t="s">
         <v>119</v>
@@ -3290,7 +3309,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="21"/>
       <c r="B119" t="s">
         <v>98</v>
@@ -3302,34 +3321,34 @@
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A121" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B125" s="5"/>
-      <c r="C125" s="19" t="s">
+      <c r="C125" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>15</v>
       </c>
@@ -3349,8 +3368,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A127" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B127" t="s">
@@ -3366,24 +3385,24 @@
         <v>237</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B130" s="5"/>
-      <c r="C130" s="19" t="s">
+      <c r="C130" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D130" s="19"/>
-      <c r="E130" s="19"/>
-      <c r="F130" s="19"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D130" s="22"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="22"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>22</v>
       </c>
@@ -3399,108 +3418,120 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="21">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A132" s="23">
         <v>1000</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F132" t="s">
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="21"/>
-      <c r="B133" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A133" s="23"/>
+      <c r="B133" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C133" t="s">
-        <v>30</v>
-      </c>
-      <c r="F133" t="s">
+      <c r="C133" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="21"/>
-      <c r="B134" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A134" s="23"/>
+      <c r="B134" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C134" t="s">
-        <v>30</v>
-      </c>
-      <c r="F134" t="s">
+      <c r="C134" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="21"/>
-      <c r="B135" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A135" s="23"/>
+      <c r="B135" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C135" t="s">
-        <v>30</v>
-      </c>
-      <c r="F135" t="s">
+      <c r="C135" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D135" s="20"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="21"/>
-      <c r="B136" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A136" s="23"/>
+      <c r="B136" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C136" t="s">
-        <v>30</v>
-      </c>
-      <c r="F136" t="s">
+      <c r="C136" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="21"/>
-      <c r="B137" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A137" s="23"/>
+      <c r="B137" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C137" t="s">
-        <v>30</v>
-      </c>
-      <c r="F137" t="s">
+      <c r="C137" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A139" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B143" s="5"/>
-      <c r="C143" s="19" t="s">
+      <c r="C143" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D143" s="19"/>
-      <c r="E143" s="19"/>
-      <c r="F143" s="19"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D143" s="22"/>
+      <c r="E143" s="22"/>
+      <c r="F143" s="22"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>15</v>
       </c>
@@ -3520,9 +3551,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" s="21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B145" t="s">
         <v>28</v>
@@ -3537,7 +3568,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" s="21"/>
       <c r="B146" t="s">
         <v>77</v>
@@ -3552,24 +3583,24 @@
         <v>238</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B149" s="5"/>
-      <c r="C149" s="19" t="s">
+      <c r="C149" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="19"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D149" s="22"/>
+      <c r="E149" s="22"/>
+      <c r="F149" s="22"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>22</v>
       </c>
@@ -3585,156 +3616,176 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="21">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A151" s="23">
         <v>1000</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C151" t="s">
-        <v>30</v>
-      </c>
-      <c r="F151" t="s">
+      <c r="C151" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D151" s="20"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="21"/>
-      <c r="B152" t="s">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A152" s="23"/>
+      <c r="B152" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F152" t="s">
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="21"/>
-      <c r="B153" t="s">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A153" s="23"/>
+      <c r="B153" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F153" t="s">
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="21"/>
-      <c r="B154" t="s">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A154" s="23"/>
+      <c r="B154" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C154" t="s">
-        <v>30</v>
-      </c>
-      <c r="F154" t="s">
+      <c r="C154" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="21"/>
-      <c r="B155" t="s">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A155" s="23"/>
+      <c r="B155" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C155" t="s">
-        <v>30</v>
-      </c>
-      <c r="F155" t="s">
+      <c r="C155" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="21"/>
-      <c r="B156" t="s">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A156" s="23"/>
+      <c r="B156" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C156" t="s">
-        <v>30</v>
-      </c>
-      <c r="F156" t="s">
+      <c r="C156" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="21"/>
-      <c r="B157" t="s">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A157" s="23"/>
+      <c r="B157" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C157" t="s">
-        <v>30</v>
-      </c>
-      <c r="F157" t="s">
+      <c r="C157" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="21"/>
-      <c r="B158" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A158" s="23"/>
+      <c r="B158" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C158" t="s">
-        <v>30</v>
-      </c>
-      <c r="F158" t="s">
+      <c r="C158" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D158" s="20"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="21"/>
-      <c r="B159" t="s">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A159" s="23"/>
+      <c r="B159" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C159" t="s">
-        <v>30</v>
-      </c>
-      <c r="F159" t="s">
+      <c r="C159" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D159" s="20"/>
+      <c r="E159" s="20"/>
+      <c r="F159" s="20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="21"/>
-      <c r="B160" t="s">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A160" s="23"/>
+      <c r="B160" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C160" t="s">
-        <v>30</v>
-      </c>
-      <c r="F160" t="s">
+      <c r="C160" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D160" s="20"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="20" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A162" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B166" s="5"/>
-      <c r="C166" s="19" t="s">
+      <c r="C166" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D166" s="19"/>
-      <c r="E166" s="19"/>
-      <c r="F166" s="19"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D166" s="22"/>
+      <c r="E166" s="22"/>
+      <c r="F166" s="22"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" s="3" t="s">
         <v>15</v>
       </c>
@@ -3754,7 +3805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>156</v>
       </c>
@@ -3771,24 +3822,24 @@
         <v>237</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B171" s="5"/>
-      <c r="C171" s="19" t="s">
+      <c r="C171" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D171" s="19"/>
-      <c r="E171" s="19"/>
-      <c r="F171" s="19"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D171" s="22"/>
+      <c r="E171" s="22"/>
+      <c r="F171" s="22"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" s="3" t="s">
         <v>22</v>
       </c>
@@ -3804,259 +3855,297 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="21">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A173" s="23">
         <v>1000</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C173" t="s">
-        <v>30</v>
-      </c>
-      <c r="F173" t="s">
+      <c r="C173" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="21"/>
-      <c r="B174" t="s">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A174" s="23"/>
+      <c r="B174" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F174" t="s">
+      <c r="D174" s="20"/>
+      <c r="E174" s="20"/>
+      <c r="F174" s="20" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="21"/>
-      <c r="B175" t="s">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A175" s="23"/>
+      <c r="B175" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F175" t="s">
+      <c r="D175" s="20"/>
+      <c r="E175" s="20"/>
+      <c r="F175" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="21"/>
-      <c r="B176" t="s">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A176" s="23"/>
+      <c r="B176" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F176" t="s">
+      <c r="D176" s="20"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="20" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="21"/>
-      <c r="B177" t="s">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A177" s="23"/>
+      <c r="B177" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C177" t="s">
-        <v>30</v>
-      </c>
-      <c r="F177" t="s">
+      <c r="C177" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D177" s="20"/>
+      <c r="E177" s="20"/>
+      <c r="F177" s="20" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="21"/>
-      <c r="B178" t="s">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A178" s="23"/>
+      <c r="B178" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C178" t="s">
-        <v>30</v>
-      </c>
-      <c r="F178" t="s">
+      <c r="C178" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D178" s="20"/>
+      <c r="E178" s="20"/>
+      <c r="F178" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="21"/>
-      <c r="B179" t="s">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A179" s="23"/>
+      <c r="B179" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F179" t="s">
+      <c r="D179" s="20"/>
+      <c r="E179" s="20"/>
+      <c r="F179" s="20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="21"/>
-      <c r="B180" t="s">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A180" s="23"/>
+      <c r="B180" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C180" t="s">
-        <v>30</v>
-      </c>
-      <c r="F180" t="s">
+      <c r="C180" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="21"/>
-      <c r="B181" t="s">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A181" s="23"/>
+      <c r="B181" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="C181" t="s">
-        <v>30</v>
-      </c>
-      <c r="F181" t="s">
+      <c r="C181" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D181" s="20"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="20" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="21"/>
-      <c r="B182" t="s">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A182" s="23"/>
+      <c r="B182" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F182" t="s">
+      <c r="D182" s="20"/>
+      <c r="E182" s="20"/>
+      <c r="F182" s="20" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="21"/>
-      <c r="B183" t="s">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A183" s="23"/>
+      <c r="B183" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F183" t="s">
+      <c r="D183" s="20"/>
+      <c r="E183" s="20"/>
+      <c r="F183" s="20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="21"/>
-      <c r="B184" t="s">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A184" s="23"/>
+      <c r="B184" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C184" t="s">
-        <v>30</v>
-      </c>
-      <c r="F184" t="s">
+      <c r="C184" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D184" s="20"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="20" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="21"/>
-      <c r="B185" t="s">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A185" s="23"/>
+      <c r="B185" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="C185" t="s">
-        <v>30</v>
-      </c>
-      <c r="F185" t="s">
+      <c r="C185" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D185" s="20"/>
+      <c r="E185" s="20"/>
+      <c r="F185" s="20" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="21"/>
-      <c r="B186" t="s">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A186" s="23"/>
+      <c r="B186" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F186" t="s">
+      <c r="D186" s="20"/>
+      <c r="E186" s="20"/>
+      <c r="F186" s="20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="21"/>
-      <c r="B187" t="s">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A187" s="23"/>
+      <c r="B187" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C187" t="s">
-        <v>30</v>
-      </c>
-      <c r="F187" t="s">
+      <c r="C187" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D187" s="20"/>
+      <c r="E187" s="20"/>
+      <c r="F187" s="20" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="21"/>
-      <c r="B188" t="s">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A188" s="23"/>
+      <c r="B188" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F188" t="s">
+      <c r="D188" s="20"/>
+      <c r="E188" s="20"/>
+      <c r="F188" s="20" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="21"/>
-      <c r="B189" t="s">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A189" s="23"/>
+      <c r="B189" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F189" t="s">
+      <c r="D189" s="20"/>
+      <c r="E189" s="20"/>
+      <c r="F189" s="20" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="21"/>
-      <c r="B190" t="s">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A190" s="23"/>
+      <c r="B190" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C190" t="s">
-        <v>30</v>
-      </c>
-      <c r="F190" t="s">
+      <c r="C190" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D190" s="20"/>
+      <c r="E190" s="20"/>
+      <c r="F190" s="20" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="21"/>
-      <c r="B191" t="s">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A191" s="23"/>
+      <c r="B191" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F191" t="s">
+      <c r="D191" s="20"/>
+      <c r="E191" s="20"/>
+      <c r="F191" s="20" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B195" s="5"/>
-      <c r="C195" s="19" t="s">
+      <c r="C195" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D195" s="19"/>
-      <c r="E195" s="19"/>
-      <c r="F195" s="19"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D195" s="22"/>
+      <c r="E195" s="22"/>
+      <c r="F195" s="22"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196" s="3" t="s">
         <v>15</v>
       </c>
@@ -4076,7 +4165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197" s="21" t="s">
         <v>176</v>
       </c>
@@ -4093,7 +4182,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198" s="21"/>
       <c r="B198" t="s">
         <v>112</v>
@@ -4108,24 +4197,24 @@
         <v>177</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201" s="5"/>
       <c r="B201" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C201" s="19" t="s">
+      <c r="C201" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D201" s="19"/>
-      <c r="E201" s="19"/>
-      <c r="F201" s="19"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D201" s="22"/>
+      <c r="E201" s="22"/>
+      <c r="F201" s="22"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A202" s="3" t="s">
         <v>22</v>
       </c>
@@ -4141,7 +4230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203" s="21">
         <v>1000</v>
       </c>
@@ -4155,7 +4244,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204" s="21"/>
       <c r="B204" t="s">
         <v>158</v>
@@ -4167,7 +4256,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A205" s="21"/>
       <c r="B205" t="s">
         <v>172</v>
@@ -4179,7 +4268,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206" s="21"/>
       <c r="B206" t="s">
         <v>173</v>
@@ -4191,7 +4280,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207" s="21"/>
       <c r="B207" t="s">
         <v>161</v>
@@ -4203,29 +4292,29 @@
         <v>201</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A209" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A211" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B211" s="5"/>
-      <c r="C211" s="19" t="s">
+      <c r="C211" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D211" s="19"/>
-      <c r="E211" s="19"/>
-      <c r="F211" s="19"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D211" s="22"/>
+      <c r="E211" s="22"/>
+      <c r="F211" s="22"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A212" s="3" t="s">
         <v>15</v>
       </c>
@@ -4245,7 +4334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A213" s="21" t="s">
         <v>208</v>
       </c>
@@ -4262,7 +4351,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A214" s="21"/>
       <c r="B214" t="s">
         <v>112</v>
@@ -4277,24 +4366,24 @@
         <v>207</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A217" s="10"/>
       <c r="B217" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C217" s="19" t="s">
+      <c r="C217" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D217" s="19"/>
-      <c r="E217" s="19"/>
-      <c r="F217" s="19"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D217" s="22"/>
+      <c r="E217" s="22"/>
+      <c r="F217" s="22"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A218" s="3" t="s">
         <v>22</v>
       </c>
@@ -4310,7 +4399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A219" s="21">
         <v>1000</v>
       </c>
@@ -4324,7 +4413,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A220" s="21"/>
       <c r="B220" t="s">
         <v>160</v>
@@ -4336,7 +4425,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A221" s="21"/>
       <c r="B221" t="s">
         <v>162</v>
@@ -4348,29 +4437,29 @@
         <v>205</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A223" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A225" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B225" s="5"/>
-      <c r="C225" s="19" t="s">
+      <c r="C225" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D225" s="19"/>
-      <c r="E225" s="19"/>
-      <c r="F225" s="19"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D225" s="22"/>
+      <c r="E225" s="22"/>
+      <c r="F225" s="22"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A226" s="3" t="s">
         <v>15</v>
       </c>
@@ -4390,7 +4479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>213</v>
       </c>
@@ -4407,7 +4496,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B228" t="s">
         <v>112</v>
       </c>
@@ -4421,24 +4510,24 @@
         <v>218</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A231" s="5"/>
       <c r="B231" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C231" s="19" t="s">
+      <c r="C231" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D231" s="19"/>
-      <c r="E231" s="19"/>
-      <c r="F231" s="19"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D231" s="22"/>
+      <c r="E231" s="22"/>
+      <c r="F231" s="22"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A232" s="3" t="s">
         <v>22</v>
       </c>
@@ -4454,7 +4543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A233" s="21">
         <v>1000</v>
       </c>
@@ -4468,7 +4557,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A234" s="21"/>
       <c r="B234" t="s">
         <v>164</v>
@@ -4480,7 +4569,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A235" s="21"/>
       <c r="B235" t="s">
         <v>174</v>
@@ -4492,7 +4581,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A236" s="21"/>
       <c r="B236" t="s">
         <v>165</v>
@@ -4504,29 +4593,29 @@
         <v>212</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A238" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A240" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B240" s="5"/>
-      <c r="C240" s="19" t="s">
+      <c r="C240" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D240" s="19"/>
-      <c r="E240" s="19"/>
-      <c r="F240" s="19"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D240" s="22"/>
+      <c r="E240" s="22"/>
+      <c r="F240" s="22"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A241" s="3" t="s">
         <v>15</v>
       </c>
@@ -4546,7 +4635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A242" s="21" t="s">
         <v>216</v>
       </c>
@@ -4563,7 +4652,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A243" s="21"/>
       <c r="B243" t="s">
         <v>112</v>
@@ -4578,24 +4667,24 @@
         <v>217</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A246" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B246" s="5"/>
-      <c r="C246" s="19" t="s">
+      <c r="C246" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D246" s="19"/>
-      <c r="E246" s="19"/>
-      <c r="F246" s="19"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D246" s="22"/>
+      <c r="E246" s="22"/>
+      <c r="F246" s="22"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A247" s="3" t="s">
         <v>22</v>
       </c>
@@ -4611,7 +4700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A248" s="21">
         <v>1000</v>
       </c>
@@ -4625,7 +4714,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A249" s="21"/>
       <c r="B249" t="s">
         <v>167</v>
@@ -4637,29 +4726,29 @@
         <v>220</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A251" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A253" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B253" s="5"/>
-      <c r="C253" s="19" t="s">
+      <c r="C253" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D253" s="19"/>
-      <c r="E253" s="19"/>
-      <c r="F253" s="19"/>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D253" s="22"/>
+      <c r="E253" s="22"/>
+      <c r="F253" s="22"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A254" s="3" t="s">
         <v>15</v>
       </c>
@@ -4679,7 +4768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A255" s="21" t="s">
         <v>222</v>
       </c>
@@ -4696,7 +4785,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A256" s="21"/>
       <c r="B256" t="s">
         <v>112</v>
@@ -4711,24 +4800,24 @@
         <v>223</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A259" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B259" s="5"/>
-      <c r="C259" s="19" t="s">
+      <c r="C259" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D259" s="19"/>
-      <c r="E259" s="19"/>
-      <c r="F259" s="19"/>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D259" s="22"/>
+      <c r="E259" s="22"/>
+      <c r="F259" s="22"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A260" s="3" t="s">
         <v>22</v>
       </c>
@@ -4744,7 +4833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A261" s="21">
         <v>1000</v>
       </c>
@@ -4758,7 +4847,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A262" s="21"/>
       <c r="B262" t="s">
         <v>169</v>
@@ -4770,7 +4859,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A263" s="21"/>
       <c r="B263" t="s">
         <v>175</v>
@@ -4782,29 +4871,29 @@
         <v>226</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A265" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A267" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B267" s="5"/>
-      <c r="C267" s="19" t="s">
+      <c r="C267" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D267" s="19"/>
-      <c r="E267" s="19"/>
-      <c r="F267" s="19"/>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D267" s="22"/>
+      <c r="E267" s="22"/>
+      <c r="F267" s="22"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A268" s="3" t="s">
         <v>15</v>
       </c>
@@ -4824,7 +4913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A269" s="21" t="s">
         <v>228</v>
       </c>
@@ -4841,7 +4930,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A270" s="21"/>
       <c r="B270" t="s">
         <v>112</v>
@@ -4856,24 +4945,24 @@
         <v>234</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A273" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B273" s="5"/>
-      <c r="C273" s="19" t="s">
+      <c r="C273" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D273" s="19"/>
-      <c r="E273" s="19"/>
-      <c r="F273" s="19"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D273" s="22"/>
+      <c r="E273" s="22"/>
+      <c r="F273" s="22"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A274" s="3" t="s">
         <v>22</v>
       </c>
@@ -4889,7 +4978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A275" s="21">
         <v>1000</v>
       </c>
@@ -4903,7 +4992,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A276" s="21"/>
       <c r="B276" t="s">
         <v>171</v>
@@ -4915,34 +5004,34 @@
         <v>230</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A278" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A280" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A282" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B282" s="5"/>
-      <c r="C282" s="19" t="s">
+      <c r="C282" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D282" s="19"/>
-      <c r="E282" s="19"/>
-      <c r="F282" s="19"/>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D282" s="22"/>
+      <c r="E282" s="22"/>
+      <c r="F282" s="22"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A283" s="3" t="s">
         <v>15</v>
       </c>
@@ -4962,8 +5051,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A284" s="21" t="s">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A284" s="19" t="s">
         <v>232</v>
       </c>
       <c r="B284" t="s">
@@ -4979,1346 +5068,1340 @@
         <v>237</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A285" s="21"/>
-      <c r="B285" t="s">
-        <v>68</v>
-      </c>
-      <c r="C285" t="s">
-        <v>30</v>
-      </c>
-      <c r="D285" t="s">
-        <v>26</v>
-      </c>
-      <c r="F285" t="s">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A286" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A287" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B287" s="5"/>
+      <c r="C287" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D287" s="22"/>
+      <c r="E287" s="22"/>
+      <c r="F287" s="22"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A288" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D288" s="4"/>
+      <c r="E288" s="4"/>
+      <c r="F288" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A289" s="21">
+        <v>1000</v>
+      </c>
+      <c r="B289" t="s">
+        <v>76</v>
+      </c>
+      <c r="C289" t="s">
+        <v>30</v>
+      </c>
+      <c r="F289" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A288" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B288" s="5"/>
-      <c r="C288" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D288" s="19"/>
-      <c r="E288" s="19"/>
-      <c r="F288" s="19"/>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A289" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B289" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C289" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D289" s="4"/>
-      <c r="E289" s="4"/>
-      <c r="F289" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A290" s="21">
-        <v>1000</v>
-      </c>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A290" s="21"/>
       <c r="B290" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C290" t="s">
         <v>30</v>
       </c>
       <c r="F290" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A291" s="21"/>
       <c r="B291" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C291" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="F291" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A292" s="21"/>
       <c r="B292" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C292" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="F292" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A293" s="21"/>
       <c r="B293" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C293" t="s">
         <v>30</v>
       </c>
       <c r="F293" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="21"/>
-      <c r="B294" t="s">
-        <v>82</v>
-      </c>
-      <c r="C294" t="s">
-        <v>30</v>
-      </c>
-      <c r="F294" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A296" s="6" t="s">
+    <row r="295" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A295" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A297" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A298" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A299" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B299" s="5"/>
+      <c r="C299" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D299" s="22"/>
+      <c r="E299" s="22"/>
+      <c r="F299" s="22"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A300" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F300" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A301" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B301" t="s">
+        <v>28</v>
+      </c>
+      <c r="C301" t="s">
+        <v>30</v>
+      </c>
+      <c r="D301" t="s">
+        <v>26</v>
+      </c>
+      <c r="F301" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A303" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A304" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B304" s="5"/>
+      <c r="C304" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D304" s="22"/>
+      <c r="E304" s="22"/>
+      <c r="F304" s="22"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A305" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D305" s="4"/>
+      <c r="E305" s="4"/>
+      <c r="F305" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A306" s="13">
+        <v>1000</v>
+      </c>
+      <c r="B306" t="s">
+        <v>143</v>
+      </c>
+      <c r="C306" t="s">
+        <v>30</v>
+      </c>
+      <c r="F306" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A308" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A310" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A298" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A311" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A300" s="5" t="s">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A312" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B300" s="5"/>
-      <c r="C300" s="19" t="s">
+      <c r="B312" s="5"/>
+      <c r="C312" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D300" s="19"/>
-      <c r="E300" s="19"/>
-      <c r="F300" s="19"/>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A301" s="3" t="s">
+      <c r="D312" s="22"/>
+      <c r="E312" s="22"/>
+      <c r="F312" s="22"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A313" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B301" s="4" t="s">
+      <c r="B313" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C301" s="4" t="s">
+      <c r="C313" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D301" s="4" t="s">
+      <c r="D313" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E301" s="4" t="s">
+      <c r="E313" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F301" s="4" t="s">
+      <c r="F313" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A302" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="B302" t="s">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A314" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="B314" t="s">
         <v>28</v>
       </c>
-      <c r="C302" t="s">
-        <v>30</v>
-      </c>
-      <c r="D302" t="s">
+      <c r="C314" t="s">
+        <v>30</v>
+      </c>
+      <c r="D314" t="s">
         <v>26</v>
       </c>
-      <c r="F302" t="s">
+      <c r="F314" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A303" s="21"/>
-      <c r="B303" t="s">
-        <v>77</v>
-      </c>
-      <c r="C303" t="s">
-        <v>30</v>
-      </c>
-      <c r="D303" t="s">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A316" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A317" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B317" s="5"/>
+      <c r="C317" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D317" s="22"/>
+      <c r="E317" s="22"/>
+      <c r="F317" s="22"/>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A318" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D318" s="4"/>
+      <c r="E318" s="4"/>
+      <c r="F318" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="170" x14ac:dyDescent="0.45">
+      <c r="A319" s="13">
+        <v>1000</v>
+      </c>
+      <c r="B319" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C319" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F319" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A321" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A322" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A323" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B323" s="5"/>
+      <c r="C323" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D323" s="22"/>
+      <c r="E323" s="22"/>
+      <c r="F323" s="22"/>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A324" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D324" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E324" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F324" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A325" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B325" t="s">
+        <v>28</v>
+      </c>
+      <c r="C325" t="s">
+        <v>30</v>
+      </c>
+      <c r="D325" t="s">
         <v>26</v>
       </c>
-      <c r="F303" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
+      <c r="F325" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A327" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A306" s="5" t="s">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A328" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B306" s="5"/>
-      <c r="C306" s="19" t="s">
+      <c r="B328" s="5"/>
+      <c r="C328" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D306" s="19"/>
-      <c r="E306" s="19"/>
-      <c r="F306" s="19"/>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A307" s="3" t="s">
+      <c r="D328" s="22"/>
+      <c r="E328" s="22"/>
+      <c r="F328" s="22"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A329" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B307" s="4" t="s">
+      <c r="B329" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C307" s="4" t="s">
+      <c r="C329" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D307" s="4"/>
-      <c r="E307" s="4"/>
-      <c r="F307" s="4" t="s">
+      <c r="D329" s="4"/>
+      <c r="E329" s="4"/>
+      <c r="F329" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A308" s="13">
+    <row r="330" spans="1:6" ht="170" x14ac:dyDescent="0.45">
+      <c r="A330" s="21">
         <v>1000</v>
       </c>
-      <c r="B308" t="s">
-        <v>143</v>
-      </c>
-      <c r="C308" t="s">
-        <v>30</v>
-      </c>
-      <c r="F308" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A310" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A312" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A314" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B314" s="5"/>
-      <c r="C314" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D314" s="19"/>
-      <c r="E314" s="19"/>
-      <c r="F314" s="19"/>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A315" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B315" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C315" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D315" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E315" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F315" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A316" s="13" t="s">
+      <c r="B330" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B316" t="s">
-        <v>28</v>
-      </c>
-      <c r="C316" t="s">
-        <v>30</v>
-      </c>
-      <c r="D316" t="s">
-        <v>26</v>
-      </c>
-      <c r="F316" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A319" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B319" s="5"/>
-      <c r="C319" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D319" s="19"/>
-      <c r="E319" s="19"/>
-      <c r="F319" s="19"/>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A320" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B320" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C320" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D320" s="4"/>
-      <c r="E320" s="4"/>
-      <c r="F320" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" ht="165" x14ac:dyDescent="0.3">
-      <c r="A321" s="13">
-        <v>1000</v>
-      </c>
-      <c r="B321" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C321" s="12" t="s">
+      <c r="C330" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F321" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A323" s="7" t="s">
+      <c r="F330" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A331" s="21"/>
+      <c r="B331" t="s">
+        <v>250</v>
+      </c>
+      <c r="C331" t="s">
+        <v>30</v>
+      </c>
+      <c r="F331" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A325" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B325" s="5"/>
-      <c r="C325" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D325" s="19"/>
-      <c r="E325" s="19"/>
-      <c r="F325" s="19"/>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A326" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B326" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C326" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D326" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E326" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F326" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A327" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="B327" t="s">
-        <v>28</v>
-      </c>
-      <c r="C327" t="s">
-        <v>30</v>
-      </c>
-      <c r="D327" t="s">
-        <v>26</v>
-      </c>
-      <c r="F327" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A330" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B330" s="5"/>
-      <c r="C330" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D330" s="19"/>
-      <c r="E330" s="19"/>
-      <c r="F330" s="19"/>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A331" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B331" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C331" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D331" s="4"/>
-      <c r="E331" s="4"/>
-      <c r="F331" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" ht="165" x14ac:dyDescent="0.3">
-      <c r="A332" s="21">
-        <v>1000</v>
-      </c>
-      <c r="B332" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C332" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F332" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A332" s="21"/>
+      <c r="B332" t="s">
+        <v>252</v>
+      </c>
+      <c r="C332" t="s">
+        <v>30</v>
+      </c>
+      <c r="F332" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A333" s="21"/>
       <c r="B333" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C333" t="s">
         <v>30</v>
       </c>
       <c r="F333" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A334" s="21"/>
       <c r="B334" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C334" t="s">
         <v>30</v>
       </c>
       <c r="F334" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A335" s="21"/>
-      <c r="B335" t="s">
-        <v>256</v>
-      </c>
-      <c r="C335" t="s">
-        <v>30</v>
-      </c>
-      <c r="F335" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A336" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A336" s="21"/>
-      <c r="B336" t="s">
-        <v>257</v>
-      </c>
-      <c r="C336" t="s">
-        <v>30</v>
-      </c>
-      <c r="F336" t="s">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A338" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A338" s="6" t="s">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A339" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A340" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B340" s="5"/>
+      <c r="C340" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D340" s="22"/>
+      <c r="E340" s="22"/>
+      <c r="F340" s="22"/>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A341" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D341" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E341" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F341" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A342" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A340" s="7" t="s">
+      <c r="B342" t="s">
+        <v>28</v>
+      </c>
+      <c r="C342" t="s">
+        <v>30</v>
+      </c>
+      <c r="D342" t="s">
+        <v>26</v>
+      </c>
+      <c r="F342" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B343" t="s">
+        <v>76</v>
+      </c>
+      <c r="C343" t="s">
+        <v>30</v>
+      </c>
+      <c r="D343" t="s">
+        <v>26</v>
+      </c>
+      <c r="F343" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A341" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A342" s="5" t="s">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A345" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A346" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B342" s="5"/>
-      <c r="C342" s="19" t="s">
+      <c r="B346" s="5"/>
+      <c r="C346" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D342" s="19"/>
-      <c r="E342" s="19"/>
-      <c r="F342" s="19"/>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A343" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B343" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C343" s="4" t="s">
+      <c r="D346" s="22"/>
+      <c r="E346" s="22"/>
+      <c r="F346" s="22"/>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A347" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C347" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D343" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E343" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F343" s="4" t="s">
+      <c r="D347" s="4"/>
+      <c r="E347" s="4"/>
+      <c r="F347" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B348" t="s">
+        <v>78</v>
+      </c>
+      <c r="C348" t="s">
+        <v>61</v>
+      </c>
+      <c r="F348" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B349" t="s">
+        <v>77</v>
+      </c>
+      <c r="C349" t="s">
+        <v>30</v>
+      </c>
+      <c r="F349" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B350" t="s">
         <v>262</v>
       </c>
-      <c r="B344" t="s">
-        <v>28</v>
-      </c>
-      <c r="C344" t="s">
-        <v>30</v>
-      </c>
-      <c r="D344" t="s">
-        <v>26</v>
-      </c>
-      <c r="F344" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B345" t="s">
-        <v>76</v>
-      </c>
-      <c r="C345" t="s">
-        <v>30</v>
-      </c>
-      <c r="D345" t="s">
-        <v>26</v>
-      </c>
-      <c r="F345" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A348" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B348" s="5"/>
-      <c r="C348" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D348" s="19"/>
-      <c r="E348" s="19"/>
-      <c r="F348" s="19"/>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A349" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B349" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C349" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D349" s="4"/>
-      <c r="E349" s="4"/>
-      <c r="F349" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B350" t="s">
-        <v>78</v>
-      </c>
       <c r="C350" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F350" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B351" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C351" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="F351" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B352" t="s">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="C352" t="s">
         <v>30</v>
       </c>
       <c r="F352" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B353" t="s">
+        <v>82</v>
+      </c>
+      <c r="C353" t="s">
+        <v>30</v>
+      </c>
+      <c r="F353" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B354" t="s">
+        <v>263</v>
+      </c>
+      <c r="C354" t="s">
+        <v>61</v>
+      </c>
+      <c r="F354" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B353" t="s">
-        <v>47</v>
-      </c>
-      <c r="C353" t="s">
-        <v>83</v>
-      </c>
-      <c r="F353" t="s">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B355" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B354" t="s">
-        <v>81</v>
-      </c>
-      <c r="C354" t="s">
-        <v>30</v>
-      </c>
-      <c r="F354" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B355" t="s">
-        <v>82</v>
-      </c>
       <c r="C355" t="s">
         <v>30</v>
       </c>
       <c r="F355" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B356" t="s">
-        <v>265</v>
-      </c>
-      <c r="C356" t="s">
-        <v>61</v>
-      </c>
-      <c r="F356" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B357" t="s">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A357" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C357" t="s">
-        <v>30</v>
-      </c>
-      <c r="F357" t="s">
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A358" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A359" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B359" s="5"/>
+      <c r="C359" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D359" s="22"/>
+      <c r="E359" s="22"/>
+      <c r="F359" s="22"/>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A360" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D360" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E360" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F360" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A361" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A359" s="7" t="s">
+      <c r="B361" t="s">
+        <v>28</v>
+      </c>
+      <c r="C361" t="s">
+        <v>30</v>
+      </c>
+      <c r="D361" t="s">
+        <v>26</v>
+      </c>
+      <c r="F361" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A363" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A364" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B364" s="5"/>
+      <c r="C364" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D364" s="22"/>
+      <c r="E364" s="22"/>
+      <c r="F364" s="22"/>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A365" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D365" s="4"/>
+      <c r="E365" s="4"/>
+      <c r="F365" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A366" s="21">
+        <v>1000</v>
+      </c>
+      <c r="B366" t="s">
+        <v>41</v>
+      </c>
+      <c r="C366" t="s">
+        <v>30</v>
+      </c>
+      <c r="F366" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A367" s="21"/>
+      <c r="B367" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A360" t="s">
+      <c r="C367" t="s">
+        <v>30</v>
+      </c>
+      <c r="F367" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A369" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A371" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A372" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A361" s="5" t="s">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A373" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B361" s="5"/>
-      <c r="C361" s="19" t="s">
+      <c r="B373" s="5"/>
+      <c r="C373" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D361" s="19"/>
-      <c r="E361" s="19"/>
-      <c r="F361" s="19"/>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A362" s="3" t="s">
+      <c r="D373" s="22"/>
+      <c r="E373" s="22"/>
+      <c r="F373" s="22"/>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A374" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B362" s="4" t="s">
+      <c r="B374" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C362" s="4" t="s">
+      <c r="C374" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D362" s="4" t="s">
+      <c r="D374" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E362" s="4" t="s">
+      <c r="E374" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F362" s="4" t="s">
+      <c r="F374" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A363" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="B363" t="s">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A375" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B375" t="s">
         <v>28</v>
       </c>
-      <c r="C363" t="s">
-        <v>30</v>
-      </c>
-      <c r="D363" t="s">
+      <c r="C375" t="s">
+        <v>30</v>
+      </c>
+      <c r="D375" t="s">
         <v>26</v>
       </c>
-      <c r="F363" t="s">
+      <c r="F375" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A365" t="s">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A377" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A366" s="5" t="s">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A378" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B366" s="5"/>
-      <c r="C366" s="19" t="s">
+      <c r="B378" s="5"/>
+      <c r="C378" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D366" s="19"/>
-      <c r="E366" s="19"/>
-      <c r="F366" s="19"/>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A367" s="3" t="s">
+      <c r="D378" s="22"/>
+      <c r="E378" s="22"/>
+      <c r="F378" s="22"/>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A379" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B367" s="4" t="s">
+      <c r="B379" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C367" s="4" t="s">
+      <c r="C379" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D367" s="4"/>
-      <c r="E367" s="4"/>
-      <c r="F367" s="4" t="s">
+      <c r="D379" s="4"/>
+      <c r="E379" s="4"/>
+      <c r="F379" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A368" s="21">
+    <row r="380" spans="1:6" ht="170" x14ac:dyDescent="0.45">
+      <c r="A380" s="13">
         <v>1000</v>
       </c>
-      <c r="B368" t="s">
-        <v>41</v>
-      </c>
-      <c r="C368" t="s">
-        <v>30</v>
-      </c>
-      <c r="F368" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A369" s="21"/>
-      <c r="B369" t="s">
-        <v>275</v>
-      </c>
-      <c r="C369" t="s">
-        <v>30</v>
-      </c>
-      <c r="F369" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A371" s="6" t="s">
+      <c r="B380" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C380" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F380" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A382" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A373" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A374" t="s">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A384" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A385" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A375" s="5" t="s">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A386" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B375" s="5"/>
-      <c r="C375" s="19" t="s">
+      <c r="B386" s="5"/>
+      <c r="C386" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D375" s="19"/>
-      <c r="E375" s="19"/>
-      <c r="F375" s="19"/>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A376" s="3" t="s">
+      <c r="D386" s="22"/>
+      <c r="E386" s="22"/>
+      <c r="F386" s="22"/>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A387" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B376" s="4" t="s">
+      <c r="B387" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C376" s="4" t="s">
+      <c r="C387" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D376" s="4" t="s">
+      <c r="D387" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E376" s="4" t="s">
+      <c r="E387" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F376" s="4" t="s">
+      <c r="F387" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A377" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B377" t="s">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A388" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="B388" t="s">
         <v>28</v>
       </c>
-      <c r="C377" t="s">
-        <v>30</v>
-      </c>
-      <c r="D377" t="s">
+      <c r="C388" t="s">
+        <v>30</v>
+      </c>
+      <c r="D388" t="s">
         <v>26</v>
       </c>
-      <c r="F377" t="s">
+      <c r="F388" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A389" s="21"/>
+      <c r="B389" t="s">
+        <v>282</v>
+      </c>
+      <c r="C389" t="s">
+        <v>30</v>
+      </c>
+      <c r="D389" t="s">
+        <v>26</v>
+      </c>
+      <c r="F389" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A391" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A380" s="5" t="s">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A392" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B380" s="5"/>
-      <c r="C380" s="19" t="s">
+      <c r="B392" s="5"/>
+      <c r="C392" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D380" s="19"/>
-      <c r="E380" s="19"/>
-      <c r="F380" s="19"/>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A381" s="3" t="s">
+      <c r="D392" s="22"/>
+      <c r="E392" s="22"/>
+      <c r="F392" s="22"/>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A393" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B381" s="4" t="s">
+      <c r="B393" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C381" s="4" t="s">
+      <c r="C393" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D381" s="4"/>
-      <c r="E381" s="4"/>
-      <c r="F381" s="4" t="s">
+      <c r="D393" s="4"/>
+      <c r="E393" s="4"/>
+      <c r="F393" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="165" x14ac:dyDescent="0.3">
-      <c r="A382" s="13">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A394" s="21">
         <v>1000</v>
       </c>
-      <c r="B382" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="C382" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F382" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A384" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A386" s="7" t="s">
+      <c r="B394" t="s">
+        <v>143</v>
+      </c>
+      <c r="C394" t="s">
+        <v>30</v>
+      </c>
+      <c r="D394" t="s">
+        <v>26</v>
+      </c>
+      <c r="F394" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A395" s="21"/>
+      <c r="B395" t="s">
+        <v>287</v>
+      </c>
+      <c r="C395" t="s">
+        <v>30</v>
+      </c>
+      <c r="D395" t="s">
+        <v>26</v>
+      </c>
+      <c r="F395" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A397" s="7" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A387" t="s">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A398" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A388" s="5" t="s">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A399" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B388" s="5"/>
-      <c r="C388" s="19" t="s">
+      <c r="B399" s="5"/>
+      <c r="C399" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D388" s="19"/>
-      <c r="E388" s="19"/>
-      <c r="F388" s="19"/>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A389" s="3" t="s">
+      <c r="D399" s="22"/>
+      <c r="E399" s="22"/>
+      <c r="F399" s="22"/>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A400" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B389" s="4" t="s">
+      <c r="B400" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C389" s="4" t="s">
+      <c r="C400" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D389" s="4" t="s">
+      <c r="D400" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E389" s="4" t="s">
+      <c r="E400" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F389" s="4" t="s">
+      <c r="F400" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A390" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="B390" t="s">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A401" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="B401" t="s">
         <v>28</v>
       </c>
-      <c r="C390" t="s">
-        <v>30</v>
-      </c>
-      <c r="D390" t="s">
+      <c r="C401" t="s">
+        <v>30</v>
+      </c>
+      <c r="D401" t="s">
         <v>26</v>
       </c>
-      <c r="F390" t="s">
+      <c r="F401" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A391" s="21"/>
-      <c r="B391" t="s">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A402" s="21"/>
+      <c r="B402" t="s">
         <v>284</v>
       </c>
-      <c r="C391" t="s">
-        <v>30</v>
-      </c>
-      <c r="D391" t="s">
+      <c r="C402" t="s">
+        <v>30</v>
+      </c>
+      <c r="D402" t="s">
         <v>26</v>
       </c>
-      <c r="F391" t="s">
+      <c r="F402" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A393" t="s">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A403" s="13"/>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A404" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A394" s="5" t="s">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A405" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B394" s="5"/>
-      <c r="C394" s="19" t="s">
+      <c r="B405" s="5"/>
+      <c r="C405" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D394" s="19"/>
-      <c r="E394" s="19"/>
-      <c r="F394" s="19"/>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A395" s="3" t="s">
+      <c r="D405" s="22"/>
+      <c r="E405" s="22"/>
+      <c r="F405" s="22"/>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A406" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B395" s="4" t="s">
+      <c r="B406" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C395" s="4" t="s">
+      <c r="C406" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D395" s="4"/>
-      <c r="E395" s="4"/>
-      <c r="F395" s="4" t="s">
+      <c r="D406" s="4"/>
+      <c r="E406" s="4"/>
+      <c r="F406" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A396" s="21">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A407" s="21">
         <v>1000</v>
       </c>
-      <c r="B396" t="s">
-        <v>143</v>
-      </c>
-      <c r="C396" t="s">
-        <v>30</v>
-      </c>
-      <c r="D396" t="s">
+      <c r="B407" t="s">
+        <v>144</v>
+      </c>
+      <c r="C407" t="s">
+        <v>30</v>
+      </c>
+      <c r="D407" t="s">
         <v>26</v>
       </c>
-      <c r="F396" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A397" s="21"/>
-      <c r="B397" t="s">
+      <c r="F407" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A408" s="21"/>
+      <c r="B408" t="s">
+        <v>291</v>
+      </c>
+      <c r="C408" t="s">
+        <v>30</v>
+      </c>
+      <c r="D408" t="s">
+        <v>26</v>
+      </c>
+      <c r="F408" t="s">
         <v>289</v>
       </c>
-      <c r="C397" t="s">
-        <v>30</v>
-      </c>
-      <c r="D397" t="s">
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A410" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A411" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A412" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B412" s="5"/>
+      <c r="C412" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D412" s="22"/>
+      <c r="E412" s="22"/>
+      <c r="F412" s="22"/>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A413" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C413" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D413" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E413" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F413" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A414" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="B414" t="s">
+        <v>28</v>
+      </c>
+      <c r="C414" t="s">
+        <v>30</v>
+      </c>
+      <c r="D414" t="s">
         <v>26</v>
       </c>
-      <c r="F397" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A399" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A400" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A401" s="5" t="s">
+      <c r="F414" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A415" s="21"/>
+      <c r="B415" t="s">
+        <v>293</v>
+      </c>
+      <c r="C415" t="s">
+        <v>30</v>
+      </c>
+      <c r="D415" t="s">
+        <v>26</v>
+      </c>
+      <c r="F415" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A417" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A418" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B401" s="5"/>
-      <c r="C401" s="19" t="s">
+      <c r="B418" s="5"/>
+      <c r="C418" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D401" s="19"/>
-      <c r="E401" s="19"/>
-      <c r="F401" s="19"/>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A402" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B402" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C402" s="4" t="s">
+      <c r="D418" s="22"/>
+      <c r="E418" s="22"/>
+      <c r="F418" s="22"/>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A419" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C419" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D402" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E402" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F402" s="4" t="s">
+      <c r="D419" s="4"/>
+      <c r="E419" s="4"/>
+      <c r="F419" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A403" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="B403" t="s">
-        <v>28</v>
-      </c>
-      <c r="C403" t="s">
-        <v>30</v>
-      </c>
-      <c r="D403" t="s">
-        <v>26</v>
-      </c>
-      <c r="F403" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A404" s="21"/>
-      <c r="B404" t="s">
-        <v>286</v>
-      </c>
-      <c r="C404" t="s">
-        <v>30</v>
-      </c>
-      <c r="D404" t="s">
-        <v>26</v>
-      </c>
-      <c r="F404" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A405" s="13"/>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A406" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A407" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B407" s="5"/>
-      <c r="C407" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D407" s="19"/>
-      <c r="E407" s="19"/>
-      <c r="F407" s="19"/>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A408" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B408" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C408" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D408" s="4"/>
-      <c r="E408" s="4"/>
-      <c r="F408" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A409" s="21">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A420" s="21">
         <v>1000</v>
       </c>
-      <c r="B409" t="s">
-        <v>144</v>
-      </c>
-      <c r="C409" t="s">
-        <v>30</v>
-      </c>
-      <c r="D409" t="s">
-        <v>26</v>
-      </c>
-      <c r="F409" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A410" s="21"/>
-      <c r="B410" t="s">
-        <v>293</v>
-      </c>
-      <c r="C410" t="s">
-        <v>30</v>
-      </c>
-      <c r="D410" t="s">
-        <v>26</v>
-      </c>
-      <c r="F410" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A412" s="7" t="s">
+      <c r="B420" t="s">
+        <v>32</v>
+      </c>
+      <c r="C420" t="s">
+        <v>30</v>
+      </c>
+      <c r="F420" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A421" s="21"/>
+      <c r="B421" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A413" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A414" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B414" s="5"/>
-      <c r="C414" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D414" s="19"/>
-      <c r="E414" s="19"/>
-      <c r="F414" s="19"/>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A415" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B415" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C415" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D415" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E415" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F415" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A416" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="B416" t="s">
-        <v>28</v>
-      </c>
-      <c r="C416" t="s">
-        <v>30</v>
-      </c>
-      <c r="D416" t="s">
-        <v>26</v>
-      </c>
-      <c r="F416" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A417" s="21"/>
-      <c r="B417" t="s">
-        <v>295</v>
-      </c>
-      <c r="C417" t="s">
-        <v>30</v>
-      </c>
-      <c r="D417" t="s">
-        <v>26</v>
-      </c>
-      <c r="F417" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A419" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A420" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B420" s="5"/>
-      <c r="C420" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D420" s="19"/>
-      <c r="E420" s="19"/>
-      <c r="F420" s="19"/>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A421" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B421" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C421" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D421" s="4"/>
-      <c r="E421" s="4"/>
-      <c r="F421" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A422" s="21">
-        <v>1000</v>
-      </c>
+      <c r="C421" t="s">
+        <v>30</v>
+      </c>
+      <c r="F421" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A422" s="21"/>
       <c r="B422" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="C422" t="s">
         <v>30</v>
       </c>
       <c r="F422" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A423" s="21"/>
       <c r="B423" t="s">
-        <v>300</v>
+        <v>143</v>
       </c>
       <c r="C423" t="s">
         <v>30</v>
@@ -6327,10 +6410,10 @@
         <v>301</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A424" s="21"/>
       <c r="B424" t="s">
-        <v>240</v>
+        <v>144</v>
       </c>
       <c r="C424" t="s">
         <v>30</v>
@@ -6339,323 +6422,259 @@
         <v>302</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A425" s="21"/>
-      <c r="B425" t="s">
-        <v>143</v>
-      </c>
-      <c r="C425" t="s">
-        <v>30</v>
-      </c>
-      <c r="F425" t="s">
+    <row r="426" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A426" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A426" s="21"/>
-      <c r="B426" t="s">
-        <v>144</v>
-      </c>
-      <c r="C426" t="s">
-        <v>30</v>
-      </c>
-      <c r="F426" t="s">
+    <row r="427" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A427" s="9"/>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A428" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A429" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A430" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B430" s="5"/>
+      <c r="C430" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D430" s="22"/>
+      <c r="E430" s="22"/>
+      <c r="F430" s="22"/>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A431" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B431" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C431" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D431" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E431" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F431" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A432" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B432" t="s">
+        <v>28</v>
+      </c>
+      <c r="C432" t="s">
+        <v>30</v>
+      </c>
+      <c r="D432" t="s">
+        <v>26</v>
+      </c>
+      <c r="F432" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A434" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A435" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B435" s="5"/>
+      <c r="C435" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D435" s="22"/>
+      <c r="E435" s="22"/>
+      <c r="F435" s="22"/>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A436" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B436" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C436" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D436" s="4"/>
+      <c r="E436" s="4"/>
+      <c r="F436" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" ht="136" x14ac:dyDescent="0.45">
+      <c r="A437" s="13">
+        <v>1000</v>
+      </c>
+      <c r="B437" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C437" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F437" s="8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A428" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A429" s="9"/>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A430" s="7" t="s">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A439" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A440" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A441" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B441" s="5"/>
+      <c r="C441" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D441" s="22"/>
+      <c r="E441" s="22"/>
+      <c r="F441" s="22"/>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A442" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B442" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C442" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D442" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E442" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F442" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A443" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B443" t="s">
+        <v>28</v>
+      </c>
+      <c r="C443" t="s">
+        <v>30</v>
+      </c>
+      <c r="D443" t="s">
+        <v>26</v>
+      </c>
+      <c r="F443" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A444" s="21"/>
+      <c r="B444" t="s">
+        <v>66</v>
+      </c>
+      <c r="C444" t="s">
+        <v>30</v>
+      </c>
+      <c r="D444" t="s">
+        <v>26</v>
+      </c>
+      <c r="F444" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A446" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A447" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B447" s="5"/>
+      <c r="C447" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D447" s="22"/>
+      <c r="E447" s="22"/>
+      <c r="F447" s="22"/>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A448" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B448" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C448" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D448" s="4"/>
+      <c r="E448" s="4"/>
+      <c r="F448" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A449" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B449" t="s">
+        <v>32</v>
+      </c>
+      <c r="C449" t="s">
+        <v>25</v>
+      </c>
+      <c r="F449" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A431" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A432" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B432" s="5"/>
-      <c r="C432" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D432" s="19"/>
-      <c r="E432" s="19"/>
-      <c r="F432" s="19"/>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A433" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B433" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C433" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D433" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E433" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F433" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A434" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B434" t="s">
-        <v>28</v>
-      </c>
-      <c r="C434" t="s">
-        <v>30</v>
-      </c>
-      <c r="D434" t="s">
-        <v>26</v>
-      </c>
-      <c r="F434" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A436" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A437" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B437" s="5"/>
-      <c r="C437" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D437" s="19"/>
-      <c r="E437" s="19"/>
-      <c r="F437" s="19"/>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A438" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B438" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C438" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D438" s="4"/>
-      <c r="E438" s="4"/>
-      <c r="F438" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6" ht="132" x14ac:dyDescent="0.3">
-      <c r="A439" s="13">
-        <v>1000</v>
-      </c>
-      <c r="B439" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C439" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F439" s="8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A441" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A442" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A443" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B443" s="5"/>
-      <c r="C443" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D443" s="19"/>
-      <c r="E443" s="19"/>
-      <c r="F443" s="19"/>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A444" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B444" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C444" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D444" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E444" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F444" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A445" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B445" t="s">
-        <v>28</v>
-      </c>
-      <c r="C445" t="s">
-        <v>30</v>
-      </c>
-      <c r="D445" t="s">
-        <v>26</v>
-      </c>
-      <c r="F445" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A446" s="21"/>
-      <c r="B446" t="s">
-        <v>66</v>
-      </c>
-      <c r="C446" t="s">
-        <v>30</v>
-      </c>
-      <c r="D446" t="s">
-        <v>26</v>
-      </c>
-      <c r="F446" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A448" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A449" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B449" s="5"/>
-      <c r="C449" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D449" s="19"/>
-      <c r="E449" s="19"/>
-      <c r="F449" s="19"/>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A450" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B450" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C450" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D450" s="4"/>
-      <c r="E450" s="4"/>
-      <c r="F450" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A451" s="11">
-        <v>1000</v>
-      </c>
-      <c r="B451" t="s">
-        <v>32</v>
-      </c>
-      <c r="C451" t="s">
-        <v>25</v>
-      </c>
-      <c r="F451" t="s">
-        <v>309</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="89">
-    <mergeCell ref="A302:A303"/>
-    <mergeCell ref="A332:A336"/>
-    <mergeCell ref="A416:A417"/>
-    <mergeCell ref="A422:A426"/>
-    <mergeCell ref="A445:A446"/>
-    <mergeCell ref="A368:A369"/>
-    <mergeCell ref="A396:A397"/>
-    <mergeCell ref="A390:A391"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="A261:A263"/>
-    <mergeCell ref="A269:A270"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="A284:A285"/>
-    <mergeCell ref="A290:A294"/>
-    <mergeCell ref="A219:A221"/>
-    <mergeCell ref="A233:A236"/>
-    <mergeCell ref="A242:A243"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="A255:A256"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="A203:A207"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="C449:F449"/>
-    <mergeCell ref="C407:F407"/>
-    <mergeCell ref="C414:F414"/>
-    <mergeCell ref="C420:F420"/>
-    <mergeCell ref="C432:F432"/>
-    <mergeCell ref="C437:F437"/>
-    <mergeCell ref="C443:F443"/>
-    <mergeCell ref="C401:F401"/>
-    <mergeCell ref="C319:F319"/>
-    <mergeCell ref="C325:F325"/>
-    <mergeCell ref="C330:F330"/>
-    <mergeCell ref="C342:F342"/>
-    <mergeCell ref="C348:F348"/>
-    <mergeCell ref="C361:F361"/>
-    <mergeCell ref="C366:F366"/>
-    <mergeCell ref="C375:F375"/>
-    <mergeCell ref="C380:F380"/>
-    <mergeCell ref="C388:F388"/>
-    <mergeCell ref="C394:F394"/>
-    <mergeCell ref="C314:F314"/>
-    <mergeCell ref="C231:F231"/>
-    <mergeCell ref="C240:F240"/>
-    <mergeCell ref="C246:F246"/>
-    <mergeCell ref="C253:F253"/>
-    <mergeCell ref="C259:F259"/>
-    <mergeCell ref="C267:F267"/>
-    <mergeCell ref="C273:F273"/>
-    <mergeCell ref="C282:F282"/>
-    <mergeCell ref="C288:F288"/>
-    <mergeCell ref="C300:F300"/>
-    <mergeCell ref="C306:F306"/>
+  <mergeCells count="87">
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="C105:F105"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="A72:A78"/>
     <mergeCell ref="C225:F225"/>
     <mergeCell ref="C125:F125"/>
     <mergeCell ref="C130:F130"/>
@@ -6667,28 +6686,66 @@
     <mergeCell ref="C201:F201"/>
     <mergeCell ref="C211:F211"/>
     <mergeCell ref="C217:F217"/>
+    <mergeCell ref="C312:F312"/>
+    <mergeCell ref="C231:F231"/>
+    <mergeCell ref="C240:F240"/>
+    <mergeCell ref="C246:F246"/>
+    <mergeCell ref="C253:F253"/>
+    <mergeCell ref="C259:F259"/>
+    <mergeCell ref="C267:F267"/>
+    <mergeCell ref="C273:F273"/>
+    <mergeCell ref="C282:F282"/>
+    <mergeCell ref="C287:F287"/>
+    <mergeCell ref="C299:F299"/>
+    <mergeCell ref="C304:F304"/>
+    <mergeCell ref="C399:F399"/>
+    <mergeCell ref="C317:F317"/>
+    <mergeCell ref="C323:F323"/>
+    <mergeCell ref="C328:F328"/>
+    <mergeCell ref="C340:F340"/>
+    <mergeCell ref="C346:F346"/>
+    <mergeCell ref="C359:F359"/>
+    <mergeCell ref="C364:F364"/>
+    <mergeCell ref="C373:F373"/>
+    <mergeCell ref="C378:F378"/>
+    <mergeCell ref="C386:F386"/>
+    <mergeCell ref="C392:F392"/>
+    <mergeCell ref="C447:F447"/>
+    <mergeCell ref="C405:F405"/>
+    <mergeCell ref="C412:F412"/>
+    <mergeCell ref="C418:F418"/>
+    <mergeCell ref="C430:F430"/>
+    <mergeCell ref="C435:F435"/>
+    <mergeCell ref="C441:F441"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A203:A207"/>
+    <mergeCell ref="A213:A214"/>
     <mergeCell ref="A132:A137"/>
     <mergeCell ref="A145:A146"/>
     <mergeCell ref="A151:A160"/>
     <mergeCell ref="A173:A191"/>
     <mergeCell ref="A90:A99"/>
     <mergeCell ref="A107:A109"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="C105:F105"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A219:A221"/>
+    <mergeCell ref="A233:A236"/>
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="A255:A256"/>
+    <mergeCell ref="A261:A263"/>
+    <mergeCell ref="A269:A270"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="A289:A293"/>
+    <mergeCell ref="A330:A334"/>
+    <mergeCell ref="A414:A415"/>
+    <mergeCell ref="A420:A424"/>
+    <mergeCell ref="A443:A444"/>
+    <mergeCell ref="A366:A367"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="A388:A389"/>
+    <mergeCell ref="A407:A408"/>
+    <mergeCell ref="A401:A402"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6707,65 +6764,65 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="2" max="3" width="14.58203125" customWidth="1"/>
+    <col min="4" max="4" width="21.08203125" customWidth="1"/>
     <col min="5" max="5" width="48.5" customWidth="1"/>
     <col min="6" max="6" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="21">
         <v>200</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3">
         <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="21"/>
       <c r="B4" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4">
         <v>2000</v>
       </c>
       <c r="F4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="15"/>
@@ -6773,10 +6830,10 @@
         <v>2001</v>
       </c>
       <c r="F5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="15"/>
@@ -6784,10 +6841,10 @@
         <v>2002</v>
       </c>
       <c r="F6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="15"/>
@@ -6795,10 +6852,10 @@
         <v>2003</v>
       </c>
       <c r="F7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="15"/>
@@ -6806,25 +6863,25 @@
         <v>2004</v>
       </c>
       <c r="F8" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="21"/>
       <c r="B9" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D9">
         <v>3100</v>
       </c>
       <c r="F9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -6832,13 +6889,13 @@
         <v>3101</v>
       </c>
       <c r="E10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -6846,10 +6903,10 @@
         <v>3102</v>
       </c>
       <c r="F11" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -6857,13 +6914,13 @@
         <v>3103</v>
       </c>
       <c r="E12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F12" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -6871,10 +6928,10 @@
         <v>3104</v>
       </c>
       <c r="F13" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -6882,26 +6939,26 @@
         <v>3105</v>
       </c>
       <c r="E14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F14" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D15">
         <v>3200</v>
       </c>
       <c r="F15" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="15"/>
@@ -6909,13 +6966,13 @@
         <v>3201</v>
       </c>
       <c r="E16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F16" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="15"/>
@@ -6923,56 +6980,56 @@
         <v>3202</v>
       </c>
       <c r="E17" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F17" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="15"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="21"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="21"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="21"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="21"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="21"/>
       <c r="B24" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24">
         <v>4000</v>
       </c>
       <c r="F24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="15"/>
@@ -6980,23 +7037,23 @@
         <v>4001</v>
       </c>
       <c r="F25" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="21"/>
       <c r="B26" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26">
         <v>5000</v>
       </c>
       <c r="F26" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="15"/>
@@ -7004,10 +7061,10 @@
         <v>5001</v>
       </c>
       <c r="F27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="15"/>
@@ -7015,10 +7072,10 @@
         <v>5002</v>
       </c>
       <c r="F28" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="15"/>
@@ -7026,10 +7083,10 @@
         <v>5003</v>
       </c>
       <c r="F29" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="15"/>
@@ -7037,10 +7094,10 @@
         <v>5004</v>
       </c>
       <c r="F30" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="15"/>
@@ -7048,10 +7105,10 @@
         <v>5005</v>
       </c>
       <c r="F31" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="15"/>
@@ -7059,10 +7116,10 @@
         <v>5006</v>
       </c>
       <c r="F32" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="15"/>
@@ -7070,10 +7127,10 @@
         <v>5007</v>
       </c>
       <c r="F33" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="15"/>
@@ -7081,23 +7138,23 @@
         <v>5008</v>
       </c>
       <c r="F34" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="21"/>
       <c r="B35" s="21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35">
         <v>6000</v>
       </c>
       <c r="F35" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="15"/>
@@ -7105,10 +7162,10 @@
         <v>6001</v>
       </c>
       <c r="F36" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="15"/>
@@ -7116,23 +7173,23 @@
         <v>6002</v>
       </c>
       <c r="F37" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="21"/>
       <c r="B38" s="21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38">
         <v>7000</v>
       </c>
       <c r="F38" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="15"/>
@@ -7140,10 +7197,10 @@
         <v>7001</v>
       </c>
       <c r="F39" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="15"/>
@@ -7151,10 +7208,10 @@
         <v>7002</v>
       </c>
       <c r="F40" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="15"/>
@@ -7162,10 +7219,10 @@
         <v>7003</v>
       </c>
       <c r="F41" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="15"/>
@@ -7173,23 +7230,23 @@
         <v>7004</v>
       </c>
       <c r="F42" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="21"/>
       <c r="B43" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43">
         <v>8000</v>
       </c>
       <c r="F43" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="15"/>
@@ -7197,10 +7254,10 @@
         <v>8001</v>
       </c>
       <c r="F44" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="15"/>
@@ -7208,10 +7265,10 @@
         <v>8002</v>
       </c>
       <c r="F45" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="15"/>
@@ -7219,10 +7276,10 @@
         <v>8003</v>
       </c>
       <c r="F46" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="15"/>
@@ -7230,10 +7287,10 @@
         <v>8004</v>
       </c>
       <c r="F47" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="15"/>
@@ -7241,23 +7298,23 @@
         <v>8005</v>
       </c>
       <c r="F48" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="21"/>
       <c r="B49" s="21" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49">
         <v>9000</v>
       </c>
       <c r="F49" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="15"/>
@@ -7265,23 +7322,23 @@
         <v>9001</v>
       </c>
       <c r="F50" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="21"/>
       <c r="B51" s="21" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51">
         <v>10000</v>
       </c>
       <c r="F51" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="15"/>
@@ -7289,10 +7346,10 @@
         <v>10001</v>
       </c>
       <c r="F52" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="15"/>
@@ -7300,10 +7357,10 @@
         <v>10002</v>
       </c>
       <c r="F53" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="15"/>
@@ -7311,13 +7368,13 @@
         <v>10003</v>
       </c>
       <c r="F54" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C55" s="15"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C56" s="15"/>
     </row>
   </sheetData>

--- a/코딩/API 명세.xlsx
+++ b/코딩/API 명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-server\코딩\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A1D108-5FFA-448A-A703-24D847703C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977A0A2A-7937-4F83-8FC9-6D1BD118CC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3270" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{BE2EF8A0-5540-47EF-8B90-1BBA64DC714B}"/>
+    <workbookView xWindow="55305" yWindow="1680" windowWidth="21600" windowHeight="11265" xr2:uid="{BE2EF8A0-5540-47EF-8B90-1BBA64DC714B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="373">
   <si>
     <t>[API 기본 정보]</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1137,26 +1137,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>21. 내구도 수리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>22. 연료 채우기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>23. 보로롱24호 강화</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>24. 선물함(우편함) 조회</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>25. 선물함(우편함) 선물 수령</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     user_gift_box_id: ,
     gift_type_id: ,
@@ -1172,401 +1152,451 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-POST /main HTTP/1.1
+    <t>HTTP 코드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVENTORY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 내 데이터가 존재하지 않음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEATHER</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 DB 오류</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPARTURE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>출항 관련 DB 오류</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로도 부족</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보트 연료 부족</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보트 내구도 부족</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 레벨 제한</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FISHING</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUCTION</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARRIVAL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>정산할 물고기가 없음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일을 입력하지 않음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입한 이력이 있는 이메일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER ACCOUNT DB 오류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디가 올바르지 않음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호가 올바르지 않음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER ACCOUNT USER DB 오류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER DB 오류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOAT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boat DB 오류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserBoat DB 오류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 boat가 존재하지 않음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map DB 오류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserMap DB 오류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 boat 생성 실패</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 채비 변경</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>update-user-current-equip</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER EQUIP DB 오류</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIP DB 오류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIP이 존재하지 않음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inventory DB 오류</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 변경을 위해 선택한 아이템이 장비가 아님</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER CURRENT EQUIP DB 오류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 장착 장비가 존재하지 않음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 목적지 결정 후 출항하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. 목적지에서 물고기 잡기(인벤토리 추가)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 보로롱24호 내구도 감소</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12. 입항하기 (잡아온 물고기 정산, 입항 표시, 도감 등록 및 횟수 만족 시 상품 증정)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13. 도감 보여주기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14. 경매 성공</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15. 주간 경매 결과 보여주기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16. 물건 구매하기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물건 id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventory_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가된 물건의 인벤토리 id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 진주</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 골드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy-item</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tide DB 오류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>STORE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>STORE DB 오류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 상품이 존재하지 않음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 재화가 부족함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_asset</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 장비 구매 실패</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리에 사용자 장비 추가 실패</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book Prize DB 오류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Book Prize DB 오류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>입항 후 도감 Prize 획득 실패</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>존재하지 않는 Book Prize id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Book DB 오류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 Book에 데이터가 존재하지 않음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FISH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserFish DB 오류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>존재하지 않는 User Fish Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>출항하지 않은 상태</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기를 낚지 못함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기가 나타나지 않음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚싯대를 너무 깊이 내림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 User Map 생성 오류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 정보가 존재하지 않음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FISH DB 오류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIFTBOX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Gift Box DB 오류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 잡은 물고기를 USER FISH에 저장하지 못함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 잡은 물고기를 INVEN에 저장하지 못함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKEN 오류</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER FISH COST DB 오류</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>17. 선물함(우편함) 조회</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18. 선물함(우편함) 선물 수령</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>19. 내구도 수리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20. 연료 채우기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>21. 보로롱24호 강화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server: nginx/1.20.1
+Date: Tue, 29 Mar 2022 06:20:00 GMT
+Content-type: text/html; charset=UTF-8
+Transfer-Encoding: chunked
+Connection: keep-alive
+X-Powered-By: PHP/7.4.28
+{
+    "code": "1000",
+    "message": "성공하였습니다.",
+    "result": {
+        "user": {
+            "user_id": 10,
+            "level": 1,
+            "experience": 200,
+            "gold": 0,
+            "pearl": 0,
+            "fatigue": 0
+        },
+        "token": "eyJ0eXAiO"
+    }
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /main HTTP/1.1
 HOST: 192.168.56.102
 content-type: application/x-www-form-urlencoded
-content-length: 
-{</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTTP 코드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>성공</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>INVENTORY</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>인벤토리 내 데이터가 존재하지 않음</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQUIP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEATHER</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>날씨 DB 오류</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEPARTURE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>출항 관련 DB 오류</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>피로도 부족</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>보트 연료 부족</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>보트 내구도 부족</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 레벨 제한</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FISHING</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUCTION</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARRIVAL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>정산할 물고기가 없음</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIGNUP</t>
+content-length: 64
+{
+    "email": "nayoon23@naver.com",
+    "password": "1234"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>로컬 URL</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일을 입력하지 않음</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입한 이력이 있는 이메일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER ACCOUNT DB 오류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디가 올바르지 않음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호가 올바르지 않음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER ACCOUNT USER DB 오류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER DB 오류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOAT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boat DB 오류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserBoat DB 오류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 boat가 존재하지 않음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map DB 오류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserMap DB 오류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 boat 생성 실패</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8. 채비 변경</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>update-user-current-equip</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER EQUIP DB 오류</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQUIP DB 오류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQUIP이 존재하지 않음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인벤토리 번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inventory DB 오류</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비 변경을 위해 선택한 아이템이 장비가 아님</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER CURRENT EQUIP DB 오류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 장착 장비가 존재하지 않음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>9. 목적지 결정 후 출항하기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10. 목적지에서 물고기 잡기(인벤토리 추가)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>11. 보로롱24호 내구도 감소</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>12. 입항하기 (잡아온 물고기 정산, 입항 표시, 도감 등록 및 횟수 만족 시 상품 증정)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>13. 도감 보여주기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14. 경매 성공</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>15. 주간 경매 결과 보여주기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16. 물건 구매하기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>물건 id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>inventory_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가된 물건의 인벤토리 id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>남은 진주</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>남은 골드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>buy-item</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tide DB 오류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>STORE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>STORE DB 오류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 상품이 존재하지 않음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 재화가 부족함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>asset_type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>left_asset</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 장비 구매 실패</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인벤토리에 사용자 장비 추가 실패</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Book Prize DB 오류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>User Book Prize DB 오류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>입항 후 도감 Prize 획득 실패</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>존재하지 않는 Book Prize id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>User Book DB 오류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 Book에 데이터가 존재하지 않음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FISH</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserFish DB 오류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>존재하지 않는 User Fish Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>출항하지 않은 상태</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기를 낚지 못함</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기가 나타나지 않음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚싯대를 너무 깊이 내림</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 User Map 생성 오류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>날씨 정보가 존재하지 않음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FISH DB 오류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GIFTBOX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>User Gift Box DB 오류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 잡은 물고기를 USER FISH에 저장하지 못함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 잡은 물고기를 INVEN에 저장하지 못함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTH</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOKEN 오류</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER FISH COST DB 오류</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1712,7 +1742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1763,18 +1793,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1786,6 +1804,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2103,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4718739-CF9A-4539-B52C-0B74572D14D8}">
   <dimension ref="A2:G371"/>
   <sheetViews>
-    <sheetView topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="B301" sqref="B301"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2147,7 +2184,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -2155,7 +2192,9 @@
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -2184,11 +2223,13 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="363" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>370</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2242,16 +2283,16 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -2274,7 +2315,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2292,7 +2333,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
@@ -2308,7 +2349,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
@@ -2324,7 +2365,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
@@ -2340,7 +2381,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
@@ -2377,12 +2418,12 @@
         <v>15</v>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
@@ -2447,12 +2488,12 @@
         <v>15</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
@@ -2475,7 +2516,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="29" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2491,7 +2532,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="2" t="s">
         <v>24</v>
       </c>
@@ -2527,12 +2568,12 @@
         <v>15</v>
       </c>
       <c r="B36" s="10"/>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
@@ -2551,7 +2592,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="24">
+      <c r="A38" s="33">
         <v>1000</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2567,11 +2608,11 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
-      <c r="B39" s="23" t="s">
+      <c r="A39" s="33"/>
+      <c r="B39" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="34" t="s">
         <v>50</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -2580,45 +2621,45 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="34"/>
       <c r="F40" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="34"/>
       <c r="F41" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="34"/>
       <c r="F42" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="34"/>
       <c r="F43" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="25"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="34"/>
       <c r="F44" s="2" t="s">
         <v>56</v>
       </c>
@@ -2667,12 +2708,12 @@
         <v>15</v>
       </c>
       <c r="B50" s="10"/>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
@@ -2727,12 +2768,12 @@
         <v>15</v>
       </c>
       <c r="B55" s="10"/>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
@@ -2801,12 +2842,12 @@
         <v>15</v>
       </c>
       <c r="B62" s="10"/>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
@@ -2829,7 +2870,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="29" t="s">
         <v>67</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -2847,7 +2888,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
+      <c r="A65" s="29"/>
       <c r="B65" s="2" t="s">
         <v>68</v>
       </c>
@@ -2883,12 +2924,12 @@
         <v>15</v>
       </c>
       <c r="B68" s="10"/>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
@@ -2907,7 +2948,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="23">
+      <c r="A70" s="29">
         <v>1000</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -2923,7 +2964,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="23"/>
+      <c r="A71" s="29"/>
       <c r="B71" s="2" t="s">
         <v>71</v>
       </c>
@@ -2937,7 +2978,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="23"/>
+      <c r="A72" s="29"/>
       <c r="B72" s="2" t="s">
         <v>73</v>
       </c>
@@ -2951,7 +2992,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="23"/>
+      <c r="A73" s="29"/>
       <c r="B73" s="2" t="s">
         <v>75</v>
       </c>
@@ -2965,7 +3006,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="23"/>
+      <c r="A74" s="29"/>
       <c r="B74" s="2" t="s">
         <v>77</v>
       </c>
@@ -2979,7 +3020,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="23"/>
+      <c r="A75" s="29"/>
       <c r="B75" s="2" t="s">
         <v>80</v>
       </c>
@@ -2993,7 +3034,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="23"/>
+      <c r="A76" s="29"/>
       <c r="B76" s="2" t="s">
         <v>82</v>
       </c>
@@ -3031,12 +3072,12 @@
         <v>15</v>
       </c>
       <c r="B80" s="10"/>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
@@ -3059,7 +3100,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -3077,7 +3118,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="23"/>
+      <c r="A83" s="29"/>
       <c r="B83" s="2" t="s">
         <v>86</v>
       </c>
@@ -3113,12 +3154,12 @@
         <v>15</v>
       </c>
       <c r="B86" s="10"/>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
@@ -3137,7 +3178,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="23">
+      <c r="A88" s="29">
         <v>1000</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -3153,7 +3194,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="23"/>
+      <c r="A89" s="29"/>
       <c r="B89" s="2" t="s">
         <v>89</v>
       </c>
@@ -3167,7 +3208,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="23"/>
+      <c r="A90" s="29"/>
       <c r="B90" s="2" t="s">
         <v>91</v>
       </c>
@@ -3181,7 +3222,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="23"/>
+      <c r="A91" s="29"/>
       <c r="B91" s="2" t="s">
         <v>93</v>
       </c>
@@ -3195,7 +3236,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="23"/>
+      <c r="A92" s="29"/>
       <c r="B92" s="2" t="s">
         <v>95</v>
       </c>
@@ -3209,7 +3250,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="23"/>
+      <c r="A93" s="29"/>
       <c r="B93" s="2" t="s">
         <v>97</v>
       </c>
@@ -3223,7 +3264,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="23"/>
+      <c r="A94" s="29"/>
       <c r="B94" s="2" t="s">
         <v>99</v>
       </c>
@@ -3237,7 +3278,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="23"/>
+      <c r="A95" s="29"/>
       <c r="B95" s="2" t="s">
         <v>44</v>
       </c>
@@ -3251,7 +3292,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="23"/>
+      <c r="A96" s="29"/>
       <c r="B96" s="2" t="s">
         <v>102</v>
       </c>
@@ -3265,7 +3306,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="23"/>
+      <c r="A97" s="29"/>
       <c r="B97" s="2" t="s">
         <v>104</v>
       </c>
@@ -3321,12 +3362,12 @@
         <v>15</v>
       </c>
       <c r="B103" s="10"/>
-      <c r="C103" s="22" t="s">
+      <c r="C103" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="22"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
@@ -3389,12 +3430,12 @@
         <v>15</v>
       </c>
       <c r="B108" s="16"/>
-      <c r="C108" s="26" t="s">
+      <c r="C108" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="18" t="s">
@@ -3413,7 +3454,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="27">
+      <c r="A110" s="31">
         <v>1000</v>
       </c>
       <c r="B110" s="15" t="s">
@@ -3429,7 +3470,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="27"/>
+      <c r="A111" s="31"/>
       <c r="B111" s="15" t="s">
         <v>110</v>
       </c>
@@ -3443,7 +3484,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="27"/>
+      <c r="A112" s="31"/>
       <c r="B112" s="15" t="s">
         <v>112</v>
       </c>
@@ -3457,7 +3498,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="27"/>
+      <c r="A113" s="31"/>
       <c r="B113" s="15" t="s">
         <v>114</v>
       </c>
@@ -3471,7 +3512,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="27"/>
+      <c r="A114" s="31"/>
       <c r="B114" s="15" t="s">
         <v>116</v>
       </c>
@@ -3485,7 +3526,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="27"/>
+      <c r="A115" s="31"/>
       <c r="B115" s="15" t="s">
         <v>118</v>
       </c>
@@ -3541,12 +3582,12 @@
         <v>15</v>
       </c>
       <c r="B121" s="10"/>
-      <c r="C121" s="22" t="s">
+      <c r="C121" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D121" s="22"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
@@ -3609,12 +3650,12 @@
         <v>15</v>
       </c>
       <c r="B126" s="10"/>
-      <c r="C126" s="22" t="s">
+      <c r="C126" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D126" s="22"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="22"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="30"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
@@ -3633,7 +3674,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="27">
+      <c r="A128" s="31">
         <v>1000</v>
       </c>
       <c r="B128" s="15" t="s">
@@ -3649,7 +3690,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="27"/>
+      <c r="A129" s="31"/>
       <c r="B129" s="15" t="s">
         <v>145</v>
       </c>
@@ -3663,7 +3704,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="27"/>
+      <c r="A130" s="31"/>
       <c r="B130" s="15" t="s">
         <v>147</v>
       </c>
@@ -3677,7 +3718,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="27"/>
+      <c r="A131" s="31"/>
       <c r="B131" s="15" t="s">
         <v>149</v>
       </c>
@@ -3691,7 +3732,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="27"/>
+      <c r="A132" s="31"/>
       <c r="B132" s="15" t="s">
         <v>151</v>
       </c>
@@ -3705,7 +3746,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="27"/>
+      <c r="A133" s="31"/>
       <c r="B133" s="15" t="s">
         <v>153</v>
       </c>
@@ -3719,7 +3760,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="27"/>
+      <c r="A134" s="31"/>
       <c r="B134" s="15" t="s">
         <v>155</v>
       </c>
@@ -3733,7 +3774,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="27"/>
+      <c r="A135" s="31"/>
       <c r="B135" s="15" t="s">
         <v>157</v>
       </c>
@@ -3747,7 +3788,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="27"/>
+      <c r="A136" s="31"/>
       <c r="B136" s="15" t="s">
         <v>159</v>
       </c>
@@ -3761,7 +3802,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="27"/>
+      <c r="A137" s="31"/>
       <c r="B137" s="15" t="s">
         <v>161</v>
       </c>
@@ -3775,7 +3816,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="27"/>
+      <c r="A138" s="31"/>
       <c r="B138" s="15" t="s">
         <v>163</v>
       </c>
@@ -3789,7 +3830,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="27"/>
+      <c r="A139" s="31"/>
       <c r="B139" s="15" t="s">
         <v>165</v>
       </c>
@@ -3803,7 +3844,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="27"/>
+      <c r="A140" s="31"/>
       <c r="B140" s="15" t="s">
         <v>167</v>
       </c>
@@ -3817,7 +3858,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="27"/>
+      <c r="A141" s="31"/>
       <c r="B141" s="15" t="s">
         <v>169</v>
       </c>
@@ -3831,7 +3872,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="27"/>
+      <c r="A142" s="31"/>
       <c r="B142" s="15" t="s">
         <v>171</v>
       </c>
@@ -3845,7 +3886,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="27"/>
+      <c r="A143" s="31"/>
       <c r="B143" s="15" t="s">
         <v>173</v>
       </c>
@@ -3859,7 +3900,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="27"/>
+      <c r="A144" s="31"/>
       <c r="B144" s="15" t="s">
         <v>175</v>
       </c>
@@ -3873,7 +3914,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="27"/>
+      <c r="A145" s="31"/>
       <c r="B145" s="15" t="s">
         <v>177</v>
       </c>
@@ -3887,7 +3928,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="27"/>
+      <c r="A146" s="31"/>
       <c r="B146" s="15" t="s">
         <v>179</v>
       </c>
@@ -3902,7 +3943,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3925,12 +3966,12 @@
         <v>15</v>
       </c>
       <c r="B150" s="10"/>
-      <c r="C150" s="22" t="s">
+      <c r="C150" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D150" s="22"/>
-      <c r="E150" s="22"/>
-      <c r="F150" s="22"/>
+      <c r="D150" s="30"/>
+      <c r="E150" s="30"/>
+      <c r="F150" s="30"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
@@ -3953,8 +3994,8 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="23" t="s">
-        <v>311</v>
+      <c r="A152" s="29" t="s">
+        <v>305</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>46</v>
@@ -3971,7 +4012,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="23"/>
+      <c r="A153" s="29"/>
       <c r="B153" s="2" t="s">
         <v>62</v>
       </c>
@@ -3983,7 +4024,7 @@
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -4009,12 +4050,12 @@
       <c r="B156" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C156" s="22" t="s">
+      <c r="C156" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D156" s="22"/>
-      <c r="E156" s="22"/>
-      <c r="F156" s="22"/>
+      <c r="D156" s="30"/>
+      <c r="E156" s="30"/>
+      <c r="F156" s="30"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
@@ -4033,7 +4074,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="23">
+      <c r="A158" s="29">
         <v>1000</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -4049,7 +4090,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="23"/>
+      <c r="A159" s="29"/>
       <c r="B159" s="2" t="s">
         <v>145</v>
       </c>
@@ -4063,7 +4104,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="23"/>
+      <c r="A160" s="29"/>
       <c r="B160" s="2" t="s">
         <v>147</v>
       </c>
@@ -4077,7 +4118,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="23"/>
+      <c r="A161" s="29"/>
       <c r="B161" s="2" t="s">
         <v>149</v>
       </c>
@@ -4091,7 +4132,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="23"/>
+      <c r="A162" s="29"/>
       <c r="B162" s="2" t="s">
         <v>151</v>
       </c>
@@ -4105,7 +4146,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="23"/>
+      <c r="A163" s="29"/>
       <c r="B163" s="2" t="s">
         <v>153</v>
       </c>
@@ -4119,7 +4160,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="23"/>
+      <c r="A164" s="29"/>
       <c r="B164" s="2" t="s">
         <v>155</v>
       </c>
@@ -4133,7 +4174,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="23"/>
+      <c r="A165" s="29"/>
       <c r="B165" s="2" t="s">
         <v>157</v>
       </c>
@@ -4147,7 +4188,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="23"/>
+      <c r="A166" s="29"/>
       <c r="B166" s="2" t="s">
         <v>159</v>
       </c>
@@ -4161,7 +4202,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="23"/>
+      <c r="A167" s="29"/>
       <c r="B167" s="2" t="s">
         <v>161</v>
       </c>
@@ -4175,7 +4216,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="23"/>
+      <c r="A168" s="29"/>
       <c r="B168" s="2" t="s">
         <v>163</v>
       </c>
@@ -4189,7 +4230,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="23"/>
+      <c r="A169" s="29"/>
       <c r="B169" s="2" t="s">
         <v>165</v>
       </c>
@@ -4203,7 +4244,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="23"/>
+      <c r="A170" s="29"/>
       <c r="B170" s="2" t="s">
         <v>167</v>
       </c>
@@ -4217,7 +4258,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="23"/>
+      <c r="A171" s="29"/>
       <c r="B171" s="2" t="s">
         <v>169</v>
       </c>
@@ -4231,7 +4272,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="23"/>
+      <c r="A172" s="29"/>
       <c r="B172" s="2" t="s">
         <v>171</v>
       </c>
@@ -4245,7 +4286,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="23"/>
+      <c r="A173" s="29"/>
       <c r="B173" s="2" t="s">
         <v>173</v>
       </c>
@@ -4259,7 +4300,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="23"/>
+      <c r="A174" s="29"/>
       <c r="B174" s="2" t="s">
         <v>175</v>
       </c>
@@ -4273,7 +4314,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="23"/>
+      <c r="A175" s="29"/>
       <c r="B175" s="2" t="s">
         <v>177</v>
       </c>
@@ -4287,7 +4328,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="23"/>
+      <c r="A176" s="29"/>
       <c r="B176" s="2" t="s">
         <v>179</v>
       </c>
@@ -4328,7 +4369,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -4351,12 +4392,12 @@
         <v>15</v>
       </c>
       <c r="B182" s="10"/>
-      <c r="C182" s="22" t="s">
+      <c r="C182" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D182" s="22"/>
-      <c r="E182" s="22"/>
-      <c r="F182" s="22"/>
+      <c r="D182" s="30"/>
+      <c r="E182" s="30"/>
+      <c r="F182" s="30"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
@@ -4379,7 +4420,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="23" t="s">
+      <c r="A184" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -4397,7 +4438,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="23"/>
+      <c r="A185" s="29"/>
       <c r="B185" s="2" t="s">
         <v>71</v>
       </c>
@@ -4435,12 +4476,12 @@
         <v>15</v>
       </c>
       <c r="B188" s="10"/>
-      <c r="C188" s="22" t="s">
+      <c r="C188" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D188" s="22"/>
-      <c r="E188" s="22"/>
-      <c r="F188" s="22"/>
+      <c r="D188" s="30"/>
+      <c r="E188" s="30"/>
+      <c r="F188" s="30"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
@@ -4459,7 +4500,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="27">
+      <c r="A190" s="31">
         <v>1000</v>
       </c>
       <c r="B190" s="15" t="s">
@@ -4475,7 +4516,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="27"/>
+      <c r="A191" s="31"/>
       <c r="B191" s="15" t="s">
         <v>124</v>
       </c>
@@ -4489,7 +4530,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="27"/>
+      <c r="A192" s="31"/>
       <c r="B192" s="15" t="s">
         <v>126</v>
       </c>
@@ -4503,7 +4544,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="27"/>
+      <c r="A193" s="31"/>
       <c r="B193" s="15" t="s">
         <v>128</v>
       </c>
@@ -4517,7 +4558,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="27"/>
+      <c r="A194" s="31"/>
       <c r="B194" s="15" t="s">
         <v>130</v>
       </c>
@@ -4531,7 +4572,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="27"/>
+      <c r="A195" s="31"/>
       <c r="B195" s="15" t="s">
         <v>132</v>
       </c>
@@ -4545,7 +4586,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="27"/>
+      <c r="A196" s="31"/>
       <c r="B196" s="15" t="s">
         <v>133</v>
       </c>
@@ -4559,7 +4600,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="27"/>
+      <c r="A197" s="31"/>
       <c r="B197" s="15" t="s">
         <v>135</v>
       </c>
@@ -4573,7 +4614,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="27"/>
+      <c r="A198" s="31"/>
       <c r="B198" s="15" t="s">
         <v>137</v>
       </c>
@@ -4587,7 +4628,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="27"/>
+      <c r="A199" s="31"/>
       <c r="B199" s="15" t="s">
         <v>139</v>
       </c>
@@ -4602,7 +4643,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -4625,12 +4666,12 @@
         <v>15</v>
       </c>
       <c r="B203" s="10"/>
-      <c r="C203" s="22" t="s">
+      <c r="C203" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D203" s="22"/>
-      <c r="E203" s="22"/>
-      <c r="F203" s="22"/>
+      <c r="D203" s="30"/>
+      <c r="E203" s="30"/>
+      <c r="F203" s="30"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
@@ -4693,12 +4734,12 @@
         <v>15</v>
       </c>
       <c r="B208" s="10"/>
-      <c r="C208" s="22" t="s">
+      <c r="C208" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D208" s="22"/>
-      <c r="E208" s="22"/>
-      <c r="F208" s="22"/>
+      <c r="D208" s="30"/>
+      <c r="E208" s="30"/>
+      <c r="F208" s="30"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
@@ -4717,7 +4758,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="23">
+      <c r="A210" s="29">
         <v>1000</v>
       </c>
       <c r="B210" s="2" t="s">
@@ -4733,7 +4774,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="23"/>
+      <c r="A211" s="29"/>
       <c r="B211" s="2" t="s">
         <v>75</v>
       </c>
@@ -4747,7 +4788,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="23"/>
+      <c r="A212" s="29"/>
       <c r="B212" s="2" t="s">
         <v>77</v>
       </c>
@@ -4761,7 +4802,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="23"/>
+      <c r="A213" s="29"/>
       <c r="B213" s="2" t="s">
         <v>80</v>
       </c>
@@ -4775,7 +4816,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="23"/>
+      <c r="A214" s="29"/>
       <c r="B214" s="2" t="s">
         <v>82</v>
       </c>
@@ -4790,7 +4831,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -4813,12 +4854,12 @@
         <v>15</v>
       </c>
       <c r="B218" s="10"/>
-      <c r="C218" s="22" t="s">
+      <c r="C218" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D218" s="22"/>
-      <c r="E218" s="22"/>
-      <c r="F218" s="22"/>
+      <c r="D218" s="30"/>
+      <c r="E218" s="30"/>
+      <c r="F218" s="30"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
@@ -4881,12 +4922,12 @@
         <v>15</v>
       </c>
       <c r="B223" s="10"/>
-      <c r="C223" s="22" t="s">
+      <c r="C223" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D223" s="22"/>
-      <c r="E223" s="22"/>
-      <c r="F223" s="22"/>
+      <c r="D223" s="30"/>
+      <c r="E223" s="30"/>
+      <c r="F223" s="30"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
@@ -4927,7 +4968,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -4950,12 +4991,12 @@
         <v>15</v>
       </c>
       <c r="B231" s="10"/>
-      <c r="C231" s="22" t="s">
+      <c r="C231" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D231" s="22"/>
-      <c r="E231" s="22"/>
-      <c r="F231" s="22"/>
+      <c r="D231" s="30"/>
+      <c r="E231" s="30"/>
+      <c r="F231" s="30"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
@@ -5018,12 +5059,12 @@
         <v>15</v>
       </c>
       <c r="B236" s="10"/>
-      <c r="C236" s="22" t="s">
+      <c r="C236" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D236" s="22"/>
-      <c r="E236" s="22"/>
-      <c r="F236" s="22"/>
+      <c r="D236" s="30"/>
+      <c r="E236" s="30"/>
+      <c r="F236" s="30"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
@@ -5042,7 +5083,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A238" s="23">
+      <c r="A238" s="29">
         <v>1000</v>
       </c>
       <c r="B238" t="s">
@@ -5058,7 +5099,7 @@
       </c>
     </row>
     <row r="239" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A239" s="23"/>
+      <c r="A239" s="29"/>
       <c r="B239" t="s">
         <v>215</v>
       </c>
@@ -5070,7 +5111,7 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" s="23"/>
+      <c r="A240" s="29"/>
       <c r="B240" t="s">
         <v>212</v>
       </c>
@@ -5091,7 +5132,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="9" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -5114,12 +5155,12 @@
         <v>15</v>
       </c>
       <c r="B246" s="10"/>
-      <c r="C246" s="22" t="s">
+      <c r="C246" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D246" s="22"/>
-      <c r="E246" s="22"/>
-      <c r="F246" s="22"/>
+      <c r="D246" s="30"/>
+      <c r="E246" s="30"/>
+      <c r="F246" s="30"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
@@ -5182,12 +5223,12 @@
         <v>15</v>
       </c>
       <c r="B251" s="10"/>
-      <c r="C251" s="22" t="s">
+      <c r="C251" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D251" s="22"/>
-      <c r="E251" s="22"/>
-      <c r="F251" s="22"/>
+      <c r="D251" s="30"/>
+      <c r="E251" s="30"/>
+      <c r="F251" s="30"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
@@ -5247,7 +5288,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="9" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -5270,12 +5311,12 @@
         <v>15</v>
       </c>
       <c r="B259" s="10"/>
-      <c r="C259" s="22" t="s">
+      <c r="C259" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D259" s="22"/>
-      <c r="E259" s="22"/>
-      <c r="F259" s="22"/>
+      <c r="D259" s="30"/>
+      <c r="E259" s="30"/>
+      <c r="F259" s="30"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
@@ -5354,12 +5395,12 @@
         <v>15</v>
       </c>
       <c r="B265" s="10"/>
-      <c r="C265" s="22" t="s">
+      <c r="C265" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D265" s="22"/>
-      <c r="E265" s="22"/>
-      <c r="F265" s="22"/>
+      <c r="D265" s="30"/>
+      <c r="E265" s="30"/>
+      <c r="F265" s="30"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
@@ -5378,7 +5419,7 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A267" s="23">
+      <c r="A267" s="29">
         <v>1000</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -5394,7 +5435,7 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A268" s="23"/>
+      <c r="A268" s="29"/>
       <c r="B268" s="2" t="s">
         <v>71</v>
       </c>
@@ -5408,7 +5449,7 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A269" s="23"/>
+      <c r="A269" s="29"/>
       <c r="B269" s="2" t="s">
         <v>256</v>
       </c>
@@ -5422,7 +5463,7 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A270" s="23"/>
+      <c r="A270" s="29"/>
       <c r="B270" s="2" t="s">
         <v>108</v>
       </c>
@@ -5436,7 +5477,7 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A271" s="23"/>
+      <c r="A271" s="29"/>
       <c r="B271" s="2" t="s">
         <v>80</v>
       </c>
@@ -5450,7 +5491,7 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A272" s="23"/>
+      <c r="A272" s="29"/>
       <c r="B272" s="2" t="s">
         <v>82</v>
       </c>
@@ -5464,7 +5505,7 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A273" s="23"/>
+      <c r="A273" s="29"/>
       <c r="B273" s="2" t="s">
         <v>259</v>
       </c>
@@ -5478,7 +5519,7 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A274" s="23"/>
+      <c r="A274" s="29"/>
       <c r="B274" s="2" t="s">
         <v>261</v>
       </c>
@@ -5501,7 +5542,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -5524,12 +5565,12 @@
         <v>15</v>
       </c>
       <c r="B278" s="10"/>
-      <c r="C278" s="22" t="s">
+      <c r="C278" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D278" s="22"/>
-      <c r="E278" s="22"/>
-      <c r="F278" s="22"/>
+      <c r="D278" s="30"/>
+      <c r="E278" s="30"/>
+      <c r="F278" s="30"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
@@ -5592,12 +5633,12 @@
         <v>15</v>
       </c>
       <c r="B283" s="10"/>
-      <c r="C283" s="22" t="s">
+      <c r="C283" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D283" s="22"/>
-      <c r="E283" s="22"/>
-      <c r="F283" s="22"/>
+      <c r="D283" s="30"/>
+      <c r="E283" s="30"/>
+      <c r="F283" s="30"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
@@ -5616,7 +5657,7 @@
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A285" s="23">
+      <c r="A285" s="29">
         <v>1000</v>
       </c>
       <c r="B285" s="2" t="s">
@@ -5632,7 +5673,7 @@
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A286" s="23"/>
+      <c r="A286" s="29"/>
       <c r="B286" s="2" t="s">
         <v>264</v>
       </c>
@@ -5655,7 +5696,7 @@
     </row>
     <row r="288" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A288" s="8" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -5672,8 +5713,8 @@
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A290" s="29" t="s">
-        <v>328</v>
+      <c r="A290" s="25" t="s">
+        <v>322</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -5696,12 +5737,12 @@
         <v>15</v>
       </c>
       <c r="B292" s="21"/>
-      <c r="C292" s="22" t="s">
+      <c r="C292" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D292" s="22"/>
-      <c r="E292" s="22"/>
-      <c r="F292" s="22"/>
+      <c r="D292" s="30"/>
+      <c r="E292" s="30"/>
+      <c r="F292" s="30"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
@@ -5724,8 +5765,8 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="23" t="s">
-        <v>336</v>
+      <c r="A294" s="29" t="s">
+        <v>330</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>46</v>
@@ -5742,19 +5783,19 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A295" s="23"/>
+      <c r="A295" s="29"/>
       <c r="B295" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E295" s="2"/>
       <c r="F295" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -5780,12 +5821,12 @@
         <v>15</v>
       </c>
       <c r="B298" s="21"/>
-      <c r="C298" s="22" t="s">
+      <c r="C298" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D298" s="22"/>
-      <c r="E298" s="22"/>
-      <c r="F298" s="22"/>
+      <c r="D298" s="30"/>
+      <c r="E298" s="30"/>
+      <c r="F298" s="30"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
@@ -5804,11 +5845,11 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A300" s="23">
+      <c r="A300" s="29">
         <v>1000</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>33</v>
@@ -5816,13 +5857,13 @@
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A301" s="23"/>
+      <c r="A301" s="29"/>
       <c r="B301" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>33</v>
@@ -5830,21 +5871,21 @@
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
       <c r="F301" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A302" s="23"/>
+      <c r="A302" s="29"/>
       <c r="B302" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
       <c r="F302" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -5857,7 +5898,7 @@
     </row>
     <row r="304" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A304" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -5865,8 +5906,8 @@
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A305" s="2"/>
+    <row r="305" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A305" s="19"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -5875,7 +5916,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="9" t="s">
-        <v>266</v>
+        <v>365</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -5894,10 +5935,10 @@
       <c r="F307" s="2"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A308" s="10" t="s">
+      <c r="A308" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B308" s="10"/>
+      <c r="B308" s="22"/>
       <c r="C308" s="22" t="s">
         <v>16</v>
       </c>
@@ -5927,7 +5968,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="23" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>46</v>
@@ -5944,23 +5985,17 @@
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A311" s="23"/>
-      <c r="B311" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A311" s="2"/>
+      <c r="B311" s="2"/>
+      <c r="C311" s="2"/>
+      <c r="D311" s="2"/>
       <c r="E311" s="2"/>
-      <c r="F311" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A312" s="2"/>
+      <c r="A312" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
@@ -5968,79 +6003,71 @@
       <c r="F312" s="2"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A313" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B313" s="2"/>
-      <c r="C313" s="2"/>
-      <c r="D313" s="2"/>
-      <c r="E313" s="2"/>
-      <c r="F313" s="2"/>
+      <c r="A313" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B313" s="22"/>
+      <c r="C313" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D313" s="22"/>
+      <c r="E313" s="22"/>
+      <c r="F313" s="22"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A314" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B314" s="10"/>
-      <c r="C314" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D314" s="22"/>
-      <c r="E314" s="22"/>
-      <c r="F314" s="22"/>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A315" s="3" t="s">
+      <c r="A314" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B315" s="4" t="s">
+      <c r="B314" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C315" s="4" t="s">
+      <c r="C314" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D315" s="4"/>
-      <c r="E315" s="4"/>
-      <c r="F315" s="4" t="s">
+      <c r="D314" s="4"/>
+      <c r="E314" s="4"/>
+      <c r="F314" s="4" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="315" spans="1:6" ht="132" x14ac:dyDescent="0.3">
+      <c r="A315" s="23">
+        <v>1000</v>
+      </c>
+      <c r="B315" t="s">
+        <v>245</v>
+      </c>
+      <c r="C315" t="s">
+        <v>64</v>
+      </c>
+      <c r="D315" s="2"/>
+      <c r="E315" s="2"/>
+      <c r="F315" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A316" s="23">
-        <v>1000</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A316" s="2"/>
+      <c r="B316" s="2"/>
+      <c r="C316" s="2"/>
+      <c r="D316" s="2"/>
       <c r="E316" s="2"/>
-      <c r="F316" s="2" t="s">
-        <v>224</v>
-      </c>
+      <c r="F316" s="2"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A317" s="23"/>
-      <c r="B317" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A317" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B317" s="2"/>
+      <c r="C317" s="2"/>
+      <c r="D317" s="2"/>
       <c r="E317" s="2"/>
-      <c r="F317" s="2" t="s">
-        <v>226</v>
-      </c>
+      <c r="F317" s="2"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A318" s="2"/>
+      <c r="A318" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
@@ -6048,173 +6075,155 @@
       <c r="F318" s="2"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A319" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="B319" s="2"/>
-      <c r="C319" s="2"/>
-      <c r="D319" s="2"/>
-      <c r="E319" s="2"/>
-      <c r="F319" s="2"/>
+      <c r="A319" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B319" s="22"/>
+      <c r="C319" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D319" s="22"/>
+      <c r="E319" s="22"/>
+      <c r="F319" s="22"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A320" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B320" s="2"/>
-      <c r="C320" s="2"/>
-      <c r="D320" s="2"/>
-      <c r="E320" s="2"/>
-      <c r="F320" s="2"/>
+      <c r="A320" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D320" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E320" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F320" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A321" s="10" t="s">
+      <c r="A321" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E321" s="2"/>
+      <c r="F321" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322" s="29"/>
+      <c r="B322" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E322" s="2"/>
+      <c r="F322" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323" s="2"/>
+      <c r="B323" s="2"/>
+      <c r="C323" s="2"/>
+      <c r="D323" s="2"/>
+      <c r="E323" s="2"/>
+      <c r="F323" s="2"/>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B324" s="2"/>
+      <c r="C324" s="2"/>
+      <c r="D324" s="2"/>
+      <c r="E324" s="2"/>
+      <c r="F324" s="2"/>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B321" s="10"/>
-      <c r="C321" s="22" t="s">
+      <c r="B325" s="22"/>
+      <c r="C325" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D321" s="22"/>
-      <c r="E321" s="22"/>
-      <c r="F321" s="22"/>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A322" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B322" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C322" s="4" t="s">
+      <c r="D325" s="22"/>
+      <c r="E325" s="22"/>
+      <c r="F325" s="22"/>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C326" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D322" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E322" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F322" s="4" t="s">
+      <c r="D326" s="4"/>
+      <c r="E326" s="4"/>
+      <c r="F326" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A323" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C323" s="2" t="s">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327" s="12">
+        <v>1000</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C327" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D323" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E323" s="2"/>
-      <c r="F323" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A324" s="23"/>
-      <c r="B324" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D324" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E324" s="2"/>
-      <c r="F324" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A325" s="13"/>
-      <c r="B325" s="2"/>
-      <c r="C325" s="2"/>
-      <c r="D325" s="2"/>
-      <c r="E325" s="2"/>
-      <c r="F325" s="2"/>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A326" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B326" s="2"/>
-      <c r="C326" s="2"/>
-      <c r="D326" s="2"/>
-      <c r="E326" s="2"/>
-      <c r="F326" s="2"/>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A327" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B327" s="10"/>
-      <c r="C327" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D327" s="22"/>
-      <c r="E327" s="22"/>
-      <c r="F327" s="22"/>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A328" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B328" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C328" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D328" s="4"/>
-      <c r="E328" s="4"/>
-      <c r="F328" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A329" s="23">
-        <v>1000</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="D327" s="2"/>
+      <c r="E327" s="2"/>
+      <c r="F327" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A329" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B329" s="2"/>
+      <c r="C329" s="2"/>
+      <c r="D329" s="2"/>
       <c r="E329" s="2"/>
-      <c r="F329" s="2" t="s">
-        <v>230</v>
-      </c>
+      <c r="F329" s="2"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A330" s="23"/>
-      <c r="B330" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A330" s="2"/>
+      <c r="B330" s="2"/>
+      <c r="C330" s="2"/>
+      <c r="D330" s="2"/>
       <c r="E330" s="2"/>
-      <c r="F330" s="2" t="s">
-        <v>232</v>
-      </c>
+      <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A331" s="2"/>
+      <c r="A331" s="35" t="s">
+        <v>367</v>
+      </c>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
@@ -6222,8 +6231,8 @@
       <c r="F331" s="2"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A332" s="9" t="s">
-        <v>268</v>
+      <c r="A332" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -6232,83 +6241,83 @@
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A333" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B333" s="2"/>
-      <c r="C333" s="2"/>
-      <c r="D333" s="2"/>
-      <c r="E333" s="2"/>
-      <c r="F333" s="2"/>
+      <c r="A333" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B333" s="10"/>
+      <c r="C333" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D333" s="30"/>
+      <c r="E333" s="30"/>
+      <c r="F333" s="30"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A334" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B334" s="10"/>
-      <c r="C334" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D334" s="22"/>
-      <c r="E334" s="22"/>
-      <c r="F334" s="22"/>
+      <c r="A334" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D334" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E334" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F334" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A335" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B335" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C335" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D335" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E335" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F335" s="4" t="s">
-        <v>22</v>
+      <c r="A335" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E335" s="2"/>
+      <c r="F335" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A336" s="23" t="s">
-        <v>233</v>
-      </c>
+      <c r="A336" s="29"/>
       <c r="B336" s="2" t="s">
-        <v>46</v>
+        <v>222</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E336" s="2"/>
       <c r="F336" s="2" t="s">
-        <v>61</v>
+        <v>223</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A337" s="23"/>
-      <c r="B337" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D337" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A337" s="2"/>
+      <c r="B337" s="2"/>
+      <c r="C337" s="2"/>
+      <c r="D337" s="2"/>
       <c r="E337" s="2"/>
-      <c r="F337" s="2" t="s">
-        <v>235</v>
-      </c>
+      <c r="F337" s="2"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A338" s="2"/>
+      <c r="A338" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
@@ -6316,137 +6325,163 @@
       <c r="F338" s="2"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A339" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B339" s="2"/>
-      <c r="C339" s="2"/>
-      <c r="D339" s="2"/>
-      <c r="E339" s="2"/>
-      <c r="F339" s="2"/>
+      <c r="A339" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B339" s="10"/>
+      <c r="C339" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D339" s="30"/>
+      <c r="E339" s="30"/>
+      <c r="F339" s="30"/>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A340" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B340" s="10"/>
-      <c r="C340" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D340" s="22"/>
-      <c r="E340" s="22"/>
-      <c r="F340" s="22"/>
+      <c r="A340" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D340" s="4"/>
+      <c r="E340" s="4"/>
+      <c r="F340" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A341" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B341" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C341" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D341" s="4"/>
-      <c r="E341" s="4"/>
-      <c r="F341" s="4" t="s">
-        <v>22</v>
+      <c r="A341" s="29">
+        <v>1000</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E341" s="2"/>
+      <c r="F341" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A342" s="23">
-        <v>1000</v>
-      </c>
+      <c r="A342" s="29"/>
       <c r="B342" s="2" t="s">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D342" s="2"/>
+      <c r="D342" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E342" s="2"/>
       <c r="F342" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A343" s="23"/>
-      <c r="B343" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C343" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A343" s="2"/>
+      <c r="B343" s="2"/>
+      <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
-      <c r="F343" s="2" t="s">
-        <v>238</v>
-      </c>
+      <c r="F343" s="2"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A344" s="23"/>
-      <c r="B344" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A344" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="B344" s="2"/>
+      <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
-      <c r="F344" s="2" t="s">
-        <v>240</v>
-      </c>
+      <c r="F344" s="2"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A345" s="23"/>
-      <c r="B345" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A345" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B345" s="2"/>
+      <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
-      <c r="F345" s="2" t="s">
-        <v>241</v>
-      </c>
+      <c r="F345" s="2"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A346" s="23"/>
-      <c r="B346" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C346" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D346" s="2"/>
-      <c r="E346" s="2"/>
-      <c r="F346" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A348" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B348" s="2"/>
-      <c r="C348" s="2"/>
-      <c r="D348" s="2"/>
+      <c r="A346" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B346" s="10"/>
+      <c r="C346" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D346" s="30"/>
+      <c r="E346" s="30"/>
+      <c r="F346" s="30"/>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A347" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D347" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E347" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F347" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A348" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E348" s="2"/>
-      <c r="F348" s="2"/>
-    </row>
-    <row r="349" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A349" s="19"/>
-      <c r="B349" s="2"/>
-      <c r="C349" s="2"/>
-      <c r="D349" s="2"/>
+      <c r="F348" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A349" s="29"/>
+      <c r="B349" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E349" s="2"/>
-      <c r="F349" s="2"/>
+      <c r="F349" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A350" s="9" t="s">
-        <v>269</v>
-      </c>
+      <c r="A350" s="13"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
@@ -6455,7 +6490,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -6468,63 +6503,65 @@
         <v>15</v>
       </c>
       <c r="B352" s="10"/>
-      <c r="C352" s="22" t="s">
+      <c r="C352" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D352" s="22"/>
-      <c r="E352" s="22"/>
-      <c r="F352" s="22"/>
+      <c r="D352" s="30"/>
+      <c r="E352" s="30"/>
+      <c r="F352" s="30"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D353" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E353" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="D353" s="4"/>
+      <c r="E353" s="4"/>
       <c r="F353" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A354" s="13" t="s">
-        <v>244</v>
+      <c r="A354" s="29">
+        <v>1000</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E354" s="2"/>
       <c r="F354" s="2" t="s">
-        <v>61</v>
+        <v>230</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A355" s="2"/>
-      <c r="B355" s="2"/>
-      <c r="C355" s="2"/>
-      <c r="D355" s="2"/>
+      <c r="A355" s="29"/>
+      <c r="B355" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E355" s="2"/>
-      <c r="F355" s="2"/>
+      <c r="F355" s="2" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A356" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
@@ -6532,266 +6569,211 @@
       <c r="F356" s="2"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A357" s="10" t="s">
+      <c r="A357" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="B357" s="2"/>
+      <c r="C357" s="2"/>
+      <c r="D357" s="2"/>
+      <c r="E357" s="2"/>
+      <c r="F357" s="2"/>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B358" s="2"/>
+      <c r="C358" s="2"/>
+      <c r="D358" s="2"/>
+      <c r="E358" s="2"/>
+      <c r="F358" s="2"/>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A359" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B357" s="10"/>
-      <c r="C357" s="22" t="s">
+      <c r="B359" s="10"/>
+      <c r="C359" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D357" s="22"/>
-      <c r="E357" s="22"/>
-      <c r="F357" s="22"/>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A358" s="3" t="s">
+      <c r="D359" s="30"/>
+      <c r="E359" s="30"/>
+      <c r="F359" s="30"/>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A360" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D360" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E360" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F360" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A361" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E361" s="2"/>
+      <c r="F361" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A362" s="29"/>
+      <c r="B362" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E362" s="2"/>
+      <c r="F362" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A363" s="2"/>
+      <c r="B363" s="2"/>
+      <c r="C363" s="2"/>
+      <c r="D363" s="2"/>
+      <c r="E363" s="2"/>
+      <c r="F363" s="2"/>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B364" s="2"/>
+      <c r="C364" s="2"/>
+      <c r="D364" s="2"/>
+      <c r="E364" s="2"/>
+      <c r="F364" s="2"/>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A365" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B365" s="10"/>
+      <c r="C365" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D365" s="30"/>
+      <c r="E365" s="30"/>
+      <c r="F365" s="30"/>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B358" s="4" t="s">
+      <c r="B366" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C358" s="4" t="s">
+      <c r="C366" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D358" s="4"/>
-      <c r="E358" s="4"/>
-      <c r="F358" s="4" t="s">
+      <c r="D366" s="4"/>
+      <c r="E366" s="4"/>
+      <c r="F366" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="132" x14ac:dyDescent="0.3">
-      <c r="A359" s="13">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A367" s="29">
         <v>1000</v>
       </c>
-      <c r="B359" t="s">
-        <v>245</v>
-      </c>
-      <c r="C359" t="s">
-        <v>64</v>
-      </c>
-      <c r="D359" s="2"/>
-      <c r="E359" s="2"/>
-      <c r="F359" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A360" s="2"/>
-      <c r="B360" s="2"/>
-      <c r="C360" s="2"/>
-      <c r="D360" s="2"/>
-      <c r="E360" s="2"/>
-      <c r="F360" s="2"/>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A361" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B361" s="2"/>
-      <c r="C361" s="2"/>
-      <c r="D361" s="2"/>
-      <c r="E361" s="2"/>
-      <c r="F361" s="2"/>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A362" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B362" s="2"/>
-      <c r="C362" s="2"/>
-      <c r="D362" s="2"/>
-      <c r="E362" s="2"/>
-      <c r="F362" s="2"/>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A363" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B363" s="10"/>
-      <c r="C363" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D363" s="22"/>
-      <c r="E363" s="22"/>
-      <c r="F363" s="22"/>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A364" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B364" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C364" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D364" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E364" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F364" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A365" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C365" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D365" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E365" s="2"/>
-      <c r="F365" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A366" s="23"/>
-      <c r="B366" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D366" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E366" s="2"/>
-      <c r="F366" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A367" s="2"/>
-      <c r="B367" s="2"/>
-      <c r="C367" s="2"/>
+      <c r="B367" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
-      <c r="F367" s="2"/>
+      <c r="F367" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A368" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B368" s="2"/>
-      <c r="C368" s="2"/>
+      <c r="A368" s="29"/>
+      <c r="B368" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
-      <c r="F368" s="2"/>
+      <c r="F368" s="2" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A369" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B369" s="10"/>
-      <c r="C369" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D369" s="22"/>
-      <c r="E369" s="22"/>
-      <c r="F369" s="22"/>
+      <c r="A369" s="29"/>
+      <c r="B369" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D369" s="2"/>
+      <c r="E369" s="2"/>
+      <c r="F369" s="2" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A370" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B370" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C370" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D370" s="4"/>
-      <c r="E370" s="4"/>
-      <c r="F370" s="4" t="s">
-        <v>22</v>
+      <c r="A370" s="29"/>
+      <c r="B370" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D370" s="2"/>
+      <c r="E370" s="2"/>
+      <c r="F370" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A371" s="12">
-        <v>1000</v>
-      </c>
+      <c r="A371" s="29"/>
       <c r="B371" s="2" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
       <c r="F371" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="A365:A366"/>
-    <mergeCell ref="C369:F369"/>
-    <mergeCell ref="C259:F259"/>
-    <mergeCell ref="C265:F265"/>
-    <mergeCell ref="C278:F278"/>
-    <mergeCell ref="C283:F283"/>
-    <mergeCell ref="A285:A286"/>
-    <mergeCell ref="A267:A274"/>
-    <mergeCell ref="A336:A337"/>
-    <mergeCell ref="C340:F340"/>
-    <mergeCell ref="A342:A346"/>
-    <mergeCell ref="C352:F352"/>
-    <mergeCell ref="C357:F357"/>
-    <mergeCell ref="C363:F363"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="C321:F321"/>
-    <mergeCell ref="A323:A324"/>
-    <mergeCell ref="C327:F327"/>
-    <mergeCell ref="A329:A330"/>
-    <mergeCell ref="C334:F334"/>
-    <mergeCell ref="A238:A240"/>
-    <mergeCell ref="C308:F308"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="C314:F314"/>
-    <mergeCell ref="C251:F251"/>
-    <mergeCell ref="C292:F292"/>
-    <mergeCell ref="C298:F298"/>
-    <mergeCell ref="A300:A302"/>
-    <mergeCell ref="A294:A295"/>
-    <mergeCell ref="C218:F218"/>
-    <mergeCell ref="C223:F223"/>
-    <mergeCell ref="C231:F231"/>
-    <mergeCell ref="C236:F236"/>
-    <mergeCell ref="C246:F246"/>
-    <mergeCell ref="C208:F208"/>
-    <mergeCell ref="A210:A214"/>
-    <mergeCell ref="C182:F182"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="C188:F188"/>
-    <mergeCell ref="A190:A199"/>
-    <mergeCell ref="C203:F203"/>
-    <mergeCell ref="A158:A176"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="A128:A146"/>
-    <mergeCell ref="C150:F150"/>
-    <mergeCell ref="A88:A97"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="C156:F156"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="C103:F103"/>
-    <mergeCell ref="C108:F108"/>
-    <mergeCell ref="A110:A115"/>
-    <mergeCell ref="C121:F121"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="C80:F80"/>
+  <mergeCells count="67">
     <mergeCell ref="C55:F55"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:F15"/>
@@ -6804,6 +6786,61 @@
     <mergeCell ref="B39:B44"/>
     <mergeCell ref="C39:C44"/>
     <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="C103:F103"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="A110:A115"/>
+    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="A158:A176"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="A128:A146"/>
+    <mergeCell ref="C150:F150"/>
+    <mergeCell ref="A88:A97"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="C156:F156"/>
+    <mergeCell ref="C208:F208"/>
+    <mergeCell ref="A210:A214"/>
+    <mergeCell ref="C182:F182"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="C188:F188"/>
+    <mergeCell ref="A190:A199"/>
+    <mergeCell ref="C203:F203"/>
+    <mergeCell ref="C218:F218"/>
+    <mergeCell ref="C223:F223"/>
+    <mergeCell ref="C231:F231"/>
+    <mergeCell ref="C236:F236"/>
+    <mergeCell ref="C246:F246"/>
+    <mergeCell ref="A348:A349"/>
+    <mergeCell ref="C352:F352"/>
+    <mergeCell ref="A354:A355"/>
+    <mergeCell ref="C359:F359"/>
+    <mergeCell ref="A238:A240"/>
+    <mergeCell ref="C333:F333"/>
+    <mergeCell ref="A335:A336"/>
+    <mergeCell ref="C339:F339"/>
+    <mergeCell ref="C251:F251"/>
+    <mergeCell ref="C292:F292"/>
+    <mergeCell ref="C298:F298"/>
+    <mergeCell ref="A300:A302"/>
+    <mergeCell ref="A294:A295"/>
+    <mergeCell ref="A321:A322"/>
+    <mergeCell ref="C259:F259"/>
+    <mergeCell ref="C265:F265"/>
+    <mergeCell ref="C278:F278"/>
+    <mergeCell ref="C283:F283"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="A267:A274"/>
+    <mergeCell ref="A361:A362"/>
+    <mergeCell ref="C365:F365"/>
+    <mergeCell ref="A367:A371"/>
+    <mergeCell ref="A341:A342"/>
+    <mergeCell ref="C346:F346"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -6818,7 +6855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC09F3A5-67AB-4B71-9A2E-8B1A1D242701}">
   <dimension ref="A2:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
@@ -6830,612 +6867,612 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="29">
+        <v>200</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="27">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
+      <c r="B4" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" s="27">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="27">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="27">
+        <v>3001</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="27">
+        <v>3002</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="27">
+        <v>4000</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="27">
+        <v>4001</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="27">
+        <v>4002</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="27">
+        <v>4003</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
-        <v>200</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C3" s="31">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C12" s="27">
+        <v>5000</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="27">
+        <v>5001</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="27">
+        <v>5002</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="27">
+        <v>5003</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="27">
+        <v>5004</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="27">
+        <v>6000</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="27">
+        <v>6001</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="27">
+        <v>6002</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="C4" s="31">
-        <v>2000</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="C5" s="31">
-        <v>3000</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="31">
-        <v>3001</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="31">
-        <v>3002</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="C8" s="31">
-        <v>4000</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="31">
-        <v>4001</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="31">
-        <v>4002</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="31">
-        <v>4003</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23" t="s">
+      <c r="C20" s="27">
+        <v>7000</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="27">
+        <v>7001</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="27">
+        <v>7002</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C12" s="31">
-        <v>5000</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="31">
-        <v>5001</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="31">
-        <v>5002</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="31">
-        <v>5003</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="31">
-        <v>5004</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="C17" s="31">
-        <v>6000</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="31">
-        <v>6001</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="31">
-        <v>6002</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23" t="s">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="27">
+        <v>7003</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="27">
+        <v>7004</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="C20" s="31">
-        <v>7000</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="31">
-        <v>7001</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="31">
-        <v>7002</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="31">
-        <v>7003</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="31">
-        <v>7004</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="C25" s="31">
+      <c r="C25" s="27">
         <v>8000</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="31">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="27">
         <v>8001</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="31">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="27">
         <v>8002</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="31">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="27">
         <v>8003</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="L28" s="26"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="27">
+        <v>8004</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="L28" s="30"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="31">
-        <v>8004</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="L29" s="30"/>
-      <c r="M29" s="31"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="27"/>
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="31">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="27">
         <v>8005</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L30" s="20"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="C31" s="31">
+        <v>284</v>
+      </c>
+      <c r="C31" s="27">
         <v>9000</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="C32" s="31">
+        <v>285</v>
+      </c>
+      <c r="C32" s="27">
         <v>10000</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23" t="s">
-        <v>302</v>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29" t="s">
+        <v>296</v>
       </c>
       <c r="C33" s="2">
         <v>11000</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="27">
+        <v>11001</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="27">
+        <v>11002</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="27">
+        <v>11003</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="31">
-        <v>11001</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="31">
-        <v>11002</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="31">
-        <v>11003</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="C37" s="31">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="C37" s="27">
         <v>12000</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="31">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="27">
         <v>12001</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="31">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="27">
         <v>12002</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="C40" s="28">
+        <v>13000</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="28">
+        <v>13001</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="28">
+        <v>13002</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="28">
+        <v>13003</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C40" s="32">
-        <v>13000</v>
-      </c>
-      <c r="D40" s="2" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="28">
+        <v>13004</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="32">
-        <v>13001</v>
-      </c>
-      <c r="D41" s="2" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="29"/>
+      <c r="B45" s="29" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="32">
-        <v>13002</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="C45" s="28">
+        <v>14000</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="32">
-        <v>13003</v>
-      </c>
-      <c r="D43" s="2" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="28">
+        <v>14001</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="28">
+        <v>14002</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="28">
+        <v>14003</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="32">
-        <v>13004</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="28">
+        <v>14004</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C45" s="32">
-        <v>14000</v>
-      </c>
-      <c r="D45" s="2" t="s">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="28">
+        <v>14005</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="32">
-        <v>14001</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="32">
-        <v>14002</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="C51" s="28">
+        <v>15000</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="28">
+        <v>15001</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="32">
-        <v>14003</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="32">
-        <v>14004</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="32">
-        <v>14005</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="C51" s="32">
-        <v>15000</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="32">
-        <v>15001</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="32">
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="28">
         <v>15002</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="C54" s="32">
+        <v>358</v>
+      </c>
+      <c r="C54" s="28">
         <v>16000</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="C55" s="31">
+      <c r="A55" s="29"/>
+      <c r="B55" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C55" s="27">
         <v>17000</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="31">
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="27">
         <v>17001</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="2">
         <v>17002</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/코딩/API 명세.xlsx
+++ b/코딩/API 명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-server\코딩\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977A0A2A-7937-4F83-8FC9-6D1BD118CC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B75B4D4-573F-4871-9727-469EA14B1E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55305" yWindow="1680" windowWidth="21600" windowHeight="11265" xr2:uid="{BE2EF8A0-5540-47EF-8B90-1BBA64DC714B}"/>
+    <workbookView xWindow="3480" yWindow="2595" windowWidth="21600" windowHeight="11265" activeTab="1" xr2:uid="{BE2EF8A0-5540-47EF-8B90-1BBA64DC714B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="376">
   <si>
     <t>[API 기본 정보]</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1596,6 +1596,18 @@
   </si>
   <si>
     <t>로컬 URL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입 실패</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Map에 map id에 해당하는 데이터가 존재하지 않음 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER FISHING PLACE에 사용자 정보가 없음</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1804,17 +1816,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1822,7 +1829,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2140,7 +2152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4718739-CF9A-4539-B52C-0B74572D14D8}">
   <dimension ref="A2:G371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2315,7 +2327,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2333,7 +2345,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
@@ -2349,7 +2361,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
@@ -2365,7 +2377,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
@@ -2381,7 +2393,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
@@ -2516,7 +2528,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="31" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2532,7 +2544,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="2" t="s">
         <v>24</v>
       </c>
@@ -2592,7 +2604,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="33">
+      <c r="A38" s="32">
         <v>1000</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2608,11 +2620,11 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="33"/>
-      <c r="B39" s="29" t="s">
+      <c r="A39" s="32"/>
+      <c r="B39" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="33" t="s">
         <v>50</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -2621,45 +2633,45 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="33"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="34"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="33"/>
       <c r="F40" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="33"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="34"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="33"/>
       <c r="F41" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="33"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="34"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="33"/>
       <c r="F42" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="33"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="34"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="33"/>
       <c r="F43" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="33"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="34"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="33"/>
       <c r="F44" s="2" t="s">
         <v>56</v>
       </c>
@@ -2870,7 +2882,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="31" t="s">
         <v>67</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -2888,7 +2900,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="29"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="2" t="s">
         <v>68</v>
       </c>
@@ -2948,7 +2960,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="29">
+      <c r="A70" s="31">
         <v>1000</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -2964,7 +2976,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="29"/>
+      <c r="A71" s="31"/>
       <c r="B71" s="2" t="s">
         <v>71</v>
       </c>
@@ -2978,7 +2990,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="29"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="2" t="s">
         <v>73</v>
       </c>
@@ -2992,7 +3004,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="29"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="2" t="s">
         <v>75</v>
       </c>
@@ -3006,7 +3018,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="29"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="2" t="s">
         <v>77</v>
       </c>
@@ -3020,7 +3032,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="29"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="2" t="s">
         <v>80</v>
       </c>
@@ -3034,7 +3046,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="29"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="2" t="s">
         <v>82</v>
       </c>
@@ -3100,7 +3112,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="29" t="s">
+      <c r="A82" s="31" t="s">
         <v>85</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -3118,7 +3130,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="29"/>
+      <c r="A83" s="31"/>
       <c r="B83" s="2" t="s">
         <v>86</v>
       </c>
@@ -3178,7 +3190,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="29">
+      <c r="A88" s="31">
         <v>1000</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -3194,7 +3206,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="29"/>
+      <c r="A89" s="31"/>
       <c r="B89" s="2" t="s">
         <v>89</v>
       </c>
@@ -3208,7 +3220,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="29"/>
+      <c r="A90" s="31"/>
       <c r="B90" s="2" t="s">
         <v>91</v>
       </c>
@@ -3222,7 +3234,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="29"/>
+      <c r="A91" s="31"/>
       <c r="B91" s="2" t="s">
         <v>93</v>
       </c>
@@ -3236,7 +3248,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="29"/>
+      <c r="A92" s="31"/>
       <c r="B92" s="2" t="s">
         <v>95</v>
       </c>
@@ -3250,7 +3262,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="29"/>
+      <c r="A93" s="31"/>
       <c r="B93" s="2" t="s">
         <v>97</v>
       </c>
@@ -3264,7 +3276,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="29"/>
+      <c r="A94" s="31"/>
       <c r="B94" s="2" t="s">
         <v>99</v>
       </c>
@@ -3278,7 +3290,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="29"/>
+      <c r="A95" s="31"/>
       <c r="B95" s="2" t="s">
         <v>44</v>
       </c>
@@ -3292,7 +3304,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="29"/>
+      <c r="A96" s="31"/>
       <c r="B96" s="2" t="s">
         <v>102</v>
       </c>
@@ -3306,7 +3318,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="29"/>
+      <c r="A97" s="31"/>
       <c r="B97" s="2" t="s">
         <v>104</v>
       </c>
@@ -3430,12 +3442,12 @@
         <v>15</v>
       </c>
       <c r="B108" s="16"/>
-      <c r="C108" s="32" t="s">
+      <c r="C108" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D108" s="32"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="32"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="34"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="18" t="s">
@@ -3454,7 +3466,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="31">
+      <c r="A110" s="35">
         <v>1000</v>
       </c>
       <c r="B110" s="15" t="s">
@@ -3470,7 +3482,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="31"/>
+      <c r="A111" s="35"/>
       <c r="B111" s="15" t="s">
         <v>110</v>
       </c>
@@ -3484,7 +3496,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="31"/>
+      <c r="A112" s="35"/>
       <c r="B112" s="15" t="s">
         <v>112</v>
       </c>
@@ -3498,7 +3510,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="31"/>
+      <c r="A113" s="35"/>
       <c r="B113" s="15" t="s">
         <v>114</v>
       </c>
@@ -3512,7 +3524,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="31"/>
+      <c r="A114" s="35"/>
       <c r="B114" s="15" t="s">
         <v>116</v>
       </c>
@@ -3526,7 +3538,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="31"/>
+      <c r="A115" s="35"/>
       <c r="B115" s="15" t="s">
         <v>118</v>
       </c>
@@ -3674,7 +3686,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="31">
+      <c r="A128" s="35">
         <v>1000</v>
       </c>
       <c r="B128" s="15" t="s">
@@ -3690,7 +3702,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="31"/>
+      <c r="A129" s="35"/>
       <c r="B129" s="15" t="s">
         <v>145</v>
       </c>
@@ -3704,7 +3716,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="31"/>
+      <c r="A130" s="35"/>
       <c r="B130" s="15" t="s">
         <v>147</v>
       </c>
@@ -3718,7 +3730,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="31"/>
+      <c r="A131" s="35"/>
       <c r="B131" s="15" t="s">
         <v>149</v>
       </c>
@@ -3732,7 +3744,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="31"/>
+      <c r="A132" s="35"/>
       <c r="B132" s="15" t="s">
         <v>151</v>
       </c>
@@ -3746,7 +3758,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="31"/>
+      <c r="A133" s="35"/>
       <c r="B133" s="15" t="s">
         <v>153</v>
       </c>
@@ -3760,7 +3772,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="31"/>
+      <c r="A134" s="35"/>
       <c r="B134" s="15" t="s">
         <v>155</v>
       </c>
@@ -3774,7 +3786,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="31"/>
+      <c r="A135" s="35"/>
       <c r="B135" s="15" t="s">
         <v>157</v>
       </c>
@@ -3788,7 +3800,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="31"/>
+      <c r="A136" s="35"/>
       <c r="B136" s="15" t="s">
         <v>159</v>
       </c>
@@ -3802,7 +3814,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="31"/>
+      <c r="A137" s="35"/>
       <c r="B137" s="15" t="s">
         <v>161</v>
       </c>
@@ -3816,7 +3828,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="31"/>
+      <c r="A138" s="35"/>
       <c r="B138" s="15" t="s">
         <v>163</v>
       </c>
@@ -3830,7 +3842,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="31"/>
+      <c r="A139" s="35"/>
       <c r="B139" s="15" t="s">
         <v>165</v>
       </c>
@@ -3844,7 +3856,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="31"/>
+      <c r="A140" s="35"/>
       <c r="B140" s="15" t="s">
         <v>167</v>
       </c>
@@ -3858,7 +3870,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="31"/>
+      <c r="A141" s="35"/>
       <c r="B141" s="15" t="s">
         <v>169</v>
       </c>
@@ -3872,7 +3884,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="31"/>
+      <c r="A142" s="35"/>
       <c r="B142" s="15" t="s">
         <v>171</v>
       </c>
@@ -3886,7 +3898,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="31"/>
+      <c r="A143" s="35"/>
       <c r="B143" s="15" t="s">
         <v>173</v>
       </c>
@@ -3900,7 +3912,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="31"/>
+      <c r="A144" s="35"/>
       <c r="B144" s="15" t="s">
         <v>175</v>
       </c>
@@ -3914,7 +3926,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="31"/>
+      <c r="A145" s="35"/>
       <c r="B145" s="15" t="s">
         <v>177</v>
       </c>
@@ -3928,7 +3940,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="31"/>
+      <c r="A146" s="35"/>
       <c r="B146" s="15" t="s">
         <v>179</v>
       </c>
@@ -3994,7 +4006,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="29" t="s">
+      <c r="A152" s="31" t="s">
         <v>305</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -4012,7 +4024,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="29"/>
+      <c r="A153" s="31"/>
       <c r="B153" s="2" t="s">
         <v>62</v>
       </c>
@@ -4074,7 +4086,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="29">
+      <c r="A158" s="31">
         <v>1000</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -4090,7 +4102,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="29"/>
+      <c r="A159" s="31"/>
       <c r="B159" s="2" t="s">
         <v>145</v>
       </c>
@@ -4104,7 +4116,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="29"/>
+      <c r="A160" s="31"/>
       <c r="B160" s="2" t="s">
         <v>147</v>
       </c>
@@ -4118,7 +4130,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="29"/>
+      <c r="A161" s="31"/>
       <c r="B161" s="2" t="s">
         <v>149</v>
       </c>
@@ -4132,7 +4144,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="29"/>
+      <c r="A162" s="31"/>
       <c r="B162" s="2" t="s">
         <v>151</v>
       </c>
@@ -4146,7 +4158,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="29"/>
+      <c r="A163" s="31"/>
       <c r="B163" s="2" t="s">
         <v>153</v>
       </c>
@@ -4160,7 +4172,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="29"/>
+      <c r="A164" s="31"/>
       <c r="B164" s="2" t="s">
         <v>155</v>
       </c>
@@ -4174,7 +4186,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="29"/>
+      <c r="A165" s="31"/>
       <c r="B165" s="2" t="s">
         <v>157</v>
       </c>
@@ -4188,7 +4200,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="29"/>
+      <c r="A166" s="31"/>
       <c r="B166" s="2" t="s">
         <v>159</v>
       </c>
@@ -4202,7 +4214,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="29"/>
+      <c r="A167" s="31"/>
       <c r="B167" s="2" t="s">
         <v>161</v>
       </c>
@@ -4216,7 +4228,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="29"/>
+      <c r="A168" s="31"/>
       <c r="B168" s="2" t="s">
         <v>163</v>
       </c>
@@ -4230,7 +4242,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="29"/>
+      <c r="A169" s="31"/>
       <c r="B169" s="2" t="s">
         <v>165</v>
       </c>
@@ -4244,7 +4256,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="29"/>
+      <c r="A170" s="31"/>
       <c r="B170" s="2" t="s">
         <v>167</v>
       </c>
@@ -4258,7 +4270,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="29"/>
+      <c r="A171" s="31"/>
       <c r="B171" s="2" t="s">
         <v>169</v>
       </c>
@@ -4272,7 +4284,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="29"/>
+      <c r="A172" s="31"/>
       <c r="B172" s="2" t="s">
         <v>171</v>
       </c>
@@ -4286,7 +4298,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="29"/>
+      <c r="A173" s="31"/>
       <c r="B173" s="2" t="s">
         <v>173</v>
       </c>
@@ -4300,7 +4312,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="29"/>
+      <c r="A174" s="31"/>
       <c r="B174" s="2" t="s">
         <v>175</v>
       </c>
@@ -4314,7 +4326,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="29"/>
+      <c r="A175" s="31"/>
       <c r="B175" s="2" t="s">
         <v>177</v>
       </c>
@@ -4328,7 +4340,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="29"/>
+      <c r="A176" s="31"/>
       <c r="B176" s="2" t="s">
         <v>179</v>
       </c>
@@ -4420,7 +4432,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="29" t="s">
+      <c r="A184" s="31" t="s">
         <v>121</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -4438,7 +4450,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="29"/>
+      <c r="A185" s="31"/>
       <c r="B185" s="2" t="s">
         <v>71</v>
       </c>
@@ -4500,7 +4512,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="31">
+      <c r="A190" s="35">
         <v>1000</v>
       </c>
       <c r="B190" s="15" t="s">
@@ -4516,7 +4528,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="31"/>
+      <c r="A191" s="35"/>
       <c r="B191" s="15" t="s">
         <v>124</v>
       </c>
@@ -4530,7 +4542,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="31"/>
+      <c r="A192" s="35"/>
       <c r="B192" s="15" t="s">
         <v>126</v>
       </c>
@@ -4544,7 +4556,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="31"/>
+      <c r="A193" s="35"/>
       <c r="B193" s="15" t="s">
         <v>128</v>
       </c>
@@ -4558,7 +4570,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="31"/>
+      <c r="A194" s="35"/>
       <c r="B194" s="15" t="s">
         <v>130</v>
       </c>
@@ -4572,7 +4584,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="31"/>
+      <c r="A195" s="35"/>
       <c r="B195" s="15" t="s">
         <v>132</v>
       </c>
@@ -4586,7 +4598,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="31"/>
+      <c r="A196" s="35"/>
       <c r="B196" s="15" t="s">
         <v>133</v>
       </c>
@@ -4600,7 +4612,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="31"/>
+      <c r="A197" s="35"/>
       <c r="B197" s="15" t="s">
         <v>135</v>
       </c>
@@ -4614,7 +4626,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="31"/>
+      <c r="A198" s="35"/>
       <c r="B198" s="15" t="s">
         <v>137</v>
       </c>
@@ -4628,7 +4640,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="31"/>
+      <c r="A199" s="35"/>
       <c r="B199" s="15" t="s">
         <v>139</v>
       </c>
@@ -4758,7 +4770,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="29">
+      <c r="A210" s="31">
         <v>1000</v>
       </c>
       <c r="B210" s="2" t="s">
@@ -4774,7 +4786,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="29"/>
+      <c r="A211" s="31"/>
       <c r="B211" s="2" t="s">
         <v>75</v>
       </c>
@@ -4788,7 +4800,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="29"/>
+      <c r="A212" s="31"/>
       <c r="B212" s="2" t="s">
         <v>77</v>
       </c>
@@ -4802,7 +4814,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="29"/>
+      <c r="A213" s="31"/>
       <c r="B213" s="2" t="s">
         <v>80</v>
       </c>
@@ -4816,7 +4828,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="29"/>
+      <c r="A214" s="31"/>
       <c r="B214" s="2" t="s">
         <v>82</v>
       </c>
@@ -5083,7 +5095,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A238" s="29">
+      <c r="A238" s="31">
         <v>1000</v>
       </c>
       <c r="B238" t="s">
@@ -5099,7 +5111,7 @@
       </c>
     </row>
     <row r="239" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A239" s="29"/>
+      <c r="A239" s="31"/>
       <c r="B239" t="s">
         <v>215</v>
       </c>
@@ -5111,7 +5123,7 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" s="29"/>
+      <c r="A240" s="31"/>
       <c r="B240" t="s">
         <v>212</v>
       </c>
@@ -5419,7 +5431,7 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A267" s="29">
+      <c r="A267" s="31">
         <v>1000</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -5435,7 +5447,7 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A268" s="29"/>
+      <c r="A268" s="31"/>
       <c r="B268" s="2" t="s">
         <v>71</v>
       </c>
@@ -5449,7 +5461,7 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A269" s="29"/>
+      <c r="A269" s="31"/>
       <c r="B269" s="2" t="s">
         <v>256</v>
       </c>
@@ -5463,7 +5475,7 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A270" s="29"/>
+      <c r="A270" s="31"/>
       <c r="B270" s="2" t="s">
         <v>108</v>
       </c>
@@ -5477,7 +5489,7 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A271" s="29"/>
+      <c r="A271" s="31"/>
       <c r="B271" s="2" t="s">
         <v>80</v>
       </c>
@@ -5491,7 +5503,7 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A272" s="29"/>
+      <c r="A272" s="31"/>
       <c r="B272" s="2" t="s">
         <v>82</v>
       </c>
@@ -5505,7 +5517,7 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A273" s="29"/>
+      <c r="A273" s="31"/>
       <c r="B273" s="2" t="s">
         <v>259</v>
       </c>
@@ -5519,7 +5531,7 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A274" s="29"/>
+      <c r="A274" s="31"/>
       <c r="B274" s="2" t="s">
         <v>261</v>
       </c>
@@ -5657,7 +5669,7 @@
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A285" s="29">
+      <c r="A285" s="31">
         <v>1000</v>
       </c>
       <c r="B285" s="2" t="s">
@@ -5673,7 +5685,7 @@
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A286" s="29"/>
+      <c r="A286" s="31"/>
       <c r="B286" s="2" t="s">
         <v>264</v>
       </c>
@@ -5765,7 +5777,7 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="29" t="s">
+      <c r="A294" s="31" t="s">
         <v>330</v>
       </c>
       <c r="B294" s="2" t="s">
@@ -5783,7 +5795,7 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A295" s="29"/>
+      <c r="A295" s="31"/>
       <c r="B295" s="2" t="s">
         <v>331</v>
       </c>
@@ -5845,7 +5857,7 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A300" s="29">
+      <c r="A300" s="31">
         <v>1000</v>
       </c>
       <c r="B300" s="2" t="s">
@@ -5861,7 +5873,7 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A301" s="29"/>
+      <c r="A301" s="31"/>
       <c r="B301" s="2" t="s">
         <v>338</v>
       </c>
@@ -5875,7 +5887,7 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A302" s="29"/>
+      <c r="A302" s="31"/>
       <c r="B302" s="2" t="s">
         <v>326</v>
       </c>
@@ -6107,7 +6119,7 @@
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A321" s="29" t="s">
+      <c r="A321" s="31" t="s">
         <v>246</v>
       </c>
       <c r="B321" s="2" t="s">
@@ -6125,7 +6137,7 @@
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A322" s="29"/>
+      <c r="A322" s="31"/>
       <c r="B322" s="2" t="s">
         <v>247</v>
       </c>
@@ -6221,7 +6233,7 @@
       <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A331" s="35" t="s">
+      <c r="A331" s="29" t="s">
         <v>367</v>
       </c>
       <c r="B331" s="2"/>
@@ -6273,7 +6285,7 @@
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A335" s="29" t="s">
+      <c r="A335" s="31" t="s">
         <v>221</v>
       </c>
       <c r="B335" s="2" t="s">
@@ -6291,7 +6303,7 @@
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A336" s="29"/>
+      <c r="A336" s="31"/>
       <c r="B336" s="2" t="s">
         <v>222</v>
       </c>
@@ -6353,7 +6365,7 @@
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A341" s="29">
+      <c r="A341" s="31">
         <v>1000</v>
       </c>
       <c r="B341" s="2" t="s">
@@ -6371,7 +6383,7 @@
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A342" s="29"/>
+      <c r="A342" s="31"/>
       <c r="B342" s="2" t="s">
         <v>225</v>
       </c>
@@ -6395,7 +6407,7 @@
       <c r="F343" s="2"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A344" s="35" t="s">
+      <c r="A344" s="29" t="s">
         <v>368</v>
       </c>
       <c r="B344" s="2"/>
@@ -6447,7 +6459,7 @@
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A348" s="29" t="s">
+      <c r="A348" s="31" t="s">
         <v>227</v>
       </c>
       <c r="B348" s="2" t="s">
@@ -6465,7 +6477,7 @@
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A349" s="29"/>
+      <c r="A349" s="31"/>
       <c r="B349" s="2" t="s">
         <v>228</v>
       </c>
@@ -6527,7 +6539,7 @@
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A354" s="29">
+      <c r="A354" s="31">
         <v>1000</v>
       </c>
       <c r="B354" s="2" t="s">
@@ -6545,7 +6557,7 @@
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A355" s="29"/>
+      <c r="A355" s="31"/>
       <c r="B355" s="2" t="s">
         <v>231</v>
       </c>
@@ -6569,7 +6581,7 @@
       <c r="F356" s="2"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A357" s="35" t="s">
+      <c r="A357" s="29" t="s">
         <v>369</v>
       </c>
       <c r="B357" s="2"/>
@@ -6621,7 +6633,7 @@
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A361" s="29" t="s">
+      <c r="A361" s="31" t="s">
         <v>233</v>
       </c>
       <c r="B361" s="2" t="s">
@@ -6639,7 +6651,7 @@
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A362" s="29"/>
+      <c r="A362" s="31"/>
       <c r="B362" s="2" t="s">
         <v>234</v>
       </c>
@@ -6701,7 +6713,7 @@
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A367" s="29">
+      <c r="A367" s="31">
         <v>1000</v>
       </c>
       <c r="B367" s="2" t="s">
@@ -6717,7 +6729,7 @@
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A368" s="29"/>
+      <c r="A368" s="31"/>
       <c r="B368" s="2" t="s">
         <v>237</v>
       </c>
@@ -6731,7 +6743,7 @@
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A369" s="29"/>
+      <c r="A369" s="31"/>
       <c r="B369" s="2" t="s">
         <v>239</v>
       </c>
@@ -6745,7 +6757,7 @@
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A370" s="29"/>
+      <c r="A370" s="31"/>
       <c r="B370" s="2" t="s">
         <v>137</v>
       </c>
@@ -6759,7 +6771,7 @@
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A371" s="29"/>
+      <c r="A371" s="31"/>
       <c r="B371" s="2" t="s">
         <v>139</v>
       </c>
@@ -6774,48 +6786,15 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="C103:F103"/>
-    <mergeCell ref="C108:F108"/>
-    <mergeCell ref="A110:A115"/>
-    <mergeCell ref="C121:F121"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="A158:A176"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="A128:A146"/>
-    <mergeCell ref="C150:F150"/>
-    <mergeCell ref="A88:A97"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="C156:F156"/>
-    <mergeCell ref="C208:F208"/>
-    <mergeCell ref="A210:A214"/>
-    <mergeCell ref="C182:F182"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="C188:F188"/>
-    <mergeCell ref="A190:A199"/>
-    <mergeCell ref="C203:F203"/>
-    <mergeCell ref="C218:F218"/>
-    <mergeCell ref="C223:F223"/>
-    <mergeCell ref="C231:F231"/>
-    <mergeCell ref="C236:F236"/>
-    <mergeCell ref="C246:F246"/>
+    <mergeCell ref="C365:F365"/>
+    <mergeCell ref="A367:A371"/>
+    <mergeCell ref="A341:A342"/>
+    <mergeCell ref="C346:F346"/>
+    <mergeCell ref="C278:F278"/>
+    <mergeCell ref="C283:F283"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="A267:A274"/>
+    <mergeCell ref="A361:A362"/>
     <mergeCell ref="A348:A349"/>
     <mergeCell ref="C352:F352"/>
     <mergeCell ref="A354:A355"/>
@@ -6832,15 +6811,48 @@
     <mergeCell ref="A321:A322"/>
     <mergeCell ref="C259:F259"/>
     <mergeCell ref="C265:F265"/>
-    <mergeCell ref="C278:F278"/>
-    <mergeCell ref="C283:F283"/>
-    <mergeCell ref="A285:A286"/>
-    <mergeCell ref="A267:A274"/>
-    <mergeCell ref="A361:A362"/>
-    <mergeCell ref="C365:F365"/>
-    <mergeCell ref="A367:A371"/>
-    <mergeCell ref="A341:A342"/>
-    <mergeCell ref="C346:F346"/>
+    <mergeCell ref="C218:F218"/>
+    <mergeCell ref="C223:F223"/>
+    <mergeCell ref="C231:F231"/>
+    <mergeCell ref="C236:F236"/>
+    <mergeCell ref="C246:F246"/>
+    <mergeCell ref="C208:F208"/>
+    <mergeCell ref="A210:A214"/>
+    <mergeCell ref="C182:F182"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="C188:F188"/>
+    <mergeCell ref="A190:A199"/>
+    <mergeCell ref="C203:F203"/>
+    <mergeCell ref="A158:A176"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="A128:A146"/>
+    <mergeCell ref="C150:F150"/>
+    <mergeCell ref="A88:A97"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="C156:F156"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="C103:F103"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="A110:A115"/>
+    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="C50:F50"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -6853,10 +6865,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC09F3A5-67AB-4B71-9A2E-8B1A1D242701}">
-  <dimension ref="A2:N57"/>
+  <dimension ref="A2:N60"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6881,7 +6893,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="29">
+      <c r="A3" s="31">
         <v>200</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -6895,7 +6907,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="20" t="s">
         <v>362</v>
       </c>
@@ -6907,8 +6919,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31" t="s">
         <v>287</v>
       </c>
       <c r="C5" s="27">
@@ -6919,8 +6931,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="27">
         <v>3001</v>
       </c>
@@ -6929,8 +6941,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="27">
         <v>3002</v>
       </c>
@@ -6939,557 +6951,587 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="27">
+        <v>3003</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C9" s="27">
         <v>4000</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="27">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="27">
         <v>4001</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="27">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="27">
         <v>4002</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="27">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="27">
         <v>4003</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C13" s="27">
         <v>5000</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="27">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="27">
         <v>5001</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="27">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="27">
         <v>5002</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="27">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="27">
         <v>5003</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="27">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="27">
         <v>5004</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C18" s="27">
         <v>6000</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="27">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="27">
         <v>6001</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="27">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="27">
         <v>6002</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C21" s="27">
         <v>7000</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="27">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="27">
         <v>7001</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="27">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="27">
         <v>7002</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="27">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="27">
         <v>7003</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="27">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="27">
         <v>7004</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C26" s="27">
         <v>8000</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="27">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="27">
         <v>8001</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="27">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="27">
         <v>8002</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="27">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="27">
         <v>8003</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="L28" s="26"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="27">
-        <v>8004</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="L29" s="26"/>
       <c r="M29" s="27"/>
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="27">
+        <v>8004</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L30" s="26"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="27">
         <v>8005</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="L30" s="20"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="20" t="s">
+      <c r="L31" s="20"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+      <c r="B32" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C32" s="27">
         <v>9000</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="20" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
+      <c r="B33" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C33" s="27">
         <v>10000</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="B34" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C34" s="2">
         <v>11000</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="27">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="27">
         <v>11001</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="27">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="27">
         <v>11002</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="27">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="27">
         <v>11003</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="31"/>
+      <c r="B38" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C38" s="27">
         <v>12000</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="27">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="27">
         <v>12001</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="27">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="27">
         <v>12002</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="27">
+        <v>12003</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="27">
+        <v>12004</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="31"/>
+      <c r="B43" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C43" s="28">
         <v>13000</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="28">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="28">
         <v>13001</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="28">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="28">
         <v>13002</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="28">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="28">
         <v>13003</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="28">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="28">
         <v>13004</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="31"/>
+      <c r="B48" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C48" s="28">
         <v>14000</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="28">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="28">
         <v>14001</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="28">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="28">
         <v>14002</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="28">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="28">
         <v>14003</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="28">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="28">
         <v>14004</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="28">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="28">
         <v>14005</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="31"/>
+      <c r="B54" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="C51" s="28">
+      <c r="C54" s="28">
         <v>15000</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="28">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="28">
         <v>15001</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="28">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="28">
         <v>15002</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="29"/>
-      <c r="B54" s="20" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="31"/>
+      <c r="B57" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="C54" s="28">
+      <c r="C57" s="28">
         <v>16000</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="31"/>
+      <c r="B58" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="C55" s="27">
+      <c r="C58" s="27">
         <v>17000</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="27">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="27">
         <v>17001</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="2">
         <v>17002</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>356</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A3:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A3:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B38:B42"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
